--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,87 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2559400</v>
+        <v>2618400</v>
       </c>
       <c r="E8" s="3">
-        <v>2408200</v>
+        <v>2479400</v>
       </c>
       <c r="F8" s="3">
-        <v>2446900</v>
+        <v>2333000</v>
       </c>
       <c r="G8" s="3">
-        <v>2431100</v>
+        <v>2370400</v>
       </c>
       <c r="H8" s="3">
-        <v>2618400</v>
+        <v>2355100</v>
       </c>
       <c r="I8" s="3">
-        <v>2260400</v>
+        <v>2536500</v>
       </c>
       <c r="J8" s="3">
+        <v>2189800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2141100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2207500</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,9 +773,12 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,9 +806,12 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,9 +887,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -901,39 +920,45 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-48200</v>
+        <v>-87500</v>
       </c>
       <c r="E15" s="3">
-        <v>-45100</v>
+        <v>-46700</v>
       </c>
       <c r="F15" s="3">
-        <v>-42600</v>
+        <v>-43700</v>
       </c>
       <c r="G15" s="3">
-        <v>-37800</v>
+        <v>-41300</v>
       </c>
       <c r="H15" s="3">
-        <v>-42000</v>
+        <v>-36600</v>
       </c>
       <c r="I15" s="3">
-        <v>-35400</v>
+        <v>-40700</v>
       </c>
       <c r="J15" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-90000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-103300</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1230100</v>
+        <v>1351000</v>
       </c>
       <c r="E17" s="3">
-        <v>1135300</v>
+        <v>1191700</v>
       </c>
       <c r="F17" s="3">
-        <v>1280000</v>
+        <v>1099900</v>
       </c>
       <c r="G17" s="3">
-        <v>1258500</v>
+        <v>1240000</v>
       </c>
       <c r="H17" s="3">
-        <v>1344500</v>
+        <v>1219200</v>
       </c>
       <c r="I17" s="3">
-        <v>1185300</v>
+        <v>1302400</v>
       </c>
       <c r="J17" s="3">
+        <v>1148300</v>
+      </c>
+      <c r="K17" s="3">
         <v>1120100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1133600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1329300</v>
+        <v>1267400</v>
       </c>
       <c r="E18" s="3">
-        <v>1272900</v>
+        <v>1287700</v>
       </c>
       <c r="F18" s="3">
-        <v>1166900</v>
+        <v>1233100</v>
       </c>
       <c r="G18" s="3">
-        <v>1172600</v>
+        <v>1130400</v>
       </c>
       <c r="H18" s="3">
-        <v>1273900</v>
+        <v>1135900</v>
       </c>
       <c r="I18" s="3">
-        <v>1075100</v>
+        <v>1234100</v>
       </c>
       <c r="J18" s="3">
+        <v>1041500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1021100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1073900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,68 +1049,75 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-367500</v>
+        <v>-321700</v>
       </c>
       <c r="E20" s="3">
-        <v>-388400</v>
+        <v>-356000</v>
       </c>
       <c r="F20" s="3">
-        <v>-346000</v>
+        <v>-376200</v>
       </c>
       <c r="G20" s="3">
-        <v>-378000</v>
+        <v>-335200</v>
       </c>
       <c r="H20" s="3">
-        <v>-409700</v>
+        <v>-366200</v>
       </c>
       <c r="I20" s="3">
-        <v>-256800</v>
+        <v>-396900</v>
       </c>
       <c r="J20" s="3">
+        <v>-248800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-325000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-333700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1010400</v>
+        <v>1031800</v>
       </c>
       <c r="E21" s="3">
-        <v>930000</v>
+        <v>977700</v>
       </c>
       <c r="F21" s="3">
-        <v>863800</v>
+        <v>899900</v>
       </c>
       <c r="G21" s="3">
-        <v>832600</v>
+        <v>835800</v>
       </c>
       <c r="H21" s="3">
-        <v>906600</v>
+        <v>805700</v>
       </c>
       <c r="I21" s="3">
-        <v>854000</v>
+        <v>877300</v>
       </c>
       <c r="J21" s="3">
+        <v>826500</v>
+      </c>
+      <c r="K21" s="3">
         <v>741400</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1106,69 +1145,78 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>961800</v>
+        <v>945700</v>
       </c>
       <c r="E23" s="3">
-        <v>884500</v>
+        <v>931700</v>
       </c>
       <c r="F23" s="3">
-        <v>820800</v>
+        <v>856900</v>
       </c>
       <c r="G23" s="3">
-        <v>794500</v>
+        <v>795200</v>
       </c>
       <c r="H23" s="3">
-        <v>864300</v>
+        <v>769700</v>
       </c>
       <c r="I23" s="3">
-        <v>818300</v>
+        <v>837300</v>
       </c>
       <c r="J23" s="3">
+        <v>792700</v>
+      </c>
+      <c r="K23" s="3">
         <v>696100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>740300</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200400</v>
+        <v>210400</v>
       </c>
       <c r="E24" s="3">
-        <v>147200</v>
+        <v>194100</v>
       </c>
       <c r="F24" s="3">
-        <v>114000</v>
+        <v>142600</v>
       </c>
       <c r="G24" s="3">
-        <v>79000</v>
+        <v>110400</v>
       </c>
       <c r="H24" s="3">
-        <v>102000</v>
+        <v>76500</v>
       </c>
       <c r="I24" s="3">
-        <v>114000</v>
+        <v>98800</v>
       </c>
       <c r="J24" s="3">
+        <v>110500</v>
+      </c>
+      <c r="K24" s="3">
         <v>81800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>96200</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>761400</v>
+        <v>735300</v>
       </c>
       <c r="E26" s="3">
-        <v>737300</v>
+        <v>737600</v>
       </c>
       <c r="F26" s="3">
-        <v>706900</v>
+        <v>714300</v>
       </c>
       <c r="G26" s="3">
-        <v>715500</v>
+        <v>684800</v>
       </c>
       <c r="H26" s="3">
-        <v>762300</v>
+        <v>693200</v>
       </c>
       <c r="I26" s="3">
-        <v>704200</v>
+        <v>738400</v>
       </c>
       <c r="J26" s="3">
+        <v>682200</v>
+      </c>
+      <c r="K26" s="3">
         <v>614200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>644100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>761400</v>
+        <v>735300</v>
       </c>
       <c r="E27" s="3">
-        <v>737300</v>
+        <v>737600</v>
       </c>
       <c r="F27" s="3">
-        <v>706900</v>
+        <v>714300</v>
       </c>
       <c r="G27" s="3">
-        <v>715500</v>
+        <v>684800</v>
       </c>
       <c r="H27" s="3">
-        <v>762300</v>
+        <v>693200</v>
       </c>
       <c r="I27" s="3">
-        <v>704200</v>
+        <v>738400</v>
       </c>
       <c r="J27" s="3">
+        <v>682200</v>
+      </c>
+      <c r="K27" s="3">
         <v>614200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>644100</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>367500</v>
+        <v>321700</v>
       </c>
       <c r="E32" s="3">
-        <v>388400</v>
+        <v>356000</v>
       </c>
       <c r="F32" s="3">
-        <v>346000</v>
+        <v>376200</v>
       </c>
       <c r="G32" s="3">
-        <v>378000</v>
+        <v>335200</v>
       </c>
       <c r="H32" s="3">
-        <v>409700</v>
+        <v>366200</v>
       </c>
       <c r="I32" s="3">
-        <v>256800</v>
+        <v>396900</v>
       </c>
       <c r="J32" s="3">
+        <v>248800</v>
+      </c>
+      <c r="K32" s="3">
         <v>325000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>333700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>761400</v>
+        <v>735300</v>
       </c>
       <c r="E33" s="3">
-        <v>737300</v>
+        <v>737600</v>
       </c>
       <c r="F33" s="3">
-        <v>706900</v>
+        <v>714300</v>
       </c>
       <c r="G33" s="3">
-        <v>715500</v>
+        <v>684800</v>
       </c>
       <c r="H33" s="3">
-        <v>762300</v>
+        <v>693200</v>
       </c>
       <c r="I33" s="3">
-        <v>704200</v>
+        <v>738400</v>
       </c>
       <c r="J33" s="3">
+        <v>682200</v>
+      </c>
+      <c r="K33" s="3">
         <v>614200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>644100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>761400</v>
+        <v>735300</v>
       </c>
       <c r="E35" s="3">
-        <v>737300</v>
+        <v>737600</v>
       </c>
       <c r="F35" s="3">
-        <v>706900</v>
+        <v>714300</v>
       </c>
       <c r="G35" s="3">
-        <v>715500</v>
+        <v>684800</v>
       </c>
       <c r="H35" s="3">
-        <v>762300</v>
+        <v>693200</v>
       </c>
       <c r="I35" s="3">
-        <v>704200</v>
+        <v>738400</v>
       </c>
       <c r="J35" s="3">
+        <v>682200</v>
+      </c>
+      <c r="K35" s="3">
         <v>614200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>644100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,68 +1645,75 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3611300</v>
+        <v>3490600</v>
       </c>
       <c r="E41" s="3">
-        <v>2517500</v>
+        <v>3526600</v>
       </c>
       <c r="F41" s="3">
-        <v>2986400</v>
+        <v>2458500</v>
       </c>
       <c r="G41" s="3">
-        <v>4201600</v>
+        <v>2916400</v>
       </c>
       <c r="H41" s="3">
-        <v>3162300</v>
+        <v>4103100</v>
       </c>
       <c r="I41" s="3">
-        <v>2861300</v>
+        <v>3088200</v>
       </c>
       <c r="J41" s="3">
+        <v>2794200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1273600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1844500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4467200</v>
+        <v>7655900</v>
       </c>
       <c r="E42" s="3">
-        <v>4260100</v>
+        <v>4362500</v>
       </c>
       <c r="F42" s="3">
-        <v>2669700</v>
+        <v>4160300</v>
       </c>
       <c r="G42" s="3">
-        <v>1168400</v>
+        <v>2607100</v>
       </c>
       <c r="H42" s="3">
-        <v>1802800</v>
+        <v>1141000</v>
       </c>
       <c r="I42" s="3">
-        <v>1003600</v>
+        <v>1760500</v>
       </c>
       <c r="J42" s="3">
+        <v>980000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1968800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1420400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1649,9 +1741,12 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1679,9 +1774,12 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1709,9 +1807,12 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1739,99 +1840,111 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>57000</v>
+        <v>63400</v>
       </c>
       <c r="E47" s="3">
-        <v>48700</v>
+        <v>55700</v>
       </c>
       <c r="F47" s="3">
-        <v>41700</v>
+        <v>47600</v>
       </c>
       <c r="G47" s="3">
-        <v>36000</v>
+        <v>40700</v>
       </c>
       <c r="H47" s="3">
-        <v>32400</v>
+        <v>35200</v>
       </c>
       <c r="I47" s="3">
-        <v>18400</v>
+        <v>31600</v>
       </c>
       <c r="J47" s="3">
+        <v>18000</v>
+      </c>
+      <c r="K47" s="3">
         <v>14900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>294200</v>
+        <v>480100</v>
       </c>
       <c r="E48" s="3">
-        <v>295100</v>
+        <v>287300</v>
       </c>
       <c r="F48" s="3">
-        <v>299200</v>
+        <v>288200</v>
       </c>
       <c r="G48" s="3">
-        <v>295300</v>
+        <v>292200</v>
       </c>
       <c r="H48" s="3">
-        <v>899600</v>
+        <v>288400</v>
       </c>
       <c r="I48" s="3">
-        <v>273800</v>
+        <v>878500</v>
       </c>
       <c r="J48" s="3">
+        <v>267400</v>
+      </c>
+      <c r="K48" s="3">
         <v>284000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>330700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>66600</v>
+        <v>72900</v>
       </c>
       <c r="E49" s="3">
-        <v>50000</v>
+        <v>65100</v>
       </c>
       <c r="F49" s="3">
-        <v>37600</v>
+        <v>48800</v>
       </c>
       <c r="G49" s="3">
-        <v>34200</v>
+        <v>36700</v>
       </c>
       <c r="H49" s="3">
-        <v>64200</v>
+        <v>33400</v>
       </c>
       <c r="I49" s="3">
-        <v>92400</v>
+        <v>62700</v>
       </c>
       <c r="J49" s="3">
+        <v>90300</v>
+      </c>
+      <c r="K49" s="3">
         <v>96800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>119100</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>355700</v>
+        <v>401200</v>
       </c>
       <c r="E52" s="3">
-        <v>342300</v>
+        <v>347400</v>
       </c>
       <c r="F52" s="3">
-        <v>360600</v>
+        <v>334300</v>
       </c>
       <c r="G52" s="3">
-        <v>327600</v>
+        <v>352100</v>
       </c>
       <c r="H52" s="3">
-        <v>259700</v>
+        <v>320000</v>
       </c>
       <c r="I52" s="3">
-        <v>72200</v>
+        <v>253600</v>
       </c>
       <c r="J52" s="3">
+        <v>70500</v>
+      </c>
+      <c r="K52" s="3">
         <v>71400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>88200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>45985900</v>
+        <v>51591700</v>
       </c>
       <c r="E54" s="3">
-        <v>42015000</v>
+        <v>44908100</v>
       </c>
       <c r="F54" s="3">
-        <v>40363100</v>
+        <v>41030200</v>
       </c>
       <c r="G54" s="3">
-        <v>40055000</v>
+        <v>39417100</v>
       </c>
       <c r="H54" s="3">
-        <v>35386700</v>
+        <v>39116200</v>
       </c>
       <c r="I54" s="3">
-        <v>33118300</v>
+        <v>34557300</v>
       </c>
       <c r="J54" s="3">
+        <v>32342100</v>
+      </c>
+      <c r="K54" s="3">
         <v>29693700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31981300</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,98 +2137,108 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>655900</v>
+        <v>729500</v>
       </c>
       <c r="E57" s="3">
-        <v>621900</v>
+        <v>640500</v>
       </c>
       <c r="F57" s="3">
-        <v>437000</v>
+        <v>607300</v>
       </c>
       <c r="G57" s="3">
-        <v>465000</v>
+        <v>426800</v>
       </c>
       <c r="H57" s="3">
-        <v>279500</v>
+        <v>454100</v>
       </c>
       <c r="I57" s="3">
-        <v>194500</v>
+        <v>272900</v>
       </c>
       <c r="J57" s="3">
+        <v>190000</v>
+      </c>
+      <c r="K57" s="3">
         <v>93000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>228500</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3962400</v>
+        <v>3911900</v>
       </c>
       <c r="E58" s="3">
-        <v>3216100</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
+        <v>3869600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3140800</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="3">
-        <v>1469400</v>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I58" s="3">
-        <v>1252700</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+        <v>1434900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1223300</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>419100</v>
+        <v>472700</v>
       </c>
       <c r="E59" s="3">
-        <v>406500</v>
+        <v>409300</v>
       </c>
       <c r="F59" s="3">
-        <v>366900</v>
+        <v>396900</v>
       </c>
       <c r="G59" s="3">
-        <v>37400</v>
+        <v>358300</v>
       </c>
       <c r="H59" s="3">
-        <v>134400</v>
+        <v>36600</v>
       </c>
       <c r="I59" s="3">
-        <v>96100</v>
+        <v>131300</v>
       </c>
       <c r="J59" s="3">
+        <v>93800</v>
+      </c>
+      <c r="K59" s="3">
         <v>29700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4500</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2127,69 +2266,78 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8087700</v>
+        <v>9822700</v>
       </c>
       <c r="E61" s="3">
-        <v>7045100</v>
+        <v>7898100</v>
       </c>
       <c r="F61" s="3">
-        <v>9477300</v>
+        <v>6879900</v>
       </c>
       <c r="G61" s="3">
-        <v>9990300</v>
+        <v>9255200</v>
       </c>
       <c r="H61" s="3">
-        <v>8119400</v>
+        <v>9756100</v>
       </c>
       <c r="I61" s="3">
-        <v>6202200</v>
+        <v>7929100</v>
       </c>
       <c r="J61" s="3">
+        <v>6056800</v>
+      </c>
+      <c r="K61" s="3">
         <v>6304100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6900100</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>466800</v>
+        <v>480300</v>
       </c>
       <c r="E62" s="3">
-        <v>490200</v>
+        <v>455900</v>
       </c>
       <c r="F62" s="3">
-        <v>482300</v>
+        <v>478700</v>
       </c>
       <c r="G62" s="3">
-        <v>860200</v>
+        <v>471000</v>
       </c>
       <c r="H62" s="3">
-        <v>815000</v>
+        <v>840000</v>
       </c>
       <c r="I62" s="3">
-        <v>198000</v>
+        <v>795900</v>
       </c>
       <c r="J62" s="3">
+        <v>193300</v>
+      </c>
+      <c r="K62" s="3">
         <v>82600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>89100</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41756600</v>
+        <v>47181400</v>
       </c>
       <c r="E66" s="3">
-        <v>38039600</v>
+        <v>40777900</v>
       </c>
       <c r="F66" s="3">
-        <v>36667200</v>
+        <v>37148100</v>
       </c>
       <c r="G66" s="3">
-        <v>36547700</v>
+        <v>35807800</v>
       </c>
       <c r="H66" s="3">
-        <v>32141700</v>
+        <v>35691100</v>
       </c>
       <c r="I66" s="3">
-        <v>29689200</v>
+        <v>31388300</v>
       </c>
       <c r="J66" s="3">
+        <v>28993300</v>
+      </c>
+      <c r="K66" s="3">
         <v>26678700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28981500</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1201600</v>
+        <v>1483300</v>
       </c>
       <c r="E72" s="3">
-        <v>1081600</v>
+        <v>1173400</v>
       </c>
       <c r="F72" s="3">
-        <v>993300</v>
+        <v>1056300</v>
       </c>
       <c r="G72" s="3">
-        <v>820700</v>
+        <v>970100</v>
       </c>
       <c r="H72" s="3">
-        <v>699000</v>
+        <v>801500</v>
       </c>
       <c r="I72" s="3">
-        <v>1032600</v>
+        <v>682700</v>
       </c>
       <c r="J72" s="3">
+        <v>1008400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1075700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1077500</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4229300</v>
+        <v>4410300</v>
       </c>
       <c r="E76" s="3">
-        <v>3975300</v>
+        <v>4130200</v>
       </c>
       <c r="F76" s="3">
-        <v>3695900</v>
+        <v>3882100</v>
       </c>
       <c r="G76" s="3">
-        <v>3507300</v>
+        <v>3609300</v>
       </c>
       <c r="H76" s="3">
-        <v>3245000</v>
+        <v>3425100</v>
       </c>
       <c r="I76" s="3">
-        <v>3429200</v>
+        <v>3168900</v>
       </c>
       <c r="J76" s="3">
+        <v>3348800</v>
+      </c>
+      <c r="K76" s="3">
         <v>3015000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2999800</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>761400</v>
+        <v>735300</v>
       </c>
       <c r="E81" s="3">
-        <v>737300</v>
+        <v>737600</v>
       </c>
       <c r="F81" s="3">
-        <v>706900</v>
+        <v>714300</v>
       </c>
       <c r="G81" s="3">
-        <v>715500</v>
+        <v>684800</v>
       </c>
       <c r="H81" s="3">
-        <v>762300</v>
+        <v>693200</v>
       </c>
       <c r="I81" s="3">
-        <v>704200</v>
+        <v>738400</v>
       </c>
       <c r="J81" s="3">
+        <v>682200</v>
+      </c>
+      <c r="K81" s="3">
         <v>614200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>644100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>48200</v>
+        <v>87500</v>
       </c>
       <c r="E83" s="3">
-        <v>45100</v>
+        <v>46700</v>
       </c>
       <c r="F83" s="3">
-        <v>42600</v>
+        <v>43700</v>
       </c>
       <c r="G83" s="3">
-        <v>37800</v>
+        <v>41300</v>
       </c>
       <c r="H83" s="3">
-        <v>42000</v>
+        <v>36600</v>
       </c>
       <c r="I83" s="3">
-        <v>35400</v>
+        <v>40700</v>
       </c>
       <c r="J83" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K83" s="3">
         <v>45000</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1198600</v>
+        <v>1532400</v>
       </c>
       <c r="E89" s="3">
-        <v>1366400</v>
+        <v>-1240700</v>
       </c>
       <c r="F89" s="3">
-        <v>435700</v>
+        <v>1323700</v>
       </c>
       <c r="G89" s="3">
-        <v>-1822400</v>
+        <v>422100</v>
       </c>
       <c r="H89" s="3">
-        <v>-293800</v>
+        <v>-1765400</v>
       </c>
       <c r="I89" s="3">
-        <v>-179000</v>
+        <v>-284600</v>
       </c>
       <c r="J89" s="3">
+        <v>-173400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-532500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-668700</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-35900</v>
+        <v>-54000</v>
       </c>
       <c r="E91" s="3">
-        <v>-29700</v>
+        <v>-34800</v>
       </c>
       <c r="F91" s="3">
-        <v>-35600</v>
+        <v>-28800</v>
       </c>
       <c r="G91" s="3">
-        <v>-40300</v>
+        <v>-34500</v>
       </c>
       <c r="H91" s="3">
-        <v>-40300</v>
+        <v>-39000</v>
       </c>
       <c r="I91" s="3">
-        <v>-15700</v>
+        <v>-39100</v>
       </c>
       <c r="J91" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-32400</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>533100</v>
+        <v>-493000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1509600</v>
+        <v>516400</v>
       </c>
       <c r="F94" s="3">
-        <v>516100</v>
+        <v>-1462400</v>
       </c>
       <c r="G94" s="3">
-        <v>512100</v>
+        <v>499900</v>
       </c>
       <c r="H94" s="3">
-        <v>63000</v>
+        <v>496100</v>
       </c>
       <c r="I94" s="3">
-        <v>-523800</v>
+        <v>61000</v>
       </c>
       <c r="J94" s="3">
+        <v>-507500</v>
+      </c>
+      <c r="K94" s="3">
         <v>246200</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-478800</v>
+        <v>-441800</v>
       </c>
       <c r="E96" s="3">
-        <v>-437800</v>
+        <v>-463900</v>
       </c>
       <c r="F96" s="3">
-        <v>-469300</v>
+        <v>-424100</v>
       </c>
       <c r="G96" s="3">
-        <v>-470300</v>
+        <v>-454700</v>
       </c>
       <c r="H96" s="3">
-        <v>-471200</v>
+        <v>-455600</v>
       </c>
       <c r="I96" s="3">
-        <v>-439600</v>
+        <v>-456500</v>
       </c>
       <c r="J96" s="3">
+        <v>-425900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-379900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-410400</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>825600</v>
+        <v>995000</v>
       </c>
       <c r="E100" s="3">
-        <v>169800</v>
+        <v>799800</v>
       </c>
       <c r="F100" s="3">
-        <v>-910800</v>
+        <v>164500</v>
       </c>
       <c r="G100" s="3">
-        <v>1553700</v>
+        <v>-882400</v>
       </c>
       <c r="H100" s="3">
-        <v>483200</v>
+        <v>1505100</v>
       </c>
       <c r="I100" s="3">
-        <v>986700</v>
+        <v>468100</v>
       </c>
       <c r="J100" s="3">
+        <v>955900</v>
+      </c>
+      <c r="K100" s="3">
         <v>61600</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>148600</v>
+        <v>42500</v>
       </c>
       <c r="E101" s="3">
-        <v>-49100</v>
+        <v>144000</v>
       </c>
       <c r="F101" s="3">
-        <v>-37000</v>
+        <v>-47600</v>
       </c>
       <c r="G101" s="3">
-        <v>100000</v>
+        <v>-35800</v>
       </c>
       <c r="H101" s="3">
-        <v>59200</v>
+        <v>96900</v>
       </c>
       <c r="I101" s="3">
-        <v>77400</v>
+        <v>57300</v>
       </c>
       <c r="J101" s="3">
+        <v>74900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-40600</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>308700</v>
+        <v>2077000</v>
       </c>
       <c r="E102" s="3">
-        <v>-22500</v>
+        <v>219500</v>
       </c>
       <c r="F102" s="3">
-        <v>3900</v>
+        <v>-21800</v>
       </c>
       <c r="G102" s="3">
-        <v>343500</v>
+        <v>3800</v>
       </c>
       <c r="H102" s="3">
-        <v>311600</v>
+        <v>332700</v>
       </c>
       <c r="I102" s="3">
-        <v>361300</v>
+        <v>301900</v>
       </c>
       <c r="J102" s="3">
+        <v>350000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-265300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>190700</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2618400</v>
+        <v>2681800</v>
       </c>
       <c r="E8" s="3">
-        <v>2479400</v>
+        <v>2539400</v>
       </c>
       <c r="F8" s="3">
-        <v>2333000</v>
+        <v>2389400</v>
       </c>
       <c r="G8" s="3">
-        <v>2370400</v>
+        <v>2427800</v>
       </c>
       <c r="H8" s="3">
-        <v>2355100</v>
+        <v>2412100</v>
       </c>
       <c r="I8" s="3">
-        <v>2536500</v>
+        <v>2597900</v>
       </c>
       <c r="J8" s="3">
-        <v>2189800</v>
+        <v>2242700</v>
       </c>
       <c r="K8" s="3">
         <v>2141100</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-87500</v>
+        <v>-89600</v>
       </c>
       <c r="E15" s="3">
-        <v>-46700</v>
+        <v>-47900</v>
       </c>
       <c r="F15" s="3">
-        <v>-43700</v>
+        <v>-44800</v>
       </c>
       <c r="G15" s="3">
-        <v>-41300</v>
+        <v>-42300</v>
       </c>
       <c r="H15" s="3">
-        <v>-36600</v>
+        <v>-37500</v>
       </c>
       <c r="I15" s="3">
-        <v>-40700</v>
+        <v>-41600</v>
       </c>
       <c r="J15" s="3">
-        <v>-34300</v>
+        <v>-35100</v>
       </c>
       <c r="K15" s="3">
         <v>-90000</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1351000</v>
+        <v>1383700</v>
       </c>
       <c r="E17" s="3">
-        <v>1191700</v>
+        <v>1220500</v>
       </c>
       <c r="F17" s="3">
-        <v>1099900</v>
+        <v>1126500</v>
       </c>
       <c r="G17" s="3">
-        <v>1240000</v>
+        <v>1270000</v>
       </c>
       <c r="H17" s="3">
-        <v>1219200</v>
+        <v>1248700</v>
       </c>
       <c r="I17" s="3">
-        <v>1302400</v>
+        <v>1333900</v>
       </c>
       <c r="J17" s="3">
-        <v>1148300</v>
+        <v>1176100</v>
       </c>
       <c r="K17" s="3">
         <v>1120100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1267400</v>
+        <v>1298100</v>
       </c>
       <c r="E18" s="3">
-        <v>1287700</v>
+        <v>1318900</v>
       </c>
       <c r="F18" s="3">
-        <v>1233100</v>
+        <v>1263000</v>
       </c>
       <c r="G18" s="3">
-        <v>1130400</v>
+        <v>1157800</v>
       </c>
       <c r="H18" s="3">
-        <v>1135900</v>
+        <v>1163400</v>
       </c>
       <c r="I18" s="3">
-        <v>1234100</v>
+        <v>1264000</v>
       </c>
       <c r="J18" s="3">
-        <v>1041500</v>
+        <v>1066700</v>
       </c>
       <c r="K18" s="3">
         <v>1021100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-321700</v>
+        <v>-329400</v>
       </c>
       <c r="E20" s="3">
-        <v>-356000</v>
+        <v>-364600</v>
       </c>
       <c r="F20" s="3">
-        <v>-376200</v>
+        <v>-385300</v>
       </c>
       <c r="G20" s="3">
-        <v>-335200</v>
+        <v>-343300</v>
       </c>
       <c r="H20" s="3">
-        <v>-366200</v>
+        <v>-375100</v>
       </c>
       <c r="I20" s="3">
-        <v>-396900</v>
+        <v>-406500</v>
       </c>
       <c r="J20" s="3">
-        <v>-248800</v>
+        <v>-254800</v>
       </c>
       <c r="K20" s="3">
         <v>-325000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1031800</v>
+        <v>1058200</v>
       </c>
       <c r="E21" s="3">
-        <v>977700</v>
+        <v>1002100</v>
       </c>
       <c r="F21" s="3">
-        <v>899900</v>
+        <v>922400</v>
       </c>
       <c r="G21" s="3">
-        <v>835800</v>
+        <v>856700</v>
       </c>
       <c r="H21" s="3">
-        <v>805700</v>
+        <v>825800</v>
       </c>
       <c r="I21" s="3">
-        <v>877300</v>
+        <v>899100</v>
       </c>
       <c r="J21" s="3">
-        <v>826500</v>
+        <v>847000</v>
       </c>
       <c r="K21" s="3">
         <v>741400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>945700</v>
+        <v>968600</v>
       </c>
       <c r="E23" s="3">
-        <v>931700</v>
+        <v>954300</v>
       </c>
       <c r="F23" s="3">
-        <v>856900</v>
+        <v>877600</v>
       </c>
       <c r="G23" s="3">
-        <v>795200</v>
+        <v>814400</v>
       </c>
       <c r="H23" s="3">
-        <v>769700</v>
+        <v>788300</v>
       </c>
       <c r="I23" s="3">
-        <v>837300</v>
+        <v>857500</v>
       </c>
       <c r="J23" s="3">
-        <v>792700</v>
+        <v>811900</v>
       </c>
       <c r="K23" s="3">
         <v>696100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>210400</v>
+        <v>215500</v>
       </c>
       <c r="E24" s="3">
-        <v>194100</v>
+        <v>198800</v>
       </c>
       <c r="F24" s="3">
-        <v>142600</v>
+        <v>146100</v>
       </c>
       <c r="G24" s="3">
-        <v>110400</v>
+        <v>113100</v>
       </c>
       <c r="H24" s="3">
-        <v>76500</v>
+        <v>78400</v>
       </c>
       <c r="I24" s="3">
-        <v>98800</v>
+        <v>101200</v>
       </c>
       <c r="J24" s="3">
-        <v>110500</v>
+        <v>113100</v>
       </c>
       <c r="K24" s="3">
         <v>81800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>735300</v>
+        <v>753100</v>
       </c>
       <c r="E26" s="3">
-        <v>737600</v>
+        <v>755500</v>
       </c>
       <c r="F26" s="3">
-        <v>714300</v>
+        <v>731500</v>
       </c>
       <c r="G26" s="3">
-        <v>684800</v>
+        <v>701400</v>
       </c>
       <c r="H26" s="3">
-        <v>693200</v>
+        <v>709900</v>
       </c>
       <c r="I26" s="3">
-        <v>738400</v>
+        <v>756300</v>
       </c>
       <c r="J26" s="3">
-        <v>682200</v>
+        <v>698700</v>
       </c>
       <c r="K26" s="3">
         <v>614200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>735300</v>
+        <v>753100</v>
       </c>
       <c r="E27" s="3">
-        <v>737600</v>
+        <v>755500</v>
       </c>
       <c r="F27" s="3">
-        <v>714300</v>
+        <v>731500</v>
       </c>
       <c r="G27" s="3">
-        <v>684800</v>
+        <v>701400</v>
       </c>
       <c r="H27" s="3">
-        <v>693200</v>
+        <v>709900</v>
       </c>
       <c r="I27" s="3">
-        <v>738400</v>
+        <v>756300</v>
       </c>
       <c r="J27" s="3">
-        <v>682200</v>
+        <v>698700</v>
       </c>
       <c r="K27" s="3">
         <v>614200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>321700</v>
+        <v>329400</v>
       </c>
       <c r="E32" s="3">
-        <v>356000</v>
+        <v>364600</v>
       </c>
       <c r="F32" s="3">
-        <v>376200</v>
+        <v>385300</v>
       </c>
       <c r="G32" s="3">
-        <v>335200</v>
+        <v>343300</v>
       </c>
       <c r="H32" s="3">
-        <v>366200</v>
+        <v>375100</v>
       </c>
       <c r="I32" s="3">
-        <v>396900</v>
+        <v>406500</v>
       </c>
       <c r="J32" s="3">
-        <v>248800</v>
+        <v>254800</v>
       </c>
       <c r="K32" s="3">
         <v>325000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>735300</v>
+        <v>753100</v>
       </c>
       <c r="E33" s="3">
-        <v>737600</v>
+        <v>755500</v>
       </c>
       <c r="F33" s="3">
-        <v>714300</v>
+        <v>731500</v>
       </c>
       <c r="G33" s="3">
-        <v>684800</v>
+        <v>701400</v>
       </c>
       <c r="H33" s="3">
-        <v>693200</v>
+        <v>709900</v>
       </c>
       <c r="I33" s="3">
-        <v>738400</v>
+        <v>756300</v>
       </c>
       <c r="J33" s="3">
-        <v>682200</v>
+        <v>698700</v>
       </c>
       <c r="K33" s="3">
         <v>614200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>735300</v>
+        <v>753100</v>
       </c>
       <c r="E35" s="3">
-        <v>737600</v>
+        <v>755500</v>
       </c>
       <c r="F35" s="3">
-        <v>714300</v>
+        <v>731500</v>
       </c>
       <c r="G35" s="3">
-        <v>684800</v>
+        <v>701400</v>
       </c>
       <c r="H35" s="3">
-        <v>693200</v>
+        <v>709900</v>
       </c>
       <c r="I35" s="3">
-        <v>738400</v>
+        <v>756300</v>
       </c>
       <c r="J35" s="3">
-        <v>682200</v>
+        <v>698700</v>
       </c>
       <c r="K35" s="3">
         <v>614200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3490600</v>
+        <v>3546400</v>
       </c>
       <c r="E41" s="3">
-        <v>3526600</v>
+        <v>3583100</v>
       </c>
       <c r="F41" s="3">
-        <v>2458500</v>
+        <v>2497800</v>
       </c>
       <c r="G41" s="3">
-        <v>2916400</v>
+        <v>2963100</v>
       </c>
       <c r="H41" s="3">
-        <v>4103100</v>
+        <v>4168700</v>
       </c>
       <c r="I41" s="3">
-        <v>3088200</v>
+        <v>3137600</v>
       </c>
       <c r="J41" s="3">
-        <v>2794200</v>
+        <v>2838900</v>
       </c>
       <c r="K41" s="3">
         <v>1273600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7655900</v>
+        <v>7778400</v>
       </c>
       <c r="E42" s="3">
-        <v>4362500</v>
+        <v>4432300</v>
       </c>
       <c r="F42" s="3">
-        <v>4160300</v>
+        <v>4226800</v>
       </c>
       <c r="G42" s="3">
-        <v>2607100</v>
+        <v>2648800</v>
       </c>
       <c r="H42" s="3">
-        <v>1141000</v>
+        <v>1159300</v>
       </c>
       <c r="I42" s="3">
-        <v>1760500</v>
+        <v>1788700</v>
       </c>
       <c r="J42" s="3">
-        <v>980000</v>
+        <v>995700</v>
       </c>
       <c r="K42" s="3">
         <v>1968800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>63400</v>
+        <v>64500</v>
       </c>
       <c r="E47" s="3">
-        <v>55700</v>
+        <v>56600</v>
       </c>
       <c r="F47" s="3">
-        <v>47600</v>
+        <v>48300</v>
       </c>
       <c r="G47" s="3">
-        <v>40700</v>
+        <v>41400</v>
       </c>
       <c r="H47" s="3">
-        <v>35200</v>
+        <v>35700</v>
       </c>
       <c r="I47" s="3">
-        <v>31600</v>
+        <v>32100</v>
       </c>
       <c r="J47" s="3">
-        <v>18000</v>
+        <v>18300</v>
       </c>
       <c r="K47" s="3">
         <v>14900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>480100</v>
+        <v>487800</v>
       </c>
       <c r="E48" s="3">
-        <v>287300</v>
+        <v>291900</v>
       </c>
       <c r="F48" s="3">
-        <v>288200</v>
+        <v>292800</v>
       </c>
       <c r="G48" s="3">
-        <v>292200</v>
+        <v>296900</v>
       </c>
       <c r="H48" s="3">
-        <v>288400</v>
+        <v>293000</v>
       </c>
       <c r="I48" s="3">
-        <v>878500</v>
+        <v>892500</v>
       </c>
       <c r="J48" s="3">
-        <v>267400</v>
+        <v>271600</v>
       </c>
       <c r="K48" s="3">
         <v>284000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>72900</v>
+        <v>74000</v>
       </c>
       <c r="E49" s="3">
-        <v>65100</v>
+        <v>66100</v>
       </c>
       <c r="F49" s="3">
-        <v>48800</v>
+        <v>49600</v>
       </c>
       <c r="G49" s="3">
-        <v>36700</v>
+        <v>37300</v>
       </c>
       <c r="H49" s="3">
-        <v>33400</v>
+        <v>33900</v>
       </c>
       <c r="I49" s="3">
-        <v>62700</v>
+        <v>63700</v>
       </c>
       <c r="J49" s="3">
-        <v>90300</v>
+        <v>91700</v>
       </c>
       <c r="K49" s="3">
         <v>96800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>401200</v>
+        <v>407600</v>
       </c>
       <c r="E52" s="3">
-        <v>347400</v>
+        <v>353000</v>
       </c>
       <c r="F52" s="3">
-        <v>334300</v>
+        <v>339600</v>
       </c>
       <c r="G52" s="3">
-        <v>352100</v>
+        <v>357800</v>
       </c>
       <c r="H52" s="3">
-        <v>320000</v>
+        <v>325100</v>
       </c>
       <c r="I52" s="3">
-        <v>253600</v>
+        <v>257600</v>
       </c>
       <c r="J52" s="3">
-        <v>70500</v>
+        <v>71700</v>
       </c>
       <c r="K52" s="3">
         <v>71400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>51591700</v>
+        <v>52417100</v>
       </c>
       <c r="E54" s="3">
-        <v>44908100</v>
+        <v>45626600</v>
       </c>
       <c r="F54" s="3">
-        <v>41030200</v>
+        <v>41686700</v>
       </c>
       <c r="G54" s="3">
-        <v>39417100</v>
+        <v>40047800</v>
       </c>
       <c r="H54" s="3">
-        <v>39116200</v>
+        <v>39742000</v>
       </c>
       <c r="I54" s="3">
-        <v>34557300</v>
+        <v>35110200</v>
       </c>
       <c r="J54" s="3">
-        <v>32342100</v>
+        <v>32859600</v>
       </c>
       <c r="K54" s="3">
         <v>29693700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>729500</v>
+        <v>741200</v>
       </c>
       <c r="E57" s="3">
-        <v>640500</v>
+        <v>650700</v>
       </c>
       <c r="F57" s="3">
-        <v>607300</v>
+        <v>617100</v>
       </c>
       <c r="G57" s="3">
-        <v>426800</v>
+        <v>433600</v>
       </c>
       <c r="H57" s="3">
-        <v>454100</v>
+        <v>461300</v>
       </c>
       <c r="I57" s="3">
-        <v>272900</v>
+        <v>277300</v>
       </c>
       <c r="J57" s="3">
-        <v>190000</v>
+        <v>193000</v>
       </c>
       <c r="K57" s="3">
         <v>93000</v>
@@ -2177,13 +2177,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3911900</v>
+        <v>3974500</v>
       </c>
       <c r="E58" s="3">
-        <v>3869600</v>
+        <v>3931500</v>
       </c>
       <c r="F58" s="3">
-        <v>3140800</v>
+        <v>3191000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
@@ -2192,10 +2192,10 @@
         <v>5</v>
       </c>
       <c r="I58" s="3">
-        <v>1434900</v>
+        <v>1457900</v>
       </c>
       <c r="J58" s="3">
-        <v>1223300</v>
+        <v>1242900</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>472700</v>
+        <v>480300</v>
       </c>
       <c r="E59" s="3">
-        <v>409300</v>
+        <v>415800</v>
       </c>
       <c r="F59" s="3">
-        <v>396900</v>
+        <v>403300</v>
       </c>
       <c r="G59" s="3">
-        <v>358300</v>
+        <v>364100</v>
       </c>
       <c r="H59" s="3">
-        <v>36600</v>
+        <v>37100</v>
       </c>
       <c r="I59" s="3">
-        <v>131300</v>
+        <v>133400</v>
       </c>
       <c r="J59" s="3">
-        <v>93800</v>
+        <v>95300</v>
       </c>
       <c r="K59" s="3">
         <v>29700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9822700</v>
+        <v>9979800</v>
       </c>
       <c r="E61" s="3">
-        <v>7898100</v>
+        <v>8024500</v>
       </c>
       <c r="F61" s="3">
-        <v>6879900</v>
+        <v>6990000</v>
       </c>
       <c r="G61" s="3">
-        <v>9255200</v>
+        <v>9403300</v>
       </c>
       <c r="H61" s="3">
-        <v>9756100</v>
+        <v>9912200</v>
       </c>
       <c r="I61" s="3">
-        <v>7929100</v>
+        <v>8055900</v>
       </c>
       <c r="J61" s="3">
-        <v>6056800</v>
+        <v>6153700</v>
       </c>
       <c r="K61" s="3">
         <v>6304100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>480300</v>
+        <v>487900</v>
       </c>
       <c r="E62" s="3">
-        <v>455900</v>
+        <v>463200</v>
       </c>
       <c r="F62" s="3">
-        <v>478700</v>
+        <v>486400</v>
       </c>
       <c r="G62" s="3">
-        <v>471000</v>
+        <v>478500</v>
       </c>
       <c r="H62" s="3">
-        <v>840000</v>
+        <v>853400</v>
       </c>
       <c r="I62" s="3">
-        <v>795900</v>
+        <v>808700</v>
       </c>
       <c r="J62" s="3">
-        <v>193300</v>
+        <v>196400</v>
       </c>
       <c r="K62" s="3">
         <v>82600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47181400</v>
+        <v>47936300</v>
       </c>
       <c r="E66" s="3">
-        <v>40777900</v>
+        <v>41430300</v>
       </c>
       <c r="F66" s="3">
-        <v>37148100</v>
+        <v>37742500</v>
       </c>
       <c r="G66" s="3">
-        <v>35807800</v>
+        <v>36380800</v>
       </c>
       <c r="H66" s="3">
-        <v>35691100</v>
+        <v>36262100</v>
       </c>
       <c r="I66" s="3">
-        <v>31388300</v>
+        <v>31890600</v>
       </c>
       <c r="J66" s="3">
-        <v>28993300</v>
+        <v>29457200</v>
       </c>
       <c r="K66" s="3">
         <v>26678700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1483300</v>
+        <v>1507000</v>
       </c>
       <c r="E72" s="3">
-        <v>1173400</v>
+        <v>1192200</v>
       </c>
       <c r="F72" s="3">
-        <v>1056300</v>
+        <v>1073200</v>
       </c>
       <c r="G72" s="3">
-        <v>970100</v>
+        <v>985600</v>
       </c>
       <c r="H72" s="3">
-        <v>801500</v>
+        <v>814300</v>
       </c>
       <c r="I72" s="3">
-        <v>682700</v>
+        <v>693600</v>
       </c>
       <c r="J72" s="3">
-        <v>1008400</v>
+        <v>1024500</v>
       </c>
       <c r="K72" s="3">
         <v>1075700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4410300</v>
+        <v>4480800</v>
       </c>
       <c r="E76" s="3">
-        <v>4130200</v>
+        <v>4196300</v>
       </c>
       <c r="F76" s="3">
-        <v>3882100</v>
+        <v>3944300</v>
       </c>
       <c r="G76" s="3">
-        <v>3609300</v>
+        <v>3667000</v>
       </c>
       <c r="H76" s="3">
-        <v>3425100</v>
+        <v>3479900</v>
       </c>
       <c r="I76" s="3">
-        <v>3168900</v>
+        <v>3219600</v>
       </c>
       <c r="J76" s="3">
-        <v>3348800</v>
+        <v>3402400</v>
       </c>
       <c r="K76" s="3">
         <v>3015000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>735300</v>
+        <v>753100</v>
       </c>
       <c r="E81" s="3">
-        <v>737600</v>
+        <v>755500</v>
       </c>
       <c r="F81" s="3">
-        <v>714300</v>
+        <v>731500</v>
       </c>
       <c r="G81" s="3">
-        <v>684800</v>
+        <v>701400</v>
       </c>
       <c r="H81" s="3">
-        <v>693200</v>
+        <v>709900</v>
       </c>
       <c r="I81" s="3">
-        <v>738400</v>
+        <v>756300</v>
       </c>
       <c r="J81" s="3">
-        <v>682200</v>
+        <v>698700</v>
       </c>
       <c r="K81" s="3">
         <v>614200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>87500</v>
+        <v>89600</v>
       </c>
       <c r="E83" s="3">
-        <v>46700</v>
+        <v>47900</v>
       </c>
       <c r="F83" s="3">
-        <v>43700</v>
+        <v>44800</v>
       </c>
       <c r="G83" s="3">
-        <v>41300</v>
+        <v>42300</v>
       </c>
       <c r="H83" s="3">
-        <v>36600</v>
+        <v>37500</v>
       </c>
       <c r="I83" s="3">
-        <v>40700</v>
+        <v>41600</v>
       </c>
       <c r="J83" s="3">
-        <v>34300</v>
+        <v>35100</v>
       </c>
       <c r="K83" s="3">
         <v>45000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1532400</v>
+        <v>1569500</v>
       </c>
       <c r="E89" s="3">
-        <v>-1240700</v>
+        <v>-1270700</v>
       </c>
       <c r="F89" s="3">
-        <v>1323700</v>
+        <v>1355700</v>
       </c>
       <c r="G89" s="3">
-        <v>422100</v>
+        <v>432300</v>
       </c>
       <c r="H89" s="3">
-        <v>-1765400</v>
+        <v>-1808100</v>
       </c>
       <c r="I89" s="3">
-        <v>-284600</v>
+        <v>-291500</v>
       </c>
       <c r="J89" s="3">
-        <v>-173400</v>
+        <v>-177600</v>
       </c>
       <c r="K89" s="3">
         <v>-532500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-54000</v>
+        <v>-55300</v>
       </c>
       <c r="E91" s="3">
-        <v>-34800</v>
+        <v>-35600</v>
       </c>
       <c r="F91" s="3">
-        <v>-28800</v>
+        <v>-29500</v>
       </c>
       <c r="G91" s="3">
-        <v>-34500</v>
+        <v>-35300</v>
       </c>
       <c r="H91" s="3">
-        <v>-39000</v>
+        <v>-40000</v>
       </c>
       <c r="I91" s="3">
-        <v>-39100</v>
+        <v>-40000</v>
       </c>
       <c r="J91" s="3">
-        <v>-15200</v>
+        <v>-15600</v>
       </c>
       <c r="K91" s="3">
         <v>-23000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-493000</v>
+        <v>-504900</v>
       </c>
       <c r="E94" s="3">
-        <v>516400</v>
+        <v>528900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1462400</v>
+        <v>-1497800</v>
       </c>
       <c r="G94" s="3">
-        <v>499900</v>
+        <v>512000</v>
       </c>
       <c r="H94" s="3">
-        <v>496100</v>
+        <v>508100</v>
       </c>
       <c r="I94" s="3">
-        <v>61000</v>
+        <v>62500</v>
       </c>
       <c r="J94" s="3">
-        <v>-507500</v>
+        <v>-519700</v>
       </c>
       <c r="K94" s="3">
         <v>246200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-441800</v>
+        <v>-452500</v>
       </c>
       <c r="E96" s="3">
-        <v>-463900</v>
+        <v>-475100</v>
       </c>
       <c r="F96" s="3">
-        <v>-424100</v>
+        <v>-434400</v>
       </c>
       <c r="G96" s="3">
-        <v>-454700</v>
+        <v>-465700</v>
       </c>
       <c r="H96" s="3">
-        <v>-455600</v>
+        <v>-466700</v>
       </c>
       <c r="I96" s="3">
-        <v>-456500</v>
+        <v>-467500</v>
       </c>
       <c r="J96" s="3">
-        <v>-425900</v>
+        <v>-436200</v>
       </c>
       <c r="K96" s="3">
         <v>-379900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>995000</v>
+        <v>1019100</v>
       </c>
       <c r="E100" s="3">
-        <v>799800</v>
+        <v>819100</v>
       </c>
       <c r="F100" s="3">
-        <v>164500</v>
+        <v>168500</v>
       </c>
       <c r="G100" s="3">
-        <v>-882400</v>
+        <v>-903700</v>
       </c>
       <c r="H100" s="3">
-        <v>1505100</v>
+        <v>1541500</v>
       </c>
       <c r="I100" s="3">
-        <v>468100</v>
+        <v>479500</v>
       </c>
       <c r="J100" s="3">
-        <v>955900</v>
+        <v>979000</v>
       </c>
       <c r="K100" s="3">
         <v>61600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>42500</v>
+        <v>43600</v>
       </c>
       <c r="E101" s="3">
-        <v>144000</v>
+        <v>147500</v>
       </c>
       <c r="F101" s="3">
-        <v>-47600</v>
+        <v>-48700</v>
       </c>
       <c r="G101" s="3">
-        <v>-35800</v>
+        <v>-36700</v>
       </c>
       <c r="H101" s="3">
-        <v>96900</v>
+        <v>99300</v>
       </c>
       <c r="I101" s="3">
-        <v>57300</v>
+        <v>58700</v>
       </c>
       <c r="J101" s="3">
-        <v>74900</v>
+        <v>76800</v>
       </c>
       <c r="K101" s="3">
         <v>-40600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2077000</v>
+        <v>2127200</v>
       </c>
       <c r="E102" s="3">
-        <v>219500</v>
+        <v>224800</v>
       </c>
       <c r="F102" s="3">
-        <v>-21800</v>
+        <v>-22300</v>
       </c>
       <c r="G102" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H102" s="3">
-        <v>332700</v>
+        <v>340800</v>
       </c>
       <c r="I102" s="3">
-        <v>301900</v>
+        <v>309200</v>
       </c>
       <c r="J102" s="3">
-        <v>350000</v>
+        <v>358500</v>
       </c>
       <c r="K102" s="3">
         <v>-265300</v>

--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2681800</v>
+        <v>2745100</v>
       </c>
       <c r="E8" s="3">
-        <v>2539400</v>
+        <v>2599400</v>
       </c>
       <c r="F8" s="3">
-        <v>2389400</v>
+        <v>2445900</v>
       </c>
       <c r="G8" s="3">
-        <v>2427800</v>
+        <v>2485100</v>
       </c>
       <c r="H8" s="3">
-        <v>2412100</v>
+        <v>2469100</v>
       </c>
       <c r="I8" s="3">
-        <v>2597900</v>
+        <v>2659300</v>
       </c>
       <c r="J8" s="3">
-        <v>2242700</v>
+        <v>2295700</v>
       </c>
       <c r="K8" s="3">
         <v>2141100</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-89600</v>
+        <v>-91700</v>
       </c>
       <c r="E15" s="3">
-        <v>-47900</v>
+        <v>-49000</v>
       </c>
       <c r="F15" s="3">
-        <v>-44800</v>
+        <v>-45800</v>
       </c>
       <c r="G15" s="3">
-        <v>-42300</v>
+        <v>-43300</v>
       </c>
       <c r="H15" s="3">
-        <v>-37500</v>
+        <v>-38400</v>
       </c>
       <c r="I15" s="3">
-        <v>-41600</v>
+        <v>-42600</v>
       </c>
       <c r="J15" s="3">
-        <v>-35100</v>
+        <v>-36000</v>
       </c>
       <c r="K15" s="3">
         <v>-90000</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1383700</v>
+        <v>1416400</v>
       </c>
       <c r="E17" s="3">
-        <v>1220500</v>
+        <v>1249400</v>
       </c>
       <c r="F17" s="3">
-        <v>1126500</v>
+        <v>1153100</v>
       </c>
       <c r="G17" s="3">
-        <v>1270000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="3">
-        <v>1248700</v>
+        <v>1278200</v>
       </c>
       <c r="I17" s="3">
-        <v>1333900</v>
+        <v>1365500</v>
       </c>
       <c r="J17" s="3">
-        <v>1176100</v>
+        <v>1203800</v>
       </c>
       <c r="K17" s="3">
         <v>1120100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1298100</v>
+        <v>1328700</v>
       </c>
       <c r="E18" s="3">
-        <v>1318900</v>
+        <v>1350100</v>
       </c>
       <c r="F18" s="3">
-        <v>1263000</v>
+        <v>1292800</v>
       </c>
       <c r="G18" s="3">
-        <v>1157800</v>
+        <v>1185100</v>
       </c>
       <c r="H18" s="3">
-        <v>1163400</v>
+        <v>1190900</v>
       </c>
       <c r="I18" s="3">
-        <v>1264000</v>
+        <v>1293800</v>
       </c>
       <c r="J18" s="3">
-        <v>1066700</v>
+        <v>1091900</v>
       </c>
       <c r="K18" s="3">
         <v>1021100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-329400</v>
+        <v>-337200</v>
       </c>
       <c r="E20" s="3">
-        <v>-364600</v>
+        <v>-373200</v>
       </c>
       <c r="F20" s="3">
-        <v>-385300</v>
+        <v>-394400</v>
       </c>
       <c r="G20" s="3">
-        <v>-343300</v>
+        <v>-351400</v>
       </c>
       <c r="H20" s="3">
-        <v>-375100</v>
+        <v>-383900</v>
       </c>
       <c r="I20" s="3">
-        <v>-406500</v>
+        <v>-416100</v>
       </c>
       <c r="J20" s="3">
-        <v>-254800</v>
+        <v>-260800</v>
       </c>
       <c r="K20" s="3">
         <v>-325000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1058200</v>
+        <v>1083900</v>
       </c>
       <c r="E21" s="3">
-        <v>1002100</v>
+        <v>1026200</v>
       </c>
       <c r="F21" s="3">
-        <v>922400</v>
+        <v>944500</v>
       </c>
       <c r="G21" s="3">
-        <v>856700</v>
+        <v>877300</v>
       </c>
       <c r="H21" s="3">
-        <v>825800</v>
+        <v>845600</v>
       </c>
       <c r="I21" s="3">
-        <v>899100</v>
+        <v>920700</v>
       </c>
       <c r="J21" s="3">
-        <v>847000</v>
+        <v>867300</v>
       </c>
       <c r="K21" s="3">
         <v>741400</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>968600</v>
+        <v>991500</v>
       </c>
       <c r="E23" s="3">
-        <v>954300</v>
+        <v>976800</v>
       </c>
       <c r="F23" s="3">
-        <v>877600</v>
+        <v>898400</v>
       </c>
       <c r="G23" s="3">
-        <v>814400</v>
+        <v>833700</v>
       </c>
       <c r="H23" s="3">
-        <v>788300</v>
+        <v>806900</v>
       </c>
       <c r="I23" s="3">
-        <v>857500</v>
+        <v>877800</v>
       </c>
       <c r="J23" s="3">
-        <v>811900</v>
+        <v>831100</v>
       </c>
       <c r="K23" s="3">
         <v>696100</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>215500</v>
+        <v>220600</v>
       </c>
       <c r="E24" s="3">
-        <v>198800</v>
+        <v>203500</v>
       </c>
       <c r="F24" s="3">
-        <v>146100</v>
+        <v>149500</v>
       </c>
       <c r="G24" s="3">
-        <v>113100</v>
+        <v>115800</v>
       </c>
       <c r="H24" s="3">
-        <v>78400</v>
+        <v>80200</v>
       </c>
       <c r="I24" s="3">
-        <v>101200</v>
+        <v>103600</v>
       </c>
       <c r="J24" s="3">
-        <v>113100</v>
+        <v>115800</v>
       </c>
       <c r="K24" s="3">
         <v>81800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>753100</v>
+        <v>770900</v>
       </c>
       <c r="E26" s="3">
-        <v>755500</v>
+        <v>773300</v>
       </c>
       <c r="F26" s="3">
-        <v>731500</v>
+        <v>748800</v>
       </c>
       <c r="G26" s="3">
-        <v>701400</v>
+        <v>717900</v>
       </c>
       <c r="H26" s="3">
-        <v>709900</v>
+        <v>726700</v>
       </c>
       <c r="I26" s="3">
-        <v>756300</v>
+        <v>774200</v>
       </c>
       <c r="J26" s="3">
-        <v>698700</v>
+        <v>715200</v>
       </c>
       <c r="K26" s="3">
         <v>614200</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>753100</v>
+        <v>770900</v>
       </c>
       <c r="E27" s="3">
-        <v>755500</v>
+        <v>773300</v>
       </c>
       <c r="F27" s="3">
-        <v>731500</v>
+        <v>748800</v>
       </c>
       <c r="G27" s="3">
-        <v>701400</v>
+        <v>717900</v>
       </c>
       <c r="H27" s="3">
-        <v>709900</v>
+        <v>726700</v>
       </c>
       <c r="I27" s="3">
-        <v>756300</v>
+        <v>774200</v>
       </c>
       <c r="J27" s="3">
-        <v>698700</v>
+        <v>715200</v>
       </c>
       <c r="K27" s="3">
         <v>614200</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>329400</v>
+        <v>337200</v>
       </c>
       <c r="E32" s="3">
-        <v>364600</v>
+        <v>373200</v>
       </c>
       <c r="F32" s="3">
-        <v>385300</v>
+        <v>394400</v>
       </c>
       <c r="G32" s="3">
-        <v>343300</v>
+        <v>351400</v>
       </c>
       <c r="H32" s="3">
-        <v>375100</v>
+        <v>383900</v>
       </c>
       <c r="I32" s="3">
-        <v>406500</v>
+        <v>416100</v>
       </c>
       <c r="J32" s="3">
-        <v>254800</v>
+        <v>260800</v>
       </c>
       <c r="K32" s="3">
         <v>325000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>753100</v>
+        <v>770900</v>
       </c>
       <c r="E33" s="3">
-        <v>755500</v>
+        <v>773300</v>
       </c>
       <c r="F33" s="3">
-        <v>731500</v>
+        <v>748800</v>
       </c>
       <c r="G33" s="3">
-        <v>701400</v>
+        <v>717900</v>
       </c>
       <c r="H33" s="3">
-        <v>709900</v>
+        <v>726700</v>
       </c>
       <c r="I33" s="3">
-        <v>756300</v>
+        <v>774200</v>
       </c>
       <c r="J33" s="3">
-        <v>698700</v>
+        <v>715200</v>
       </c>
       <c r="K33" s="3">
         <v>614200</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>753100</v>
+        <v>770900</v>
       </c>
       <c r="E35" s="3">
-        <v>755500</v>
+        <v>773300</v>
       </c>
       <c r="F35" s="3">
-        <v>731500</v>
+        <v>748800</v>
       </c>
       <c r="G35" s="3">
-        <v>701400</v>
+        <v>717900</v>
       </c>
       <c r="H35" s="3">
-        <v>709900</v>
+        <v>726700</v>
       </c>
       <c r="I35" s="3">
-        <v>756300</v>
+        <v>774200</v>
       </c>
       <c r="J35" s="3">
-        <v>698700</v>
+        <v>715200</v>
       </c>
       <c r="K35" s="3">
         <v>614200</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3546400</v>
+        <v>3630200</v>
       </c>
       <c r="E41" s="3">
-        <v>3583100</v>
+        <v>3667700</v>
       </c>
       <c r="F41" s="3">
-        <v>2497800</v>
+        <v>2556800</v>
       </c>
       <c r="G41" s="3">
-        <v>2963100</v>
+        <v>3033100</v>
       </c>
       <c r="H41" s="3">
-        <v>4168700</v>
+        <v>4267200</v>
       </c>
       <c r="I41" s="3">
-        <v>3137600</v>
+        <v>3211800</v>
       </c>
       <c r="J41" s="3">
-        <v>2838900</v>
+        <v>2906000</v>
       </c>
       <c r="K41" s="3">
         <v>1273600</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7778400</v>
+        <v>7962100</v>
       </c>
       <c r="E42" s="3">
-        <v>4432300</v>
+        <v>4537000</v>
       </c>
       <c r="F42" s="3">
-        <v>4226800</v>
+        <v>4326700</v>
       </c>
       <c r="G42" s="3">
-        <v>2648800</v>
+        <v>2711400</v>
       </c>
       <c r="H42" s="3">
-        <v>1159300</v>
+        <v>1186700</v>
       </c>
       <c r="I42" s="3">
-        <v>1788700</v>
+        <v>1830900</v>
       </c>
       <c r="J42" s="3">
-        <v>995700</v>
+        <v>1019200</v>
       </c>
       <c r="K42" s="3">
         <v>1968800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>64500</v>
+        <v>66000</v>
       </c>
       <c r="E47" s="3">
-        <v>56600</v>
+        <v>57900</v>
       </c>
       <c r="F47" s="3">
-        <v>48300</v>
+        <v>49500</v>
       </c>
       <c r="G47" s="3">
-        <v>41400</v>
+        <v>42400</v>
       </c>
       <c r="H47" s="3">
-        <v>35700</v>
+        <v>36600</v>
       </c>
       <c r="I47" s="3">
-        <v>32100</v>
+        <v>32900</v>
       </c>
       <c r="J47" s="3">
-        <v>18300</v>
+        <v>18700</v>
       </c>
       <c r="K47" s="3">
         <v>14900</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>487800</v>
+        <v>499400</v>
       </c>
       <c r="E48" s="3">
-        <v>291900</v>
+        <v>298800</v>
       </c>
       <c r="F48" s="3">
-        <v>292800</v>
+        <v>299700</v>
       </c>
       <c r="G48" s="3">
-        <v>296900</v>
+        <v>303900</v>
       </c>
       <c r="H48" s="3">
-        <v>293000</v>
+        <v>299900</v>
       </c>
       <c r="I48" s="3">
-        <v>892500</v>
+        <v>913600</v>
       </c>
       <c r="J48" s="3">
-        <v>271600</v>
+        <v>278100</v>
       </c>
       <c r="K48" s="3">
         <v>284000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>74000</v>
+        <v>75800</v>
       </c>
       <c r="E49" s="3">
-        <v>66100</v>
+        <v>67700</v>
       </c>
       <c r="F49" s="3">
-        <v>49600</v>
+        <v>50800</v>
       </c>
       <c r="G49" s="3">
-        <v>37300</v>
+        <v>38100</v>
       </c>
       <c r="H49" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="I49" s="3">
-        <v>63700</v>
+        <v>65200</v>
       </c>
       <c r="J49" s="3">
-        <v>91700</v>
+        <v>93900</v>
       </c>
       <c r="K49" s="3">
         <v>96800</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>407600</v>
+        <v>417200</v>
       </c>
       <c r="E52" s="3">
-        <v>353000</v>
+        <v>361300</v>
       </c>
       <c r="F52" s="3">
-        <v>339600</v>
+        <v>347600</v>
       </c>
       <c r="G52" s="3">
-        <v>357800</v>
+        <v>366200</v>
       </c>
       <c r="H52" s="3">
-        <v>325100</v>
+        <v>332800</v>
       </c>
       <c r="I52" s="3">
-        <v>257600</v>
+        <v>263700</v>
       </c>
       <c r="J52" s="3">
-        <v>71700</v>
+        <v>73300</v>
       </c>
       <c r="K52" s="3">
         <v>71400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>52417100</v>
+        <v>53655300</v>
       </c>
       <c r="E54" s="3">
-        <v>45626600</v>
+        <v>46704400</v>
       </c>
       <c r="F54" s="3">
-        <v>41686700</v>
+        <v>42671400</v>
       </c>
       <c r="G54" s="3">
-        <v>40047800</v>
+        <v>40993800</v>
       </c>
       <c r="H54" s="3">
-        <v>39742000</v>
+        <v>40680800</v>
       </c>
       <c r="I54" s="3">
-        <v>35110200</v>
+        <v>35939600</v>
       </c>
       <c r="J54" s="3">
-        <v>32859600</v>
+        <v>33635800</v>
       </c>
       <c r="K54" s="3">
         <v>29693700</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>741200</v>
+        <v>758700</v>
       </c>
       <c r="E57" s="3">
-        <v>650700</v>
+        <v>666100</v>
       </c>
       <c r="F57" s="3">
-        <v>617100</v>
+        <v>631600</v>
       </c>
       <c r="G57" s="3">
-        <v>433600</v>
+        <v>443800</v>
       </c>
       <c r="H57" s="3">
-        <v>461300</v>
+        <v>472200</v>
       </c>
       <c r="I57" s="3">
-        <v>277300</v>
+        <v>283800</v>
       </c>
       <c r="J57" s="3">
-        <v>193000</v>
+        <v>197600</v>
       </c>
       <c r="K57" s="3">
         <v>93000</v>
@@ -2177,13 +2177,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3974500</v>
+        <v>4068400</v>
       </c>
       <c r="E58" s="3">
-        <v>3931500</v>
+        <v>4024400</v>
       </c>
       <c r="F58" s="3">
-        <v>3191000</v>
+        <v>3266400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
@@ -2192,10 +2192,10 @@
         <v>5</v>
       </c>
       <c r="I58" s="3">
-        <v>1457900</v>
+        <v>1492300</v>
       </c>
       <c r="J58" s="3">
-        <v>1242900</v>
+        <v>1272200</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>480300</v>
+        <v>491700</v>
       </c>
       <c r="E59" s="3">
-        <v>415800</v>
+        <v>425600</v>
       </c>
       <c r="F59" s="3">
-        <v>403300</v>
+        <v>412800</v>
       </c>
       <c r="G59" s="3">
-        <v>364100</v>
+        <v>372700</v>
       </c>
       <c r="H59" s="3">
-        <v>37100</v>
+        <v>38000</v>
       </c>
       <c r="I59" s="3">
-        <v>133400</v>
+        <v>136500</v>
       </c>
       <c r="J59" s="3">
-        <v>95300</v>
+        <v>97600</v>
       </c>
       <c r="K59" s="3">
         <v>29700</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9979800</v>
+        <v>10215600</v>
       </c>
       <c r="E61" s="3">
-        <v>8024500</v>
+        <v>8214000</v>
       </c>
       <c r="F61" s="3">
-        <v>6990000</v>
+        <v>7155100</v>
       </c>
       <c r="G61" s="3">
-        <v>9403300</v>
+        <v>9625400</v>
       </c>
       <c r="H61" s="3">
-        <v>9912200</v>
+        <v>10146400</v>
       </c>
       <c r="I61" s="3">
-        <v>8055900</v>
+        <v>8246200</v>
       </c>
       <c r="J61" s="3">
-        <v>6153700</v>
+        <v>6299100</v>
       </c>
       <c r="K61" s="3">
         <v>6304100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>487900</v>
+        <v>499500</v>
       </c>
       <c r="E62" s="3">
-        <v>463200</v>
+        <v>474100</v>
       </c>
       <c r="F62" s="3">
-        <v>486400</v>
+        <v>497800</v>
       </c>
       <c r="G62" s="3">
-        <v>478500</v>
+        <v>489800</v>
       </c>
       <c r="H62" s="3">
-        <v>853400</v>
+        <v>873600</v>
       </c>
       <c r="I62" s="3">
-        <v>808700</v>
+        <v>827800</v>
       </c>
       <c r="J62" s="3">
-        <v>196400</v>
+        <v>201000</v>
       </c>
       <c r="K62" s="3">
         <v>82600</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>47936300</v>
+        <v>49068600</v>
       </c>
       <c r="E66" s="3">
-        <v>41430300</v>
+        <v>42409000</v>
       </c>
       <c r="F66" s="3">
-        <v>37742500</v>
+        <v>38634000</v>
       </c>
       <c r="G66" s="3">
-        <v>36380800</v>
+        <v>37240200</v>
       </c>
       <c r="H66" s="3">
-        <v>36262100</v>
+        <v>37118700</v>
       </c>
       <c r="I66" s="3">
-        <v>31890600</v>
+        <v>32643900</v>
       </c>
       <c r="J66" s="3">
-        <v>29457200</v>
+        <v>30153100</v>
       </c>
       <c r="K66" s="3">
         <v>26678700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1507000</v>
+        <v>1542600</v>
       </c>
       <c r="E72" s="3">
-        <v>1192200</v>
+        <v>1220400</v>
       </c>
       <c r="F72" s="3">
-        <v>1073200</v>
+        <v>1098500</v>
       </c>
       <c r="G72" s="3">
-        <v>985600</v>
+        <v>1008900</v>
       </c>
       <c r="H72" s="3">
-        <v>814300</v>
+        <v>833600</v>
       </c>
       <c r="I72" s="3">
-        <v>693600</v>
+        <v>710000</v>
       </c>
       <c r="J72" s="3">
-        <v>1024500</v>
+        <v>1048700</v>
       </c>
       <c r="K72" s="3">
         <v>1075700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4480800</v>
+        <v>4586700</v>
       </c>
       <c r="E76" s="3">
-        <v>4196300</v>
+        <v>4295400</v>
       </c>
       <c r="F76" s="3">
-        <v>3944300</v>
+        <v>4037400</v>
       </c>
       <c r="G76" s="3">
-        <v>3667000</v>
+        <v>3753600</v>
       </c>
       <c r="H76" s="3">
-        <v>3479900</v>
+        <v>3562100</v>
       </c>
       <c r="I76" s="3">
-        <v>3219600</v>
+        <v>3295700</v>
       </c>
       <c r="J76" s="3">
-        <v>3402400</v>
+        <v>3482700</v>
       </c>
       <c r="K76" s="3">
         <v>3015000</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>753100</v>
+        <v>770900</v>
       </c>
       <c r="E81" s="3">
-        <v>755500</v>
+        <v>773300</v>
       </c>
       <c r="F81" s="3">
-        <v>731500</v>
+        <v>748800</v>
       </c>
       <c r="G81" s="3">
-        <v>701400</v>
+        <v>717900</v>
       </c>
       <c r="H81" s="3">
-        <v>709900</v>
+        <v>726700</v>
       </c>
       <c r="I81" s="3">
-        <v>756300</v>
+        <v>774200</v>
       </c>
       <c r="J81" s="3">
-        <v>698700</v>
+        <v>715200</v>
       </c>
       <c r="K81" s="3">
         <v>614200</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>89600</v>
+        <v>91700</v>
       </c>
       <c r="E83" s="3">
-        <v>47900</v>
+        <v>49000</v>
       </c>
       <c r="F83" s="3">
-        <v>44800</v>
+        <v>45800</v>
       </c>
       <c r="G83" s="3">
-        <v>42300</v>
+        <v>43300</v>
       </c>
       <c r="H83" s="3">
-        <v>37500</v>
+        <v>38400</v>
       </c>
       <c r="I83" s="3">
-        <v>41600</v>
+        <v>42600</v>
       </c>
       <c r="J83" s="3">
-        <v>35100</v>
+        <v>36000</v>
       </c>
       <c r="K83" s="3">
         <v>45000</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1569500</v>
+        <v>1606600</v>
       </c>
       <c r="E89" s="3">
-        <v>-1270700</v>
+        <v>-1300700</v>
       </c>
       <c r="F89" s="3">
-        <v>1355700</v>
+        <v>1387700</v>
       </c>
       <c r="G89" s="3">
-        <v>432300</v>
+        <v>442500</v>
       </c>
       <c r="H89" s="3">
-        <v>-1808100</v>
+        <v>-1850900</v>
       </c>
       <c r="I89" s="3">
-        <v>-291500</v>
+        <v>-298400</v>
       </c>
       <c r="J89" s="3">
-        <v>-177600</v>
+        <v>-181800</v>
       </c>
       <c r="K89" s="3">
         <v>-532500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-55300</v>
+        <v>-56600</v>
       </c>
       <c r="E91" s="3">
-        <v>-35600</v>
+        <v>-36500</v>
       </c>
       <c r="F91" s="3">
-        <v>-29500</v>
+        <v>-30200</v>
       </c>
       <c r="G91" s="3">
-        <v>-35300</v>
+        <v>-36200</v>
       </c>
       <c r="H91" s="3">
-        <v>-40000</v>
+        <v>-40900</v>
       </c>
       <c r="I91" s="3">
-        <v>-40000</v>
+        <v>-41000</v>
       </c>
       <c r="J91" s="3">
-        <v>-15600</v>
+        <v>-15900</v>
       </c>
       <c r="K91" s="3">
         <v>-23000</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-504900</v>
+        <v>-516900</v>
       </c>
       <c r="E94" s="3">
-        <v>528900</v>
+        <v>541400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1497800</v>
+        <v>-1533200</v>
       </c>
       <c r="G94" s="3">
-        <v>512000</v>
+        <v>524100</v>
       </c>
       <c r="H94" s="3">
-        <v>508100</v>
+        <v>520100</v>
       </c>
       <c r="I94" s="3">
-        <v>62500</v>
+        <v>64000</v>
       </c>
       <c r="J94" s="3">
-        <v>-519700</v>
+        <v>-532000</v>
       </c>
       <c r="K94" s="3">
         <v>246200</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-452500</v>
+        <v>-463200</v>
       </c>
       <c r="E96" s="3">
-        <v>-475100</v>
+        <v>-486300</v>
       </c>
       <c r="F96" s="3">
-        <v>-434400</v>
+        <v>-444600</v>
       </c>
       <c r="G96" s="3">
-        <v>-465700</v>
+        <v>-476700</v>
       </c>
       <c r="H96" s="3">
-        <v>-466700</v>
+        <v>-477700</v>
       </c>
       <c r="I96" s="3">
-        <v>-467500</v>
+        <v>-478600</v>
       </c>
       <c r="J96" s="3">
-        <v>-436200</v>
+        <v>-446500</v>
       </c>
       <c r="K96" s="3">
         <v>-379900</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1019100</v>
+        <v>1043200</v>
       </c>
       <c r="E100" s="3">
-        <v>819100</v>
+        <v>838500</v>
       </c>
       <c r="F100" s="3">
-        <v>168500</v>
+        <v>172500</v>
       </c>
       <c r="G100" s="3">
-        <v>-903700</v>
+        <v>-925100</v>
       </c>
       <c r="H100" s="3">
-        <v>1541500</v>
+        <v>1578000</v>
       </c>
       <c r="I100" s="3">
-        <v>479500</v>
+        <v>490800</v>
       </c>
       <c r="J100" s="3">
-        <v>979000</v>
+        <v>1002100</v>
       </c>
       <c r="K100" s="3">
         <v>61600</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>43600</v>
+        <v>44600</v>
       </c>
       <c r="E101" s="3">
-        <v>147500</v>
+        <v>151000</v>
       </c>
       <c r="F101" s="3">
-        <v>-48700</v>
+        <v>-49900</v>
       </c>
       <c r="G101" s="3">
-        <v>-36700</v>
+        <v>-37600</v>
       </c>
       <c r="H101" s="3">
-        <v>99300</v>
+        <v>101600</v>
       </c>
       <c r="I101" s="3">
-        <v>58700</v>
+        <v>60100</v>
       </c>
       <c r="J101" s="3">
-        <v>76800</v>
+        <v>78600</v>
       </c>
       <c r="K101" s="3">
         <v>-40600</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2127200</v>
+        <v>2177500</v>
       </c>
       <c r="E102" s="3">
-        <v>224800</v>
+        <v>230100</v>
       </c>
       <c r="F102" s="3">
-        <v>-22300</v>
+        <v>-22900</v>
       </c>
       <c r="G102" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="H102" s="3">
-        <v>340800</v>
+        <v>348800</v>
       </c>
       <c r="I102" s="3">
-        <v>309200</v>
+        <v>316500</v>
       </c>
       <c r="J102" s="3">
-        <v>358500</v>
+        <v>366900</v>
       </c>
       <c r="K102" s="3">
         <v>-265300</v>

--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,87 +665,93 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2745100</v>
+        <v>2584800</v>
       </c>
       <c r="E8" s="3">
-        <v>2599400</v>
+        <v>2914100</v>
       </c>
       <c r="F8" s="3">
-        <v>2445900</v>
+        <v>2759400</v>
       </c>
       <c r="G8" s="3">
-        <v>2485100</v>
+        <v>2596400</v>
       </c>
       <c r="H8" s="3">
-        <v>2469100</v>
+        <v>2638000</v>
       </c>
       <c r="I8" s="3">
-        <v>2659300</v>
+        <v>2621000</v>
       </c>
       <c r="J8" s="3">
+        <v>2822900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2295700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2141100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2207500</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -776,9 +782,12 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,9 +818,12 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -923,42 +942,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-91700</v>
+        <v>-101200</v>
       </c>
       <c r="E15" s="3">
-        <v>-49000</v>
+        <v>-97300</v>
       </c>
       <c r="F15" s="3">
-        <v>-45800</v>
+        <v>-52000</v>
       </c>
       <c r="G15" s="3">
-        <v>-43300</v>
+        <v>-48600</v>
       </c>
       <c r="H15" s="3">
-        <v>-38400</v>
+        <v>-45900</v>
       </c>
       <c r="I15" s="3">
-        <v>-42600</v>
+        <v>-40800</v>
       </c>
       <c r="J15" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-36000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-90000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-103300</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1416400</v>
+        <v>1373100</v>
       </c>
       <c r="E17" s="3">
-        <v>1249400</v>
+        <v>1503600</v>
       </c>
       <c r="F17" s="3">
-        <v>1153100</v>
+        <v>1326200</v>
       </c>
       <c r="G17" s="3">
-        <v>1300000</v>
+        <v>1224000</v>
       </c>
       <c r="H17" s="3">
-        <v>1278200</v>
+        <v>1380000</v>
       </c>
       <c r="I17" s="3">
-        <v>1365500</v>
+        <v>1356900</v>
       </c>
       <c r="J17" s="3">
+        <v>1449500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1203800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1120100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1133600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1328700</v>
+        <v>1211700</v>
       </c>
       <c r="E18" s="3">
-        <v>1350100</v>
+        <v>1410500</v>
       </c>
       <c r="F18" s="3">
-        <v>1292800</v>
+        <v>1433100</v>
       </c>
       <c r="G18" s="3">
-        <v>1185100</v>
+        <v>1372300</v>
       </c>
       <c r="H18" s="3">
-        <v>1190900</v>
+        <v>1258100</v>
       </c>
       <c r="I18" s="3">
-        <v>1293800</v>
+        <v>1264200</v>
       </c>
       <c r="J18" s="3">
+        <v>1373400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1091900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1021100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1073900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,74 +1082,81 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-337200</v>
+        <v>-398800</v>
       </c>
       <c r="E20" s="3">
-        <v>-373200</v>
+        <v>-358000</v>
       </c>
       <c r="F20" s="3">
-        <v>-394400</v>
+        <v>-396200</v>
       </c>
       <c r="G20" s="3">
-        <v>-351400</v>
+        <v>-418700</v>
       </c>
       <c r="H20" s="3">
-        <v>-383900</v>
+        <v>-373100</v>
       </c>
       <c r="I20" s="3">
-        <v>-416100</v>
+        <v>-407600</v>
       </c>
       <c r="J20" s="3">
+        <v>-441700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-260800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-325000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-333700</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1083900</v>
+        <v>913400</v>
       </c>
       <c r="E21" s="3">
-        <v>1026200</v>
+        <v>1149200</v>
       </c>
       <c r="F21" s="3">
-        <v>944500</v>
+        <v>1088600</v>
       </c>
       <c r="G21" s="3">
-        <v>877300</v>
+        <v>1001900</v>
       </c>
       <c r="H21" s="3">
-        <v>845600</v>
+        <v>930600</v>
       </c>
       <c r="I21" s="3">
-        <v>920700</v>
+        <v>897100</v>
       </c>
       <c r="J21" s="3">
+        <v>976700</v>
+      </c>
+      <c r="K21" s="3">
         <v>867300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>741400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1148,75 +1187,84 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>991500</v>
+        <v>812900</v>
       </c>
       <c r="E23" s="3">
-        <v>976800</v>
+        <v>1052500</v>
       </c>
       <c r="F23" s="3">
-        <v>898400</v>
+        <v>1036900</v>
       </c>
       <c r="G23" s="3">
-        <v>833700</v>
+        <v>953600</v>
       </c>
       <c r="H23" s="3">
-        <v>806900</v>
+        <v>885000</v>
       </c>
       <c r="I23" s="3">
-        <v>877800</v>
+        <v>856600</v>
       </c>
       <c r="J23" s="3">
+        <v>931800</v>
+      </c>
+      <c r="K23" s="3">
         <v>831100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>696100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>740300</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>220600</v>
+        <v>173800</v>
       </c>
       <c r="E24" s="3">
-        <v>203500</v>
+        <v>234200</v>
       </c>
       <c r="F24" s="3">
-        <v>149500</v>
+        <v>216000</v>
       </c>
       <c r="G24" s="3">
+        <v>158700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>122900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>85200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K24" s="3">
         <v>115800</v>
       </c>
-      <c r="H24" s="3">
-        <v>80200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>103600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>115800</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>81800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>96200</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>770900</v>
+        <v>639100</v>
       </c>
       <c r="E26" s="3">
-        <v>773300</v>
+        <v>818400</v>
       </c>
       <c r="F26" s="3">
-        <v>748800</v>
+        <v>820900</v>
       </c>
       <c r="G26" s="3">
-        <v>717900</v>
+        <v>794900</v>
       </c>
       <c r="H26" s="3">
-        <v>726700</v>
+        <v>762100</v>
       </c>
       <c r="I26" s="3">
-        <v>774200</v>
+        <v>771400</v>
       </c>
       <c r="J26" s="3">
+        <v>821800</v>
+      </c>
+      <c r="K26" s="3">
         <v>715200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>614200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>644100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>770900</v>
+        <v>639100</v>
       </c>
       <c r="E27" s="3">
-        <v>773300</v>
+        <v>818400</v>
       </c>
       <c r="F27" s="3">
-        <v>748800</v>
+        <v>820900</v>
       </c>
       <c r="G27" s="3">
-        <v>717900</v>
+        <v>794900</v>
       </c>
       <c r="H27" s="3">
-        <v>726700</v>
+        <v>762100</v>
       </c>
       <c r="I27" s="3">
-        <v>774200</v>
+        <v>771400</v>
       </c>
       <c r="J27" s="3">
+        <v>821800</v>
+      </c>
+      <c r="K27" s="3">
         <v>715200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>614200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>644100</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>337200</v>
+        <v>398800</v>
       </c>
       <c r="E32" s="3">
-        <v>373200</v>
+        <v>358000</v>
       </c>
       <c r="F32" s="3">
-        <v>394400</v>
+        <v>396200</v>
       </c>
       <c r="G32" s="3">
-        <v>351400</v>
+        <v>418700</v>
       </c>
       <c r="H32" s="3">
-        <v>383900</v>
+        <v>373100</v>
       </c>
       <c r="I32" s="3">
-        <v>416100</v>
+        <v>407600</v>
       </c>
       <c r="J32" s="3">
+        <v>441700</v>
+      </c>
+      <c r="K32" s="3">
         <v>260800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>325000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>333700</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>770900</v>
+        <v>639100</v>
       </c>
       <c r="E33" s="3">
-        <v>773300</v>
+        <v>818400</v>
       </c>
       <c r="F33" s="3">
-        <v>748800</v>
+        <v>820900</v>
       </c>
       <c r="G33" s="3">
-        <v>717900</v>
+        <v>794900</v>
       </c>
       <c r="H33" s="3">
-        <v>726700</v>
+        <v>762100</v>
       </c>
       <c r="I33" s="3">
-        <v>774200</v>
+        <v>771400</v>
       </c>
       <c r="J33" s="3">
+        <v>821800</v>
+      </c>
+      <c r="K33" s="3">
         <v>715200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>614200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>644100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>770900</v>
+        <v>639100</v>
       </c>
       <c r="E35" s="3">
-        <v>773300</v>
+        <v>818400</v>
       </c>
       <c r="F35" s="3">
-        <v>748800</v>
+        <v>820900</v>
       </c>
       <c r="G35" s="3">
-        <v>717900</v>
+        <v>794900</v>
       </c>
       <c r="H35" s="3">
-        <v>726700</v>
+        <v>762100</v>
       </c>
       <c r="I35" s="3">
-        <v>774200</v>
+        <v>771400</v>
       </c>
       <c r="J35" s="3">
+        <v>821800</v>
+      </c>
+      <c r="K35" s="3">
         <v>715200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>614200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>644100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,74 +1731,81 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3630200</v>
+        <v>6595100</v>
       </c>
       <c r="E41" s="3">
-        <v>3667700</v>
+        <v>3853600</v>
       </c>
       <c r="F41" s="3">
-        <v>2556800</v>
+        <v>3893400</v>
       </c>
       <c r="G41" s="3">
-        <v>3033100</v>
+        <v>2714200</v>
       </c>
       <c r="H41" s="3">
-        <v>4267200</v>
+        <v>3219700</v>
       </c>
       <c r="I41" s="3">
-        <v>3211800</v>
+        <v>4529800</v>
       </c>
       <c r="J41" s="3">
+        <v>3409400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2906000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1273600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1844500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7962100</v>
+        <v>11955000</v>
       </c>
       <c r="E42" s="3">
-        <v>4537000</v>
+        <v>8452100</v>
       </c>
       <c r="F42" s="3">
-        <v>4326700</v>
+        <v>4816200</v>
       </c>
       <c r="G42" s="3">
-        <v>2711400</v>
+        <v>4592900</v>
       </c>
       <c r="H42" s="3">
-        <v>1186700</v>
+        <v>2878200</v>
       </c>
       <c r="I42" s="3">
-        <v>1830900</v>
+        <v>1259700</v>
       </c>
       <c r="J42" s="3">
+        <v>1943600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1019200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1968800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1420400</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1744,9 +1836,12 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1777,9 +1872,12 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1810,9 +1908,12 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1843,108 +1944,120 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>66000</v>
+        <v>61600</v>
       </c>
       <c r="E47" s="3">
-        <v>57900</v>
+        <v>70000</v>
       </c>
       <c r="F47" s="3">
-        <v>49500</v>
+        <v>61500</v>
       </c>
       <c r="G47" s="3">
-        <v>42400</v>
+        <v>52500</v>
       </c>
       <c r="H47" s="3">
-        <v>36600</v>
+        <v>45000</v>
       </c>
       <c r="I47" s="3">
-        <v>32900</v>
+        <v>38800</v>
       </c>
       <c r="J47" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K47" s="3">
         <v>18700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>14900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>19400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>499400</v>
+        <v>482400</v>
       </c>
       <c r="E48" s="3">
-        <v>298800</v>
+        <v>530100</v>
       </c>
       <c r="F48" s="3">
-        <v>299700</v>
+        <v>317100</v>
       </c>
       <c r="G48" s="3">
-        <v>303900</v>
+        <v>318200</v>
       </c>
       <c r="H48" s="3">
-        <v>299900</v>
+        <v>322600</v>
       </c>
       <c r="I48" s="3">
-        <v>913600</v>
+        <v>318400</v>
       </c>
       <c r="J48" s="3">
+        <v>969800</v>
+      </c>
+      <c r="K48" s="3">
         <v>278100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>284000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>330700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>75800</v>
+        <v>83800</v>
       </c>
       <c r="E49" s="3">
-        <v>67700</v>
+        <v>80500</v>
       </c>
       <c r="F49" s="3">
-        <v>50800</v>
+        <v>71800</v>
       </c>
       <c r="G49" s="3">
-        <v>38100</v>
+        <v>53900</v>
       </c>
       <c r="H49" s="3">
-        <v>34700</v>
+        <v>40500</v>
       </c>
       <c r="I49" s="3">
-        <v>65200</v>
+        <v>36900</v>
       </c>
       <c r="J49" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K49" s="3">
         <v>93900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>96800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>119100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>417200</v>
+        <v>494000</v>
       </c>
       <c r="E52" s="3">
-        <v>361300</v>
+        <v>442900</v>
       </c>
       <c r="F52" s="3">
-        <v>347600</v>
+        <v>383500</v>
       </c>
       <c r="G52" s="3">
-        <v>366200</v>
+        <v>369000</v>
       </c>
       <c r="H52" s="3">
-        <v>332800</v>
+        <v>388800</v>
       </c>
       <c r="I52" s="3">
-        <v>263700</v>
+        <v>353200</v>
       </c>
       <c r="J52" s="3">
+        <v>280000</v>
+      </c>
+      <c r="K52" s="3">
         <v>73300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>71400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>88200</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>53655300</v>
+        <v>63611300</v>
       </c>
       <c r="E54" s="3">
-        <v>46704400</v>
+        <v>56957200</v>
       </c>
       <c r="F54" s="3">
-        <v>42671400</v>
+        <v>49578500</v>
       </c>
       <c r="G54" s="3">
-        <v>40993800</v>
+        <v>45297400</v>
       </c>
       <c r="H54" s="3">
-        <v>40680800</v>
+        <v>43516500</v>
       </c>
       <c r="I54" s="3">
-        <v>35939600</v>
+        <v>43184300</v>
       </c>
       <c r="J54" s="3">
+        <v>38151200</v>
+      </c>
+      <c r="K54" s="3">
         <v>33635800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29693700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31981300</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,107 +2267,117 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>758700</v>
+        <v>2173700</v>
       </c>
       <c r="E57" s="3">
-        <v>666100</v>
+        <v>805300</v>
       </c>
       <c r="F57" s="3">
-        <v>631600</v>
+        <v>707100</v>
       </c>
       <c r="G57" s="3">
-        <v>443800</v>
+        <v>670500</v>
       </c>
       <c r="H57" s="3">
-        <v>472200</v>
+        <v>471200</v>
       </c>
       <c r="I57" s="3">
-        <v>283800</v>
+        <v>501300</v>
       </c>
       <c r="J57" s="3">
+        <v>301300</v>
+      </c>
+      <c r="K57" s="3">
         <v>197600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>93000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>228500</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4068400</v>
+        <v>3330900</v>
       </c>
       <c r="E58" s="3">
-        <v>4024400</v>
+        <v>4318700</v>
       </c>
       <c r="F58" s="3">
-        <v>3266400</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
+        <v>4272000</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3467400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="3">
-        <v>1492300</v>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J58" s="3">
+        <v>1584200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1272200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>491700</v>
+        <v>310300</v>
       </c>
       <c r="E59" s="3">
-        <v>425600</v>
+        <v>521900</v>
       </c>
       <c r="F59" s="3">
-        <v>412800</v>
+        <v>451800</v>
       </c>
       <c r="G59" s="3">
-        <v>372700</v>
+        <v>438200</v>
       </c>
       <c r="H59" s="3">
-        <v>38000</v>
+        <v>395600</v>
       </c>
       <c r="I59" s="3">
-        <v>136500</v>
+        <v>40400</v>
       </c>
       <c r="J59" s="3">
+        <v>144900</v>
+      </c>
+      <c r="K59" s="3">
         <v>97600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4500</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2269,75 +2408,84 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10215600</v>
+        <v>14414500</v>
       </c>
       <c r="E61" s="3">
-        <v>8214000</v>
+        <v>10844200</v>
       </c>
       <c r="F61" s="3">
-        <v>7155100</v>
+        <v>8719500</v>
       </c>
       <c r="G61" s="3">
-        <v>9625400</v>
+        <v>7595500</v>
       </c>
       <c r="H61" s="3">
-        <v>10146400</v>
+        <v>10217700</v>
       </c>
       <c r="I61" s="3">
-        <v>8246200</v>
+        <v>10770800</v>
       </c>
       <c r="J61" s="3">
+        <v>8753700</v>
+      </c>
+      <c r="K61" s="3">
         <v>6299100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6304100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6900100</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>499500</v>
+        <v>708800</v>
       </c>
       <c r="E62" s="3">
-        <v>474100</v>
+        <v>530200</v>
       </c>
       <c r="F62" s="3">
-        <v>497800</v>
+        <v>503300</v>
       </c>
       <c r="G62" s="3">
-        <v>489800</v>
+        <v>528500</v>
       </c>
       <c r="H62" s="3">
-        <v>873600</v>
+        <v>520000</v>
       </c>
       <c r="I62" s="3">
-        <v>827800</v>
+        <v>927400</v>
       </c>
       <c r="J62" s="3">
+        <v>878700</v>
+      </c>
+      <c r="K62" s="3">
         <v>201000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>82600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>89100</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>49068600</v>
+        <v>58469000</v>
       </c>
       <c r="E66" s="3">
-        <v>42409000</v>
+        <v>52088300</v>
       </c>
       <c r="F66" s="3">
-        <v>38634000</v>
+        <v>45018800</v>
       </c>
       <c r="G66" s="3">
-        <v>37240200</v>
+        <v>41011500</v>
       </c>
       <c r="H66" s="3">
-        <v>37118700</v>
+        <v>39531900</v>
       </c>
       <c r="I66" s="3">
-        <v>32643900</v>
+        <v>39402900</v>
       </c>
       <c r="J66" s="3">
+        <v>34652700</v>
+      </c>
+      <c r="K66" s="3">
         <v>30153100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26678700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28981500</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1542600</v>
+        <v>1900700</v>
       </c>
       <c r="E72" s="3">
-        <v>1220400</v>
+        <v>1637500</v>
       </c>
       <c r="F72" s="3">
-        <v>1098500</v>
+        <v>1295500</v>
       </c>
       <c r="G72" s="3">
-        <v>1008900</v>
+        <v>1166100</v>
       </c>
       <c r="H72" s="3">
-        <v>833600</v>
+        <v>1070900</v>
       </c>
       <c r="I72" s="3">
-        <v>710000</v>
+        <v>884900</v>
       </c>
       <c r="J72" s="3">
+        <v>753700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1048700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1075700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1077500</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4586700</v>
+        <v>5142200</v>
       </c>
       <c r="E76" s="3">
-        <v>4295400</v>
+        <v>4868900</v>
       </c>
       <c r="F76" s="3">
-        <v>4037400</v>
+        <v>4559700</v>
       </c>
       <c r="G76" s="3">
-        <v>3753600</v>
+        <v>4285900</v>
       </c>
       <c r="H76" s="3">
-        <v>3562100</v>
+        <v>3984600</v>
       </c>
       <c r="I76" s="3">
-        <v>3295700</v>
+        <v>3781300</v>
       </c>
       <c r="J76" s="3">
+        <v>3498500</v>
+      </c>
+      <c r="K76" s="3">
         <v>3482700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3015000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2999800</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>770900</v>
+        <v>639100</v>
       </c>
       <c r="E81" s="3">
-        <v>773300</v>
+        <v>818400</v>
       </c>
       <c r="F81" s="3">
-        <v>748800</v>
+        <v>820900</v>
       </c>
       <c r="G81" s="3">
-        <v>717900</v>
+        <v>794900</v>
       </c>
       <c r="H81" s="3">
-        <v>726700</v>
+        <v>762100</v>
       </c>
       <c r="I81" s="3">
-        <v>774200</v>
+        <v>771400</v>
       </c>
       <c r="J81" s="3">
+        <v>821800</v>
+      </c>
+      <c r="K81" s="3">
         <v>715200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>614200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>644100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>91700</v>
+        <v>101200</v>
       </c>
       <c r="E83" s="3">
-        <v>49000</v>
+        <v>97300</v>
       </c>
       <c r="F83" s="3">
-        <v>45800</v>
+        <v>52000</v>
       </c>
       <c r="G83" s="3">
-        <v>43300</v>
+        <v>48600</v>
       </c>
       <c r="H83" s="3">
-        <v>38400</v>
+        <v>45900</v>
       </c>
       <c r="I83" s="3">
-        <v>42600</v>
+        <v>40800</v>
       </c>
       <c r="J83" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K83" s="3">
         <v>36000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>45000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1606600</v>
+        <v>717100</v>
       </c>
       <c r="E89" s="3">
-        <v>-1300700</v>
+        <v>1705500</v>
       </c>
       <c r="F89" s="3">
-        <v>1387700</v>
+        <v>-1380800</v>
       </c>
       <c r="G89" s="3">
-        <v>442500</v>
+        <v>1473100</v>
       </c>
       <c r="H89" s="3">
-        <v>-1850900</v>
+        <v>469700</v>
       </c>
       <c r="I89" s="3">
-        <v>-298400</v>
+        <v>-1964800</v>
       </c>
       <c r="J89" s="3">
+        <v>-316800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-181800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-532500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-668700</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-56600</v>
+        <v>-40500</v>
       </c>
       <c r="E91" s="3">
-        <v>-36500</v>
+        <v>-60000</v>
       </c>
       <c r="F91" s="3">
-        <v>-30200</v>
+        <v>-38700</v>
       </c>
       <c r="G91" s="3">
-        <v>-36200</v>
+        <v>-32000</v>
       </c>
       <c r="H91" s="3">
-        <v>-40900</v>
+        <v>-38400</v>
       </c>
       <c r="I91" s="3">
-        <v>-41000</v>
+        <v>-43400</v>
       </c>
       <c r="J91" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-15900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-32400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-516900</v>
+        <v>289600</v>
       </c>
       <c r="E94" s="3">
-        <v>541400</v>
+        <v>-548700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1533200</v>
+        <v>574700</v>
       </c>
       <c r="G94" s="3">
-        <v>524100</v>
+        <v>-1627500</v>
       </c>
       <c r="H94" s="3">
-        <v>520100</v>
+        <v>556400</v>
       </c>
       <c r="I94" s="3">
-        <v>64000</v>
+        <v>552100</v>
       </c>
       <c r="J94" s="3">
+        <v>67900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-532000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>246200</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-463200</v>
+        <v>-483700</v>
       </c>
       <c r="E96" s="3">
-        <v>-486300</v>
+        <v>-491700</v>
       </c>
       <c r="F96" s="3">
-        <v>-444600</v>
+        <v>-516200</v>
       </c>
       <c r="G96" s="3">
-        <v>-476700</v>
+        <v>-472000</v>
       </c>
       <c r="H96" s="3">
-        <v>-477700</v>
+        <v>-506000</v>
       </c>
       <c r="I96" s="3">
-        <v>-478600</v>
+        <v>-507100</v>
       </c>
       <c r="J96" s="3">
+        <v>-508000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-446500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-379900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-410400</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1043200</v>
+        <v>2017000</v>
       </c>
       <c r="E100" s="3">
-        <v>838500</v>
+        <v>1107400</v>
       </c>
       <c r="F100" s="3">
-        <v>172500</v>
+        <v>890100</v>
       </c>
       <c r="G100" s="3">
-        <v>-925100</v>
+        <v>183100</v>
       </c>
       <c r="H100" s="3">
-        <v>1578000</v>
+        <v>-982000</v>
       </c>
       <c r="I100" s="3">
-        <v>490800</v>
+        <v>1675100</v>
       </c>
       <c r="J100" s="3">
+        <v>521000</v>
+      </c>
+      <c r="K100" s="3">
         <v>1002100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>61600</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>44600</v>
+        <v>-47400</v>
       </c>
       <c r="E101" s="3">
-        <v>151000</v>
+        <v>47300</v>
       </c>
       <c r="F101" s="3">
-        <v>-49900</v>
+        <v>160200</v>
       </c>
       <c r="G101" s="3">
-        <v>-37600</v>
+        <v>-53000</v>
       </c>
       <c r="H101" s="3">
-        <v>101600</v>
+        <v>-39900</v>
       </c>
       <c r="I101" s="3">
-        <v>60100</v>
+        <v>107800</v>
       </c>
       <c r="J101" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K101" s="3">
         <v>78600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-40600</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2177500</v>
+        <v>2976300</v>
       </c>
       <c r="E102" s="3">
-        <v>230100</v>
+        <v>2311500</v>
       </c>
       <c r="F102" s="3">
-        <v>-22900</v>
+        <v>244200</v>
       </c>
       <c r="G102" s="3">
-        <v>4000</v>
+        <v>-24300</v>
       </c>
       <c r="H102" s="3">
-        <v>348800</v>
+        <v>4200</v>
       </c>
       <c r="I102" s="3">
-        <v>316500</v>
+        <v>370300</v>
       </c>
       <c r="J102" s="3">
+        <v>335900</v>
+      </c>
+      <c r="K102" s="3">
         <v>366900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-265300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>190700</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2584800</v>
+        <v>2547300</v>
       </c>
       <c r="E8" s="3">
-        <v>2914100</v>
+        <v>2871800</v>
       </c>
       <c r="F8" s="3">
-        <v>2759400</v>
+        <v>2719400</v>
       </c>
       <c r="G8" s="3">
-        <v>2596400</v>
+        <v>2558800</v>
       </c>
       <c r="H8" s="3">
-        <v>2638000</v>
+        <v>2599800</v>
       </c>
       <c r="I8" s="3">
-        <v>2621000</v>
+        <v>2583100</v>
       </c>
       <c r="J8" s="3">
-        <v>2822900</v>
+        <v>2782000</v>
       </c>
       <c r="K8" s="3">
         <v>2295700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-101200</v>
+        <v>-99800</v>
       </c>
       <c r="E15" s="3">
-        <v>-97300</v>
+        <v>-95900</v>
       </c>
       <c r="F15" s="3">
-        <v>-52000</v>
+        <v>-51200</v>
       </c>
       <c r="G15" s="3">
-        <v>-48600</v>
+        <v>-47900</v>
       </c>
       <c r="H15" s="3">
-        <v>-45900</v>
+        <v>-45300</v>
       </c>
       <c r="I15" s="3">
-        <v>-40800</v>
+        <v>-40200</v>
       </c>
       <c r="J15" s="3">
-        <v>-45200</v>
+        <v>-44600</v>
       </c>
       <c r="K15" s="3">
         <v>-36000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1373100</v>
+        <v>1353200</v>
       </c>
       <c r="E17" s="3">
-        <v>1503600</v>
+        <v>1481800</v>
       </c>
       <c r="F17" s="3">
-        <v>1326200</v>
+        <v>1307000</v>
       </c>
       <c r="G17" s="3">
-        <v>1224000</v>
+        <v>1206300</v>
       </c>
       <c r="H17" s="3">
-        <v>1380000</v>
+        <v>1360000</v>
       </c>
       <c r="I17" s="3">
-        <v>1356900</v>
+        <v>1337200</v>
       </c>
       <c r="J17" s="3">
-        <v>1449500</v>
+        <v>1428500</v>
       </c>
       <c r="K17" s="3">
         <v>1203800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1211700</v>
+        <v>1194100</v>
       </c>
       <c r="E18" s="3">
-        <v>1410500</v>
+        <v>1390100</v>
       </c>
       <c r="F18" s="3">
-        <v>1433100</v>
+        <v>1412400</v>
       </c>
       <c r="G18" s="3">
-        <v>1372300</v>
+        <v>1352500</v>
       </c>
       <c r="H18" s="3">
-        <v>1258100</v>
+        <v>1239800</v>
       </c>
       <c r="I18" s="3">
-        <v>1264200</v>
+        <v>1245900</v>
       </c>
       <c r="J18" s="3">
-        <v>1373400</v>
+        <v>1353500</v>
       </c>
       <c r="K18" s="3">
         <v>1091900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-398800</v>
+        <v>-393000</v>
       </c>
       <c r="E20" s="3">
-        <v>-358000</v>
+        <v>-352800</v>
       </c>
       <c r="F20" s="3">
-        <v>-396200</v>
+        <v>-390500</v>
       </c>
       <c r="G20" s="3">
-        <v>-418700</v>
+        <v>-412600</v>
       </c>
       <c r="H20" s="3">
-        <v>-373100</v>
+        <v>-367700</v>
       </c>
       <c r="I20" s="3">
-        <v>-407600</v>
+        <v>-401700</v>
       </c>
       <c r="J20" s="3">
-        <v>-441700</v>
+        <v>-435300</v>
       </c>
       <c r="K20" s="3">
         <v>-260800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>913400</v>
+        <v>901600</v>
       </c>
       <c r="E21" s="3">
-        <v>1149200</v>
+        <v>1133900</v>
       </c>
       <c r="F21" s="3">
-        <v>1088600</v>
+        <v>1073500</v>
       </c>
       <c r="G21" s="3">
-        <v>1001900</v>
+        <v>988100</v>
       </c>
       <c r="H21" s="3">
-        <v>930600</v>
+        <v>917800</v>
       </c>
       <c r="I21" s="3">
-        <v>897100</v>
+        <v>884700</v>
       </c>
       <c r="J21" s="3">
-        <v>976700</v>
+        <v>963200</v>
       </c>
       <c r="K21" s="3">
         <v>867300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>812900</v>
+        <v>801100</v>
       </c>
       <c r="E23" s="3">
-        <v>1052500</v>
+        <v>1037300</v>
       </c>
       <c r="F23" s="3">
-        <v>1036900</v>
+        <v>1021900</v>
       </c>
       <c r="G23" s="3">
-        <v>953600</v>
+        <v>939800</v>
       </c>
       <c r="H23" s="3">
-        <v>885000</v>
+        <v>872200</v>
       </c>
       <c r="I23" s="3">
-        <v>856600</v>
+        <v>844200</v>
       </c>
       <c r="J23" s="3">
-        <v>931800</v>
+        <v>918300</v>
       </c>
       <c r="K23" s="3">
         <v>831100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>173800</v>
+        <v>171300</v>
       </c>
       <c r="E24" s="3">
-        <v>234200</v>
+        <v>230800</v>
       </c>
       <c r="F24" s="3">
-        <v>216000</v>
+        <v>212900</v>
       </c>
       <c r="G24" s="3">
-        <v>158700</v>
+        <v>156400</v>
       </c>
       <c r="H24" s="3">
-        <v>122900</v>
+        <v>121100</v>
       </c>
       <c r="I24" s="3">
-        <v>85200</v>
+        <v>84000</v>
       </c>
       <c r="J24" s="3">
-        <v>110000</v>
+        <v>108400</v>
       </c>
       <c r="K24" s="3">
         <v>115800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>639100</v>
+        <v>629800</v>
       </c>
       <c r="E26" s="3">
-        <v>818400</v>
+        <v>806500</v>
       </c>
       <c r="F26" s="3">
-        <v>820900</v>
+        <v>809000</v>
       </c>
       <c r="G26" s="3">
-        <v>794900</v>
+        <v>783400</v>
       </c>
       <c r="H26" s="3">
-        <v>762100</v>
+        <v>751100</v>
       </c>
       <c r="I26" s="3">
-        <v>771400</v>
+        <v>760200</v>
       </c>
       <c r="J26" s="3">
-        <v>821800</v>
+        <v>809900</v>
       </c>
       <c r="K26" s="3">
         <v>715200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>639100</v>
+        <v>629800</v>
       </c>
       <c r="E27" s="3">
-        <v>818400</v>
+        <v>806500</v>
       </c>
       <c r="F27" s="3">
-        <v>820900</v>
+        <v>809000</v>
       </c>
       <c r="G27" s="3">
-        <v>794900</v>
+        <v>783400</v>
       </c>
       <c r="H27" s="3">
-        <v>762100</v>
+        <v>751100</v>
       </c>
       <c r="I27" s="3">
-        <v>771400</v>
+        <v>760200</v>
       </c>
       <c r="J27" s="3">
-        <v>821800</v>
+        <v>809900</v>
       </c>
       <c r="K27" s="3">
         <v>715200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>398800</v>
+        <v>393000</v>
       </c>
       <c r="E32" s="3">
-        <v>358000</v>
+        <v>352800</v>
       </c>
       <c r="F32" s="3">
-        <v>396200</v>
+        <v>390500</v>
       </c>
       <c r="G32" s="3">
-        <v>418700</v>
+        <v>412600</v>
       </c>
       <c r="H32" s="3">
-        <v>373100</v>
+        <v>367700</v>
       </c>
       <c r="I32" s="3">
-        <v>407600</v>
+        <v>401700</v>
       </c>
       <c r="J32" s="3">
-        <v>441700</v>
+        <v>435300</v>
       </c>
       <c r="K32" s="3">
         <v>260800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>639100</v>
+        <v>629800</v>
       </c>
       <c r="E33" s="3">
-        <v>818400</v>
+        <v>806500</v>
       </c>
       <c r="F33" s="3">
-        <v>820900</v>
+        <v>809000</v>
       </c>
       <c r="G33" s="3">
-        <v>794900</v>
+        <v>783400</v>
       </c>
       <c r="H33" s="3">
-        <v>762100</v>
+        <v>751100</v>
       </c>
       <c r="I33" s="3">
-        <v>771400</v>
+        <v>760200</v>
       </c>
       <c r="J33" s="3">
-        <v>821800</v>
+        <v>809900</v>
       </c>
       <c r="K33" s="3">
         <v>715200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>639100</v>
+        <v>629800</v>
       </c>
       <c r="E35" s="3">
-        <v>818400</v>
+        <v>806500</v>
       </c>
       <c r="F35" s="3">
-        <v>820900</v>
+        <v>809000</v>
       </c>
       <c r="G35" s="3">
-        <v>794900</v>
+        <v>783400</v>
       </c>
       <c r="H35" s="3">
-        <v>762100</v>
+        <v>751100</v>
       </c>
       <c r="I35" s="3">
-        <v>771400</v>
+        <v>760200</v>
       </c>
       <c r="J35" s="3">
-        <v>821800</v>
+        <v>809900</v>
       </c>
       <c r="K35" s="3">
         <v>715200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6595100</v>
+        <v>6499500</v>
       </c>
       <c r="E41" s="3">
-        <v>3853600</v>
+        <v>3797700</v>
       </c>
       <c r="F41" s="3">
-        <v>3893400</v>
+        <v>3837000</v>
       </c>
       <c r="G41" s="3">
-        <v>2714200</v>
+        <v>2674800</v>
       </c>
       <c r="H41" s="3">
-        <v>3219700</v>
+        <v>3173100</v>
       </c>
       <c r="I41" s="3">
-        <v>4529800</v>
+        <v>4464100</v>
       </c>
       <c r="J41" s="3">
-        <v>3409400</v>
+        <v>3360000</v>
       </c>
       <c r="K41" s="3">
         <v>2906000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11955000</v>
+        <v>11781700</v>
       </c>
       <c r="E42" s="3">
-        <v>8452100</v>
+        <v>8329600</v>
       </c>
       <c r="F42" s="3">
-        <v>4816200</v>
+        <v>4746400</v>
       </c>
       <c r="G42" s="3">
-        <v>4592900</v>
+        <v>4526400</v>
       </c>
       <c r="H42" s="3">
-        <v>2878200</v>
+        <v>2836500</v>
       </c>
       <c r="I42" s="3">
-        <v>1259700</v>
+        <v>1241400</v>
       </c>
       <c r="J42" s="3">
-        <v>1943600</v>
+        <v>1915400</v>
       </c>
       <c r="K42" s="3">
         <v>1019200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>61600</v>
+        <v>60700</v>
       </c>
       <c r="E47" s="3">
-        <v>70000</v>
+        <v>69000</v>
       </c>
       <c r="F47" s="3">
-        <v>61500</v>
+        <v>60600</v>
       </c>
       <c r="G47" s="3">
-        <v>52500</v>
+        <v>51700</v>
       </c>
       <c r="H47" s="3">
-        <v>45000</v>
+        <v>44300</v>
       </c>
       <c r="I47" s="3">
-        <v>38800</v>
+        <v>38300</v>
       </c>
       <c r="J47" s="3">
-        <v>34900</v>
+        <v>34400</v>
       </c>
       <c r="K47" s="3">
         <v>18700</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>482400</v>
+        <v>475400</v>
       </c>
       <c r="E48" s="3">
-        <v>530100</v>
+        <v>522400</v>
       </c>
       <c r="F48" s="3">
-        <v>317100</v>
+        <v>312500</v>
       </c>
       <c r="G48" s="3">
-        <v>318200</v>
+        <v>313600</v>
       </c>
       <c r="H48" s="3">
-        <v>322600</v>
+        <v>317900</v>
       </c>
       <c r="I48" s="3">
-        <v>318400</v>
+        <v>313800</v>
       </c>
       <c r="J48" s="3">
-        <v>969800</v>
+        <v>955800</v>
       </c>
       <c r="K48" s="3">
         <v>278100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>83800</v>
+        <v>82600</v>
       </c>
       <c r="E49" s="3">
-        <v>80500</v>
+        <v>79300</v>
       </c>
       <c r="F49" s="3">
-        <v>71800</v>
+        <v>70800</v>
       </c>
       <c r="G49" s="3">
-        <v>53900</v>
+        <v>53100</v>
       </c>
       <c r="H49" s="3">
-        <v>40500</v>
+        <v>39900</v>
       </c>
       <c r="I49" s="3">
-        <v>36900</v>
+        <v>36300</v>
       </c>
       <c r="J49" s="3">
-        <v>69200</v>
+        <v>68200</v>
       </c>
       <c r="K49" s="3">
         <v>93900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>494000</v>
+        <v>486800</v>
       </c>
       <c r="E52" s="3">
-        <v>442900</v>
+        <v>436500</v>
       </c>
       <c r="F52" s="3">
-        <v>383500</v>
+        <v>378000</v>
       </c>
       <c r="G52" s="3">
-        <v>369000</v>
+        <v>363700</v>
       </c>
       <c r="H52" s="3">
-        <v>388800</v>
+        <v>383100</v>
       </c>
       <c r="I52" s="3">
-        <v>353200</v>
+        <v>348100</v>
       </c>
       <c r="J52" s="3">
-        <v>280000</v>
+        <v>275900</v>
       </c>
       <c r="K52" s="3">
         <v>73300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63611300</v>
+        <v>62689400</v>
       </c>
       <c r="E54" s="3">
-        <v>56957200</v>
+        <v>56131700</v>
       </c>
       <c r="F54" s="3">
-        <v>49578500</v>
+        <v>48860000</v>
       </c>
       <c r="G54" s="3">
-        <v>45297400</v>
+        <v>44640900</v>
       </c>
       <c r="H54" s="3">
-        <v>43516500</v>
+        <v>42885800</v>
       </c>
       <c r="I54" s="3">
-        <v>43184300</v>
+        <v>42558400</v>
       </c>
       <c r="J54" s="3">
-        <v>38151200</v>
+        <v>37598300</v>
       </c>
       <c r="K54" s="3">
         <v>33635800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2173700</v>
+        <v>2142200</v>
       </c>
       <c r="E57" s="3">
-        <v>805300</v>
+        <v>793700</v>
       </c>
       <c r="F57" s="3">
-        <v>707100</v>
+        <v>696900</v>
       </c>
       <c r="G57" s="3">
-        <v>670500</v>
+        <v>660800</v>
       </c>
       <c r="H57" s="3">
-        <v>471200</v>
+        <v>464300</v>
       </c>
       <c r="I57" s="3">
-        <v>501300</v>
+        <v>494000</v>
       </c>
       <c r="J57" s="3">
-        <v>301300</v>
+        <v>296900</v>
       </c>
       <c r="K57" s="3">
         <v>197600</v>
@@ -2310,16 +2310,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3330900</v>
+        <v>3282600</v>
       </c>
       <c r="E58" s="3">
-        <v>4318700</v>
+        <v>4256100</v>
       </c>
       <c r="F58" s="3">
-        <v>4272000</v>
+        <v>4210100</v>
       </c>
       <c r="G58" s="3">
-        <v>3467400</v>
+        <v>3417100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2328,7 +2328,7 @@
         <v>5</v>
       </c>
       <c r="J58" s="3">
-        <v>1584200</v>
+        <v>1561200</v>
       </c>
       <c r="K58" s="3">
         <v>1272200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>310300</v>
+        <v>305900</v>
       </c>
       <c r="E59" s="3">
-        <v>521900</v>
+        <v>514300</v>
       </c>
       <c r="F59" s="3">
-        <v>451800</v>
+        <v>445300</v>
       </c>
       <c r="G59" s="3">
-        <v>438200</v>
+        <v>431900</v>
       </c>
       <c r="H59" s="3">
-        <v>395600</v>
+        <v>389900</v>
       </c>
       <c r="I59" s="3">
-        <v>40400</v>
+        <v>39800</v>
       </c>
       <c r="J59" s="3">
-        <v>144900</v>
+        <v>142800</v>
       </c>
       <c r="K59" s="3">
         <v>97600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14414500</v>
+        <v>14205600</v>
       </c>
       <c r="E61" s="3">
-        <v>10844200</v>
+        <v>10687100</v>
       </c>
       <c r="F61" s="3">
-        <v>8719500</v>
+        <v>8593100</v>
       </c>
       <c r="G61" s="3">
-        <v>7595500</v>
+        <v>7485400</v>
       </c>
       <c r="H61" s="3">
-        <v>10217700</v>
+        <v>10069600</v>
       </c>
       <c r="I61" s="3">
-        <v>10770800</v>
+        <v>10614700</v>
       </c>
       <c r="J61" s="3">
-        <v>8753700</v>
+        <v>8626800</v>
       </c>
       <c r="K61" s="3">
         <v>6299100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>708800</v>
+        <v>698600</v>
       </c>
       <c r="E62" s="3">
-        <v>530200</v>
+        <v>522500</v>
       </c>
       <c r="F62" s="3">
-        <v>503300</v>
+        <v>496000</v>
       </c>
       <c r="G62" s="3">
-        <v>528500</v>
+        <v>520800</v>
       </c>
       <c r="H62" s="3">
-        <v>520000</v>
+        <v>512400</v>
       </c>
       <c r="I62" s="3">
-        <v>927400</v>
+        <v>913900</v>
       </c>
       <c r="J62" s="3">
-        <v>878700</v>
+        <v>866000</v>
       </c>
       <c r="K62" s="3">
         <v>201000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58469000</v>
+        <v>57621700</v>
       </c>
       <c r="E66" s="3">
-        <v>52088300</v>
+        <v>51333400</v>
       </c>
       <c r="F66" s="3">
-        <v>45018800</v>
+        <v>44366300</v>
       </c>
       <c r="G66" s="3">
-        <v>41011500</v>
+        <v>40417100</v>
       </c>
       <c r="H66" s="3">
-        <v>39531900</v>
+        <v>38958900</v>
       </c>
       <c r="I66" s="3">
-        <v>39402900</v>
+        <v>38831900</v>
       </c>
       <c r="J66" s="3">
-        <v>34652700</v>
+        <v>34150500</v>
       </c>
       <c r="K66" s="3">
         <v>30153100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1900700</v>
+        <v>1873100</v>
       </c>
       <c r="E72" s="3">
-        <v>1637500</v>
+        <v>1613800</v>
       </c>
       <c r="F72" s="3">
-        <v>1295500</v>
+        <v>1276700</v>
       </c>
       <c r="G72" s="3">
-        <v>1166100</v>
+        <v>1149200</v>
       </c>
       <c r="H72" s="3">
-        <v>1070900</v>
+        <v>1055400</v>
       </c>
       <c r="I72" s="3">
-        <v>884900</v>
+        <v>872000</v>
       </c>
       <c r="J72" s="3">
-        <v>753700</v>
+        <v>742700</v>
       </c>
       <c r="K72" s="3">
         <v>1048700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5142200</v>
+        <v>5067700</v>
       </c>
       <c r="E76" s="3">
-        <v>4868900</v>
+        <v>4798400</v>
       </c>
       <c r="F76" s="3">
-        <v>4559700</v>
+        <v>4493600</v>
       </c>
       <c r="G76" s="3">
-        <v>4285900</v>
+        <v>4223800</v>
       </c>
       <c r="H76" s="3">
-        <v>3984600</v>
+        <v>3926900</v>
       </c>
       <c r="I76" s="3">
-        <v>3781300</v>
+        <v>3726500</v>
       </c>
       <c r="J76" s="3">
-        <v>3498500</v>
+        <v>3447800</v>
       </c>
       <c r="K76" s="3">
         <v>3482700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>639100</v>
+        <v>629800</v>
       </c>
       <c r="E81" s="3">
-        <v>818400</v>
+        <v>806500</v>
       </c>
       <c r="F81" s="3">
-        <v>820900</v>
+        <v>809000</v>
       </c>
       <c r="G81" s="3">
-        <v>794900</v>
+        <v>783400</v>
       </c>
       <c r="H81" s="3">
-        <v>762100</v>
+        <v>751100</v>
       </c>
       <c r="I81" s="3">
-        <v>771400</v>
+        <v>760200</v>
       </c>
       <c r="J81" s="3">
-        <v>821800</v>
+        <v>809900</v>
       </c>
       <c r="K81" s="3">
         <v>715200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>101200</v>
+        <v>99800</v>
       </c>
       <c r="E83" s="3">
-        <v>97300</v>
+        <v>95900</v>
       </c>
       <c r="F83" s="3">
-        <v>52000</v>
+        <v>51200</v>
       </c>
       <c r="G83" s="3">
-        <v>48600</v>
+        <v>47900</v>
       </c>
       <c r="H83" s="3">
-        <v>45900</v>
+        <v>45300</v>
       </c>
       <c r="I83" s="3">
-        <v>40800</v>
+        <v>40200</v>
       </c>
       <c r="J83" s="3">
-        <v>45200</v>
+        <v>44600</v>
       </c>
       <c r="K83" s="3">
         <v>36000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>717100</v>
+        <v>706700</v>
       </c>
       <c r="E89" s="3">
-        <v>1705500</v>
+        <v>1680700</v>
       </c>
       <c r="F89" s="3">
-        <v>-1380800</v>
+        <v>-1360800</v>
       </c>
       <c r="G89" s="3">
-        <v>1473100</v>
+        <v>1451800</v>
       </c>
       <c r="H89" s="3">
-        <v>469700</v>
+        <v>462900</v>
       </c>
       <c r="I89" s="3">
-        <v>-1964800</v>
+        <v>-1936300</v>
       </c>
       <c r="J89" s="3">
-        <v>-316800</v>
+        <v>-312200</v>
       </c>
       <c r="K89" s="3">
         <v>-181800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-40500</v>
+        <v>-39900</v>
       </c>
       <c r="E91" s="3">
-        <v>-60000</v>
+        <v>-59200</v>
       </c>
       <c r="F91" s="3">
-        <v>-38700</v>
+        <v>-38200</v>
       </c>
       <c r="G91" s="3">
-        <v>-32000</v>
+        <v>-31600</v>
       </c>
       <c r="H91" s="3">
-        <v>-38400</v>
+        <v>-37800</v>
       </c>
       <c r="I91" s="3">
-        <v>-43400</v>
+        <v>-42800</v>
       </c>
       <c r="J91" s="3">
-        <v>-43500</v>
+        <v>-42900</v>
       </c>
       <c r="K91" s="3">
         <v>-15900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>289600</v>
+        <v>285400</v>
       </c>
       <c r="E94" s="3">
-        <v>-548700</v>
+        <v>-540700</v>
       </c>
       <c r="F94" s="3">
-        <v>574700</v>
+        <v>566400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1627500</v>
+        <v>-1603900</v>
       </c>
       <c r="H94" s="3">
-        <v>556400</v>
+        <v>548300</v>
       </c>
       <c r="I94" s="3">
-        <v>552100</v>
+        <v>544100</v>
       </c>
       <c r="J94" s="3">
-        <v>67900</v>
+        <v>66900</v>
       </c>
       <c r="K94" s="3">
         <v>-532000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-483700</v>
+        <v>-476700</v>
       </c>
       <c r="E96" s="3">
-        <v>-491700</v>
+        <v>-484600</v>
       </c>
       <c r="F96" s="3">
-        <v>-516200</v>
+        <v>-508700</v>
       </c>
       <c r="G96" s="3">
-        <v>-472000</v>
+        <v>-465200</v>
       </c>
       <c r="H96" s="3">
-        <v>-506000</v>
+        <v>-498600</v>
       </c>
       <c r="I96" s="3">
-        <v>-507100</v>
+        <v>-499700</v>
       </c>
       <c r="J96" s="3">
-        <v>-508000</v>
+        <v>-500600</v>
       </c>
       <c r="K96" s="3">
         <v>-446500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2017000</v>
+        <v>1987800</v>
       </c>
       <c r="E100" s="3">
-        <v>1107400</v>
+        <v>1091300</v>
       </c>
       <c r="F100" s="3">
-        <v>890100</v>
+        <v>877200</v>
       </c>
       <c r="G100" s="3">
-        <v>183100</v>
+        <v>180400</v>
       </c>
       <c r="H100" s="3">
-        <v>-982000</v>
+        <v>-967800</v>
       </c>
       <c r="I100" s="3">
-        <v>1675100</v>
+        <v>1650800</v>
       </c>
       <c r="J100" s="3">
-        <v>521000</v>
+        <v>513400</v>
       </c>
       <c r="K100" s="3">
         <v>1002100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-47400</v>
+        <v>-46700</v>
       </c>
       <c r="E101" s="3">
-        <v>47300</v>
+        <v>46600</v>
       </c>
       <c r="F101" s="3">
-        <v>160200</v>
+        <v>157900</v>
       </c>
       <c r="G101" s="3">
-        <v>-53000</v>
+        <v>-52200</v>
       </c>
       <c r="H101" s="3">
-        <v>-39900</v>
+        <v>-39300</v>
       </c>
       <c r="I101" s="3">
-        <v>107800</v>
+        <v>106300</v>
       </c>
       <c r="J101" s="3">
-        <v>63800</v>
+        <v>62900</v>
       </c>
       <c r="K101" s="3">
         <v>78600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2976300</v>
+        <v>2933200</v>
       </c>
       <c r="E102" s="3">
-        <v>2311500</v>
+        <v>2278000</v>
       </c>
       <c r="F102" s="3">
-        <v>244200</v>
+        <v>240700</v>
       </c>
       <c r="G102" s="3">
-        <v>-24300</v>
+        <v>-23900</v>
       </c>
       <c r="H102" s="3">
         <v>4200</v>
       </c>
       <c r="I102" s="3">
-        <v>370300</v>
+        <v>364900</v>
       </c>
       <c r="J102" s="3">
-        <v>335900</v>
+        <v>331100</v>
       </c>
       <c r="K102" s="3">
         <v>366900</v>

--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2547300</v>
+        <v>2378700</v>
       </c>
       <c r="E8" s="3">
-        <v>2871800</v>
+        <v>2681800</v>
       </c>
       <c r="F8" s="3">
-        <v>2719400</v>
+        <v>2539400</v>
       </c>
       <c r="G8" s="3">
-        <v>2558800</v>
+        <v>2389400</v>
       </c>
       <c r="H8" s="3">
-        <v>2599800</v>
+        <v>2427800</v>
       </c>
       <c r="I8" s="3">
-        <v>2583100</v>
+        <v>2412100</v>
       </c>
       <c r="J8" s="3">
-        <v>2782000</v>
+        <v>2597900</v>
       </c>
       <c r="K8" s="3">
         <v>2295700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-99800</v>
+        <v>-93200</v>
       </c>
       <c r="E15" s="3">
-        <v>-95900</v>
+        <v>-89600</v>
       </c>
       <c r="F15" s="3">
-        <v>-51200</v>
+        <v>-47900</v>
       </c>
       <c r="G15" s="3">
-        <v>-47900</v>
+        <v>-44800</v>
       </c>
       <c r="H15" s="3">
-        <v>-45300</v>
+        <v>-42300</v>
       </c>
       <c r="I15" s="3">
-        <v>-40200</v>
+        <v>-37500</v>
       </c>
       <c r="J15" s="3">
-        <v>-44600</v>
+        <v>-41600</v>
       </c>
       <c r="K15" s="3">
         <v>-36000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1353200</v>
+        <v>1263600</v>
       </c>
       <c r="E17" s="3">
-        <v>1481800</v>
+        <v>1383700</v>
       </c>
       <c r="F17" s="3">
-        <v>1307000</v>
+        <v>1220500</v>
       </c>
       <c r="G17" s="3">
-        <v>1206300</v>
+        <v>1126500</v>
       </c>
       <c r="H17" s="3">
-        <v>1360000</v>
+        <v>1270000</v>
       </c>
       <c r="I17" s="3">
-        <v>1337200</v>
+        <v>1248700</v>
       </c>
       <c r="J17" s="3">
-        <v>1428500</v>
+        <v>1333900</v>
       </c>
       <c r="K17" s="3">
         <v>1203800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1194100</v>
+        <v>1115100</v>
       </c>
       <c r="E18" s="3">
-        <v>1390100</v>
+        <v>1298100</v>
       </c>
       <c r="F18" s="3">
-        <v>1412400</v>
+        <v>1318900</v>
       </c>
       <c r="G18" s="3">
-        <v>1352500</v>
+        <v>1263000</v>
       </c>
       <c r="H18" s="3">
-        <v>1239800</v>
+        <v>1157800</v>
       </c>
       <c r="I18" s="3">
-        <v>1245900</v>
+        <v>1163400</v>
       </c>
       <c r="J18" s="3">
-        <v>1353500</v>
+        <v>1264000</v>
       </c>
       <c r="K18" s="3">
         <v>1091900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-393000</v>
+        <v>-367000</v>
       </c>
       <c r="E20" s="3">
-        <v>-352800</v>
+        <v>-329400</v>
       </c>
       <c r="F20" s="3">
-        <v>-390500</v>
+        <v>-364600</v>
       </c>
       <c r="G20" s="3">
-        <v>-412600</v>
+        <v>-385300</v>
       </c>
       <c r="H20" s="3">
-        <v>-367700</v>
+        <v>-343300</v>
       </c>
       <c r="I20" s="3">
-        <v>-401700</v>
+        <v>-375100</v>
       </c>
       <c r="J20" s="3">
-        <v>-435300</v>
+        <v>-406500</v>
       </c>
       <c r="K20" s="3">
         <v>-260800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>901600</v>
+        <v>841300</v>
       </c>
       <c r="E21" s="3">
-        <v>1133900</v>
+        <v>1058200</v>
       </c>
       <c r="F21" s="3">
-        <v>1073500</v>
+        <v>1002100</v>
       </c>
       <c r="G21" s="3">
-        <v>988100</v>
+        <v>922400</v>
       </c>
       <c r="H21" s="3">
-        <v>917800</v>
+        <v>856700</v>
       </c>
       <c r="I21" s="3">
-        <v>884700</v>
+        <v>825800</v>
       </c>
       <c r="J21" s="3">
-        <v>963200</v>
+        <v>899100</v>
       </c>
       <c r="K21" s="3">
         <v>867300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>801100</v>
+        <v>748100</v>
       </c>
       <c r="E23" s="3">
-        <v>1037300</v>
+        <v>968600</v>
       </c>
       <c r="F23" s="3">
-        <v>1021900</v>
+        <v>954300</v>
       </c>
       <c r="G23" s="3">
-        <v>939800</v>
+        <v>877600</v>
       </c>
       <c r="H23" s="3">
-        <v>872200</v>
+        <v>814400</v>
       </c>
       <c r="I23" s="3">
-        <v>844200</v>
+        <v>788300</v>
       </c>
       <c r="J23" s="3">
-        <v>918300</v>
+        <v>857500</v>
       </c>
       <c r="K23" s="3">
         <v>831100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>171300</v>
+        <v>160000</v>
       </c>
       <c r="E24" s="3">
-        <v>230800</v>
+        <v>215500</v>
       </c>
       <c r="F24" s="3">
-        <v>212900</v>
+        <v>198800</v>
       </c>
       <c r="G24" s="3">
-        <v>156400</v>
+        <v>146100</v>
       </c>
       <c r="H24" s="3">
-        <v>121100</v>
+        <v>113100</v>
       </c>
       <c r="I24" s="3">
-        <v>84000</v>
+        <v>78400</v>
       </c>
       <c r="J24" s="3">
-        <v>108400</v>
+        <v>101200</v>
       </c>
       <c r="K24" s="3">
         <v>115800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>629800</v>
+        <v>588100</v>
       </c>
       <c r="E26" s="3">
-        <v>806500</v>
+        <v>753100</v>
       </c>
       <c r="F26" s="3">
-        <v>809000</v>
+        <v>755500</v>
       </c>
       <c r="G26" s="3">
-        <v>783400</v>
+        <v>731500</v>
       </c>
       <c r="H26" s="3">
-        <v>751100</v>
+        <v>701400</v>
       </c>
       <c r="I26" s="3">
-        <v>760200</v>
+        <v>709900</v>
       </c>
       <c r="J26" s="3">
-        <v>809900</v>
+        <v>756300</v>
       </c>
       <c r="K26" s="3">
         <v>715200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>629800</v>
+        <v>588100</v>
       </c>
       <c r="E27" s="3">
-        <v>806500</v>
+        <v>753100</v>
       </c>
       <c r="F27" s="3">
-        <v>809000</v>
+        <v>755500</v>
       </c>
       <c r="G27" s="3">
-        <v>783400</v>
+        <v>731500</v>
       </c>
       <c r="H27" s="3">
-        <v>751100</v>
+        <v>701400</v>
       </c>
       <c r="I27" s="3">
-        <v>760200</v>
+        <v>709900</v>
       </c>
       <c r="J27" s="3">
-        <v>809900</v>
+        <v>756300</v>
       </c>
       <c r="K27" s="3">
         <v>715200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>393000</v>
+        <v>367000</v>
       </c>
       <c r="E32" s="3">
-        <v>352800</v>
+        <v>329400</v>
       </c>
       <c r="F32" s="3">
-        <v>390500</v>
+        <v>364600</v>
       </c>
       <c r="G32" s="3">
-        <v>412600</v>
+        <v>385300</v>
       </c>
       <c r="H32" s="3">
-        <v>367700</v>
+        <v>343300</v>
       </c>
       <c r="I32" s="3">
-        <v>401700</v>
+        <v>375100</v>
       </c>
       <c r="J32" s="3">
-        <v>435300</v>
+        <v>406500</v>
       </c>
       <c r="K32" s="3">
         <v>260800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>629800</v>
+        <v>588100</v>
       </c>
       <c r="E33" s="3">
-        <v>806500</v>
+        <v>753100</v>
       </c>
       <c r="F33" s="3">
-        <v>809000</v>
+        <v>755500</v>
       </c>
       <c r="G33" s="3">
-        <v>783400</v>
+        <v>731500</v>
       </c>
       <c r="H33" s="3">
-        <v>751100</v>
+        <v>701400</v>
       </c>
       <c r="I33" s="3">
-        <v>760200</v>
+        <v>709900</v>
       </c>
       <c r="J33" s="3">
-        <v>809900</v>
+        <v>756300</v>
       </c>
       <c r="K33" s="3">
         <v>715200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>629800</v>
+        <v>588100</v>
       </c>
       <c r="E35" s="3">
-        <v>806500</v>
+        <v>753100</v>
       </c>
       <c r="F35" s="3">
-        <v>809000</v>
+        <v>755500</v>
       </c>
       <c r="G35" s="3">
-        <v>783400</v>
+        <v>731500</v>
       </c>
       <c r="H35" s="3">
-        <v>751100</v>
+        <v>701400</v>
       </c>
       <c r="I35" s="3">
-        <v>760200</v>
+        <v>709900</v>
       </c>
       <c r="J35" s="3">
-        <v>809900</v>
+        <v>756300</v>
       </c>
       <c r="K35" s="3">
         <v>715200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6499500</v>
+        <v>6069400</v>
       </c>
       <c r="E41" s="3">
-        <v>3797700</v>
+        <v>3546400</v>
       </c>
       <c r="F41" s="3">
-        <v>3837000</v>
+        <v>3583100</v>
       </c>
       <c r="G41" s="3">
-        <v>2674800</v>
+        <v>2497800</v>
       </c>
       <c r="H41" s="3">
-        <v>3173100</v>
+        <v>2963100</v>
       </c>
       <c r="I41" s="3">
-        <v>4464100</v>
+        <v>4168700</v>
       </c>
       <c r="J41" s="3">
-        <v>3360000</v>
+        <v>3137600</v>
       </c>
       <c r="K41" s="3">
         <v>2906000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11781700</v>
+        <v>11002100</v>
       </c>
       <c r="E42" s="3">
-        <v>8329600</v>
+        <v>7778400</v>
       </c>
       <c r="F42" s="3">
-        <v>4746400</v>
+        <v>4432300</v>
       </c>
       <c r="G42" s="3">
-        <v>4526400</v>
+        <v>4226800</v>
       </c>
       <c r="H42" s="3">
-        <v>2836500</v>
+        <v>2648800</v>
       </c>
       <c r="I42" s="3">
-        <v>1241400</v>
+        <v>1159300</v>
       </c>
       <c r="J42" s="3">
-        <v>1915400</v>
+        <v>1788700</v>
       </c>
       <c r="K42" s="3">
         <v>1019200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>60700</v>
+        <v>56700</v>
       </c>
       <c r="E47" s="3">
-        <v>69000</v>
+        <v>64500</v>
       </c>
       <c r="F47" s="3">
-        <v>60600</v>
+        <v>56600</v>
       </c>
       <c r="G47" s="3">
-        <v>51700</v>
+        <v>48300</v>
       </c>
       <c r="H47" s="3">
-        <v>44300</v>
+        <v>41400</v>
       </c>
       <c r="I47" s="3">
-        <v>38300</v>
+        <v>35700</v>
       </c>
       <c r="J47" s="3">
-        <v>34400</v>
+        <v>32100</v>
       </c>
       <c r="K47" s="3">
         <v>18700</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>475400</v>
+        <v>444000</v>
       </c>
       <c r="E48" s="3">
-        <v>522400</v>
+        <v>487800</v>
       </c>
       <c r="F48" s="3">
-        <v>312500</v>
+        <v>291900</v>
       </c>
       <c r="G48" s="3">
-        <v>313600</v>
+        <v>292800</v>
       </c>
       <c r="H48" s="3">
-        <v>317900</v>
+        <v>296900</v>
       </c>
       <c r="I48" s="3">
-        <v>313800</v>
+        <v>293000</v>
       </c>
       <c r="J48" s="3">
-        <v>955800</v>
+        <v>892500</v>
       </c>
       <c r="K48" s="3">
         <v>278100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>82600</v>
+        <v>77100</v>
       </c>
       <c r="E49" s="3">
-        <v>79300</v>
+        <v>74000</v>
       </c>
       <c r="F49" s="3">
-        <v>70800</v>
+        <v>66100</v>
       </c>
       <c r="G49" s="3">
-        <v>53100</v>
+        <v>49600</v>
       </c>
       <c r="H49" s="3">
-        <v>39900</v>
+        <v>37300</v>
       </c>
       <c r="I49" s="3">
-        <v>36300</v>
+        <v>33900</v>
       </c>
       <c r="J49" s="3">
-        <v>68200</v>
+        <v>63700</v>
       </c>
       <c r="K49" s="3">
         <v>93900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>486800</v>
+        <v>454600</v>
       </c>
       <c r="E52" s="3">
-        <v>436500</v>
+        <v>407600</v>
       </c>
       <c r="F52" s="3">
-        <v>378000</v>
+        <v>353000</v>
       </c>
       <c r="G52" s="3">
-        <v>363700</v>
+        <v>339600</v>
       </c>
       <c r="H52" s="3">
-        <v>383100</v>
+        <v>357800</v>
       </c>
       <c r="I52" s="3">
-        <v>348100</v>
+        <v>325100</v>
       </c>
       <c r="J52" s="3">
-        <v>275900</v>
+        <v>257600</v>
       </c>
       <c r="K52" s="3">
         <v>73300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62689400</v>
+        <v>58540800</v>
       </c>
       <c r="E54" s="3">
-        <v>56131700</v>
+        <v>52417100</v>
       </c>
       <c r="F54" s="3">
-        <v>48860000</v>
+        <v>45626600</v>
       </c>
       <c r="G54" s="3">
-        <v>44640900</v>
+        <v>41686700</v>
       </c>
       <c r="H54" s="3">
-        <v>42885800</v>
+        <v>40047800</v>
       </c>
       <c r="I54" s="3">
-        <v>42558400</v>
+        <v>39742000</v>
       </c>
       <c r="J54" s="3">
-        <v>37598300</v>
+        <v>35110200</v>
       </c>
       <c r="K54" s="3">
         <v>33635800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2142200</v>
+        <v>2000400</v>
       </c>
       <c r="E57" s="3">
-        <v>793700</v>
+        <v>741200</v>
       </c>
       <c r="F57" s="3">
-        <v>696900</v>
+        <v>650700</v>
       </c>
       <c r="G57" s="3">
-        <v>660800</v>
+        <v>617100</v>
       </c>
       <c r="H57" s="3">
-        <v>464300</v>
+        <v>433600</v>
       </c>
       <c r="I57" s="3">
-        <v>494000</v>
+        <v>461300</v>
       </c>
       <c r="J57" s="3">
-        <v>296900</v>
+        <v>277300</v>
       </c>
       <c r="K57" s="3">
         <v>197600</v>
@@ -2310,16 +2310,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3282600</v>
+        <v>3065400</v>
       </c>
       <c r="E58" s="3">
-        <v>4256100</v>
+        <v>3974500</v>
       </c>
       <c r="F58" s="3">
-        <v>4210100</v>
+        <v>3931500</v>
       </c>
       <c r="G58" s="3">
-        <v>3417100</v>
+        <v>3191000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2328,7 +2328,7 @@
         <v>5</v>
       </c>
       <c r="J58" s="3">
-        <v>1561200</v>
+        <v>1457900</v>
       </c>
       <c r="K58" s="3">
         <v>1272200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>305900</v>
+        <v>285600</v>
       </c>
       <c r="E59" s="3">
-        <v>514300</v>
+        <v>480300</v>
       </c>
       <c r="F59" s="3">
-        <v>445300</v>
+        <v>415800</v>
       </c>
       <c r="G59" s="3">
-        <v>431900</v>
+        <v>403300</v>
       </c>
       <c r="H59" s="3">
-        <v>389900</v>
+        <v>364100</v>
       </c>
       <c r="I59" s="3">
-        <v>39800</v>
+        <v>37100</v>
       </c>
       <c r="J59" s="3">
-        <v>142800</v>
+        <v>133400</v>
       </c>
       <c r="K59" s="3">
         <v>97600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14205600</v>
+        <v>13265500</v>
       </c>
       <c r="E61" s="3">
-        <v>10687100</v>
+        <v>9979800</v>
       </c>
       <c r="F61" s="3">
-        <v>8593100</v>
+        <v>8024500</v>
       </c>
       <c r="G61" s="3">
-        <v>7485400</v>
+        <v>6990000</v>
       </c>
       <c r="H61" s="3">
-        <v>10069600</v>
+        <v>9403300</v>
       </c>
       <c r="I61" s="3">
-        <v>10614700</v>
+        <v>9912200</v>
       </c>
       <c r="J61" s="3">
-        <v>8626800</v>
+        <v>8055900</v>
       </c>
       <c r="K61" s="3">
         <v>6299100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>698600</v>
+        <v>652300</v>
       </c>
       <c r="E62" s="3">
-        <v>522500</v>
+        <v>487900</v>
       </c>
       <c r="F62" s="3">
-        <v>496000</v>
+        <v>463200</v>
       </c>
       <c r="G62" s="3">
-        <v>520800</v>
+        <v>486400</v>
       </c>
       <c r="H62" s="3">
-        <v>512400</v>
+        <v>478500</v>
       </c>
       <c r="I62" s="3">
-        <v>913900</v>
+        <v>853400</v>
       </c>
       <c r="J62" s="3">
-        <v>866000</v>
+        <v>808700</v>
       </c>
       <c r="K62" s="3">
         <v>201000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>57621700</v>
+        <v>53808500</v>
       </c>
       <c r="E66" s="3">
-        <v>51333400</v>
+        <v>47936300</v>
       </c>
       <c r="F66" s="3">
-        <v>44366300</v>
+        <v>41430300</v>
       </c>
       <c r="G66" s="3">
-        <v>40417100</v>
+        <v>37742500</v>
       </c>
       <c r="H66" s="3">
-        <v>38958900</v>
+        <v>36380800</v>
       </c>
       <c r="I66" s="3">
-        <v>38831900</v>
+        <v>36262100</v>
       </c>
       <c r="J66" s="3">
-        <v>34150500</v>
+        <v>31890600</v>
       </c>
       <c r="K66" s="3">
         <v>30153100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1873100</v>
+        <v>1749200</v>
       </c>
       <c r="E72" s="3">
-        <v>1613800</v>
+        <v>1507000</v>
       </c>
       <c r="F72" s="3">
-        <v>1276700</v>
+        <v>1192200</v>
       </c>
       <c r="G72" s="3">
-        <v>1149200</v>
+        <v>1073200</v>
       </c>
       <c r="H72" s="3">
-        <v>1055400</v>
+        <v>985600</v>
       </c>
       <c r="I72" s="3">
-        <v>872000</v>
+        <v>814300</v>
       </c>
       <c r="J72" s="3">
-        <v>742700</v>
+        <v>693600</v>
       </c>
       <c r="K72" s="3">
         <v>1048700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5067700</v>
+        <v>4732400</v>
       </c>
       <c r="E76" s="3">
-        <v>4798400</v>
+        <v>4480800</v>
       </c>
       <c r="F76" s="3">
-        <v>4493600</v>
+        <v>4196300</v>
       </c>
       <c r="G76" s="3">
-        <v>4223800</v>
+        <v>3944300</v>
       </c>
       <c r="H76" s="3">
-        <v>3926900</v>
+        <v>3667000</v>
       </c>
       <c r="I76" s="3">
-        <v>3726500</v>
+        <v>3479900</v>
       </c>
       <c r="J76" s="3">
-        <v>3447800</v>
+        <v>3219600</v>
       </c>
       <c r="K76" s="3">
         <v>3482700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>629800</v>
+        <v>588100</v>
       </c>
       <c r="E81" s="3">
-        <v>806500</v>
+        <v>753100</v>
       </c>
       <c r="F81" s="3">
-        <v>809000</v>
+        <v>755500</v>
       </c>
       <c r="G81" s="3">
-        <v>783400</v>
+        <v>731500</v>
       </c>
       <c r="H81" s="3">
-        <v>751100</v>
+        <v>701400</v>
       </c>
       <c r="I81" s="3">
-        <v>760200</v>
+        <v>709900</v>
       </c>
       <c r="J81" s="3">
-        <v>809900</v>
+        <v>756300</v>
       </c>
       <c r="K81" s="3">
         <v>715200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>99800</v>
+        <v>93200</v>
       </c>
       <c r="E83" s="3">
-        <v>95900</v>
+        <v>89600</v>
       </c>
       <c r="F83" s="3">
-        <v>51200</v>
+        <v>47900</v>
       </c>
       <c r="G83" s="3">
-        <v>47900</v>
+        <v>44800</v>
       </c>
       <c r="H83" s="3">
-        <v>45300</v>
+        <v>42300</v>
       </c>
       <c r="I83" s="3">
-        <v>40200</v>
+        <v>37500</v>
       </c>
       <c r="J83" s="3">
-        <v>44600</v>
+        <v>41600</v>
       </c>
       <c r="K83" s="3">
         <v>36000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>706700</v>
+        <v>660000</v>
       </c>
       <c r="E89" s="3">
-        <v>1680700</v>
+        <v>1569500</v>
       </c>
       <c r="F89" s="3">
-        <v>-1360800</v>
+        <v>-1270700</v>
       </c>
       <c r="G89" s="3">
-        <v>1451800</v>
+        <v>1355700</v>
       </c>
       <c r="H89" s="3">
-        <v>462900</v>
+        <v>432300</v>
       </c>
       <c r="I89" s="3">
-        <v>-1936300</v>
+        <v>-1808100</v>
       </c>
       <c r="J89" s="3">
-        <v>-312200</v>
+        <v>-291500</v>
       </c>
       <c r="K89" s="3">
         <v>-181800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39900</v>
+        <v>-37200</v>
       </c>
       <c r="E91" s="3">
-        <v>-59200</v>
+        <v>-55300</v>
       </c>
       <c r="F91" s="3">
-        <v>-38200</v>
+        <v>-35600</v>
       </c>
       <c r="G91" s="3">
-        <v>-31600</v>
+        <v>-29500</v>
       </c>
       <c r="H91" s="3">
-        <v>-37800</v>
+        <v>-35300</v>
       </c>
       <c r="I91" s="3">
-        <v>-42800</v>
+        <v>-40000</v>
       </c>
       <c r="J91" s="3">
-        <v>-42900</v>
+        <v>-40000</v>
       </c>
       <c r="K91" s="3">
         <v>-15900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>285400</v>
+        <v>266500</v>
       </c>
       <c r="E94" s="3">
-        <v>-540700</v>
+        <v>-504900</v>
       </c>
       <c r="F94" s="3">
-        <v>566400</v>
+        <v>528900</v>
       </c>
       <c r="G94" s="3">
-        <v>-1603900</v>
+        <v>-1497800</v>
       </c>
       <c r="H94" s="3">
-        <v>548300</v>
+        <v>512000</v>
       </c>
       <c r="I94" s="3">
-        <v>544100</v>
+        <v>508100</v>
       </c>
       <c r="J94" s="3">
-        <v>66900</v>
+        <v>62500</v>
       </c>
       <c r="K94" s="3">
         <v>-532000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-476700</v>
+        <v>-445200</v>
       </c>
       <c r="E96" s="3">
-        <v>-484600</v>
+        <v>-452500</v>
       </c>
       <c r="F96" s="3">
-        <v>-508700</v>
+        <v>-475100</v>
       </c>
       <c r="G96" s="3">
-        <v>-465200</v>
+        <v>-434400</v>
       </c>
       <c r="H96" s="3">
-        <v>-498600</v>
+        <v>-465700</v>
       </c>
       <c r="I96" s="3">
-        <v>-499700</v>
+        <v>-466700</v>
       </c>
       <c r="J96" s="3">
-        <v>-500600</v>
+        <v>-467500</v>
       </c>
       <c r="K96" s="3">
         <v>-446500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1987800</v>
+        <v>1856200</v>
       </c>
       <c r="E100" s="3">
-        <v>1091300</v>
+        <v>1019100</v>
       </c>
       <c r="F100" s="3">
-        <v>877200</v>
+        <v>819100</v>
       </c>
       <c r="G100" s="3">
-        <v>180400</v>
+        <v>168500</v>
       </c>
       <c r="H100" s="3">
-        <v>-967800</v>
+        <v>-903700</v>
       </c>
       <c r="I100" s="3">
-        <v>1650800</v>
+        <v>1541500</v>
       </c>
       <c r="J100" s="3">
-        <v>513400</v>
+        <v>479500</v>
       </c>
       <c r="K100" s="3">
         <v>1002100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-46700</v>
+        <v>-43600</v>
       </c>
       <c r="E101" s="3">
-        <v>46600</v>
+        <v>43600</v>
       </c>
       <c r="F101" s="3">
-        <v>157900</v>
+        <v>147500</v>
       </c>
       <c r="G101" s="3">
-        <v>-52200</v>
+        <v>-48700</v>
       </c>
       <c r="H101" s="3">
-        <v>-39300</v>
+        <v>-36700</v>
       </c>
       <c r="I101" s="3">
-        <v>106300</v>
+        <v>99300</v>
       </c>
       <c r="J101" s="3">
-        <v>62900</v>
+        <v>58700</v>
       </c>
       <c r="K101" s="3">
         <v>78600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2933200</v>
+        <v>2739100</v>
       </c>
       <c r="E102" s="3">
-        <v>2278000</v>
+        <v>2127200</v>
       </c>
       <c r="F102" s="3">
-        <v>240700</v>
+        <v>224800</v>
       </c>
       <c r="G102" s="3">
-        <v>-23900</v>
+        <v>-22300</v>
       </c>
       <c r="H102" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="I102" s="3">
-        <v>364900</v>
+        <v>340800</v>
       </c>
       <c r="J102" s="3">
-        <v>331100</v>
+        <v>309200</v>
       </c>
       <c r="K102" s="3">
         <v>366900</v>

--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2378700</v>
+        <v>2228900</v>
       </c>
       <c r="E8" s="3">
-        <v>2681800</v>
+        <v>2512900</v>
       </c>
       <c r="F8" s="3">
-        <v>2539400</v>
+        <v>2379500</v>
       </c>
       <c r="G8" s="3">
-        <v>2389400</v>
+        <v>2238900</v>
       </c>
       <c r="H8" s="3">
-        <v>2427800</v>
+        <v>2274800</v>
       </c>
       <c r="I8" s="3">
-        <v>2412100</v>
+        <v>2260200</v>
       </c>
       <c r="J8" s="3">
-        <v>2597900</v>
+        <v>2434300</v>
       </c>
       <c r="K8" s="3">
         <v>2295700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-93200</v>
+        <v>-87300</v>
       </c>
       <c r="E15" s="3">
-        <v>-89600</v>
+        <v>-83900</v>
       </c>
       <c r="F15" s="3">
-        <v>-47900</v>
+        <v>-44800</v>
       </c>
       <c r="G15" s="3">
-        <v>-44800</v>
+        <v>-41900</v>
       </c>
       <c r="H15" s="3">
-        <v>-42300</v>
+        <v>-39600</v>
       </c>
       <c r="I15" s="3">
-        <v>-37500</v>
+        <v>-35100</v>
       </c>
       <c r="J15" s="3">
-        <v>-41600</v>
+        <v>-39000</v>
       </c>
       <c r="K15" s="3">
         <v>-36000</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1263600</v>
+        <v>1184000</v>
       </c>
       <c r="E17" s="3">
-        <v>1383700</v>
+        <v>1296600</v>
       </c>
       <c r="F17" s="3">
-        <v>1220500</v>
+        <v>1143600</v>
       </c>
       <c r="G17" s="3">
-        <v>1126500</v>
+        <v>1055500</v>
       </c>
       <c r="H17" s="3">
-        <v>1270000</v>
+        <v>1190000</v>
       </c>
       <c r="I17" s="3">
-        <v>1248700</v>
+        <v>1170000</v>
       </c>
       <c r="J17" s="3">
-        <v>1333900</v>
+        <v>1249900</v>
       </c>
       <c r="K17" s="3">
         <v>1203800</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1115100</v>
+        <v>1044900</v>
       </c>
       <c r="E18" s="3">
-        <v>1298100</v>
+        <v>1216300</v>
       </c>
       <c r="F18" s="3">
-        <v>1318900</v>
+        <v>1235800</v>
       </c>
       <c r="G18" s="3">
-        <v>1263000</v>
+        <v>1183400</v>
       </c>
       <c r="H18" s="3">
-        <v>1157800</v>
+        <v>1084800</v>
       </c>
       <c r="I18" s="3">
-        <v>1163400</v>
+        <v>1090100</v>
       </c>
       <c r="J18" s="3">
-        <v>1264000</v>
+        <v>1184300</v>
       </c>
       <c r="K18" s="3">
         <v>1091900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-367000</v>
+        <v>-343900</v>
       </c>
       <c r="E20" s="3">
-        <v>-329400</v>
+        <v>-308700</v>
       </c>
       <c r="F20" s="3">
-        <v>-364600</v>
+        <v>-341600</v>
       </c>
       <c r="G20" s="3">
-        <v>-385300</v>
+        <v>-361100</v>
       </c>
       <c r="H20" s="3">
-        <v>-343300</v>
+        <v>-321700</v>
       </c>
       <c r="I20" s="3">
-        <v>-375100</v>
+        <v>-351500</v>
       </c>
       <c r="J20" s="3">
-        <v>-406500</v>
+        <v>-380900</v>
       </c>
       <c r="K20" s="3">
         <v>-260800</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>841300</v>
+        <v>789000</v>
       </c>
       <c r="E21" s="3">
-        <v>1058200</v>
+        <v>992300</v>
       </c>
       <c r="F21" s="3">
-        <v>1002100</v>
+        <v>939400</v>
       </c>
       <c r="G21" s="3">
-        <v>922400</v>
+        <v>864600</v>
       </c>
       <c r="H21" s="3">
-        <v>856700</v>
+        <v>803100</v>
       </c>
       <c r="I21" s="3">
-        <v>825800</v>
+        <v>774100</v>
       </c>
       <c r="J21" s="3">
-        <v>899100</v>
+        <v>842800</v>
       </c>
       <c r="K21" s="3">
         <v>867300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>748100</v>
+        <v>701000</v>
       </c>
       <c r="E23" s="3">
-        <v>968600</v>
+        <v>907600</v>
       </c>
       <c r="F23" s="3">
-        <v>954300</v>
+        <v>894200</v>
       </c>
       <c r="G23" s="3">
-        <v>877600</v>
+        <v>822300</v>
       </c>
       <c r="H23" s="3">
-        <v>814400</v>
+        <v>763100</v>
       </c>
       <c r="I23" s="3">
-        <v>788300</v>
+        <v>738700</v>
       </c>
       <c r="J23" s="3">
-        <v>857500</v>
+        <v>803500</v>
       </c>
       <c r="K23" s="3">
         <v>831100</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>160000</v>
+        <v>149900</v>
       </c>
       <c r="E24" s="3">
-        <v>215500</v>
+        <v>201900</v>
       </c>
       <c r="F24" s="3">
-        <v>198800</v>
+        <v>186300</v>
       </c>
       <c r="G24" s="3">
-        <v>146100</v>
+        <v>136900</v>
       </c>
       <c r="H24" s="3">
-        <v>113100</v>
+        <v>106000</v>
       </c>
       <c r="I24" s="3">
-        <v>78400</v>
+        <v>73500</v>
       </c>
       <c r="J24" s="3">
-        <v>101200</v>
+        <v>94800</v>
       </c>
       <c r="K24" s="3">
         <v>115800</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>588100</v>
+        <v>551100</v>
       </c>
       <c r="E26" s="3">
-        <v>753100</v>
+        <v>705700</v>
       </c>
       <c r="F26" s="3">
-        <v>755500</v>
+        <v>707900</v>
       </c>
       <c r="G26" s="3">
-        <v>731500</v>
+        <v>685500</v>
       </c>
       <c r="H26" s="3">
-        <v>701400</v>
+        <v>657200</v>
       </c>
       <c r="I26" s="3">
-        <v>709900</v>
+        <v>665200</v>
       </c>
       <c r="J26" s="3">
-        <v>756300</v>
+        <v>708700</v>
       </c>
       <c r="K26" s="3">
         <v>715200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>588100</v>
+        <v>551100</v>
       </c>
       <c r="E27" s="3">
-        <v>753100</v>
+        <v>705700</v>
       </c>
       <c r="F27" s="3">
-        <v>755500</v>
+        <v>707900</v>
       </c>
       <c r="G27" s="3">
-        <v>731500</v>
+        <v>685500</v>
       </c>
       <c r="H27" s="3">
-        <v>701400</v>
+        <v>657200</v>
       </c>
       <c r="I27" s="3">
-        <v>709900</v>
+        <v>665200</v>
       </c>
       <c r="J27" s="3">
-        <v>756300</v>
+        <v>708700</v>
       </c>
       <c r="K27" s="3">
         <v>715200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>367000</v>
+        <v>343900</v>
       </c>
       <c r="E32" s="3">
-        <v>329400</v>
+        <v>308700</v>
       </c>
       <c r="F32" s="3">
-        <v>364600</v>
+        <v>341600</v>
       </c>
       <c r="G32" s="3">
-        <v>385300</v>
+        <v>361100</v>
       </c>
       <c r="H32" s="3">
-        <v>343300</v>
+        <v>321700</v>
       </c>
       <c r="I32" s="3">
-        <v>375100</v>
+        <v>351500</v>
       </c>
       <c r="J32" s="3">
-        <v>406500</v>
+        <v>380900</v>
       </c>
       <c r="K32" s="3">
         <v>260800</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>588100</v>
+        <v>551100</v>
       </c>
       <c r="E33" s="3">
-        <v>753100</v>
+        <v>705700</v>
       </c>
       <c r="F33" s="3">
-        <v>755500</v>
+        <v>707900</v>
       </c>
       <c r="G33" s="3">
-        <v>731500</v>
+        <v>685500</v>
       </c>
       <c r="H33" s="3">
-        <v>701400</v>
+        <v>657200</v>
       </c>
       <c r="I33" s="3">
-        <v>709900</v>
+        <v>665200</v>
       </c>
       <c r="J33" s="3">
-        <v>756300</v>
+        <v>708700</v>
       </c>
       <c r="K33" s="3">
         <v>715200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>588100</v>
+        <v>551100</v>
       </c>
       <c r="E35" s="3">
-        <v>753100</v>
+        <v>705700</v>
       </c>
       <c r="F35" s="3">
-        <v>755500</v>
+        <v>707900</v>
       </c>
       <c r="G35" s="3">
-        <v>731500</v>
+        <v>685500</v>
       </c>
       <c r="H35" s="3">
-        <v>701400</v>
+        <v>657200</v>
       </c>
       <c r="I35" s="3">
-        <v>709900</v>
+        <v>665200</v>
       </c>
       <c r="J35" s="3">
-        <v>756300</v>
+        <v>708700</v>
       </c>
       <c r="K35" s="3">
         <v>715200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6069400</v>
+        <v>5687000</v>
       </c>
       <c r="E41" s="3">
-        <v>3546400</v>
+        <v>3323000</v>
       </c>
       <c r="F41" s="3">
-        <v>3583100</v>
+        <v>3357400</v>
       </c>
       <c r="G41" s="3">
-        <v>2497800</v>
+        <v>2340500</v>
       </c>
       <c r="H41" s="3">
-        <v>2963100</v>
+        <v>2776400</v>
       </c>
       <c r="I41" s="3">
-        <v>4168700</v>
+        <v>3906100</v>
       </c>
       <c r="J41" s="3">
-        <v>3137600</v>
+        <v>2940000</v>
       </c>
       <c r="K41" s="3">
         <v>2906000</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>11002100</v>
+        <v>10309000</v>
       </c>
       <c r="E42" s="3">
-        <v>7778400</v>
+        <v>7288400</v>
       </c>
       <c r="F42" s="3">
-        <v>4432300</v>
+        <v>4153100</v>
       </c>
       <c r="G42" s="3">
-        <v>4226800</v>
+        <v>3960600</v>
       </c>
       <c r="H42" s="3">
-        <v>2648800</v>
+        <v>2482000</v>
       </c>
       <c r="I42" s="3">
-        <v>1159300</v>
+        <v>1086300</v>
       </c>
       <c r="J42" s="3">
-        <v>1788700</v>
+        <v>1676000</v>
       </c>
       <c r="K42" s="3">
         <v>1019200</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56700</v>
+        <v>53100</v>
       </c>
       <c r="E47" s="3">
-        <v>64500</v>
+        <v>60400</v>
       </c>
       <c r="F47" s="3">
-        <v>56600</v>
+        <v>53000</v>
       </c>
       <c r="G47" s="3">
-        <v>48300</v>
+        <v>45300</v>
       </c>
       <c r="H47" s="3">
-        <v>41400</v>
+        <v>38800</v>
       </c>
       <c r="I47" s="3">
-        <v>35700</v>
+        <v>33500</v>
       </c>
       <c r="J47" s="3">
-        <v>32100</v>
+        <v>30100</v>
       </c>
       <c r="K47" s="3">
         <v>18700</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>444000</v>
+        <v>416000</v>
       </c>
       <c r="E48" s="3">
-        <v>487800</v>
+        <v>457100</v>
       </c>
       <c r="F48" s="3">
-        <v>291900</v>
+        <v>273500</v>
       </c>
       <c r="G48" s="3">
-        <v>292800</v>
+        <v>274400</v>
       </c>
       <c r="H48" s="3">
-        <v>296900</v>
+        <v>278200</v>
       </c>
       <c r="I48" s="3">
-        <v>293000</v>
+        <v>274500</v>
       </c>
       <c r="J48" s="3">
-        <v>892500</v>
+        <v>836300</v>
       </c>
       <c r="K48" s="3">
         <v>278100</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>77100</v>
+        <v>72200</v>
       </c>
       <c r="E49" s="3">
-        <v>74000</v>
+        <v>69400</v>
       </c>
       <c r="F49" s="3">
-        <v>66100</v>
+        <v>62000</v>
       </c>
       <c r="G49" s="3">
-        <v>49600</v>
+        <v>46500</v>
       </c>
       <c r="H49" s="3">
-        <v>37300</v>
+        <v>34900</v>
       </c>
       <c r="I49" s="3">
-        <v>33900</v>
+        <v>31800</v>
       </c>
       <c r="J49" s="3">
-        <v>63700</v>
+        <v>59700</v>
       </c>
       <c r="K49" s="3">
         <v>93900</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>454600</v>
+        <v>426000</v>
       </c>
       <c r="E52" s="3">
-        <v>407600</v>
+        <v>381900</v>
       </c>
       <c r="F52" s="3">
-        <v>353000</v>
+        <v>330700</v>
       </c>
       <c r="G52" s="3">
-        <v>339600</v>
+        <v>318200</v>
       </c>
       <c r="H52" s="3">
-        <v>357800</v>
+        <v>335200</v>
       </c>
       <c r="I52" s="3">
-        <v>325100</v>
+        <v>304600</v>
       </c>
       <c r="J52" s="3">
-        <v>257600</v>
+        <v>241400</v>
       </c>
       <c r="K52" s="3">
         <v>73300</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58540800</v>
+        <v>54853200</v>
       </c>
       <c r="E54" s="3">
-        <v>52417100</v>
+        <v>49115300</v>
       </c>
       <c r="F54" s="3">
-        <v>45626600</v>
+        <v>42752500</v>
       </c>
       <c r="G54" s="3">
-        <v>41686700</v>
+        <v>39060800</v>
       </c>
       <c r="H54" s="3">
-        <v>40047800</v>
+        <v>37525100</v>
       </c>
       <c r="I54" s="3">
-        <v>39742000</v>
+        <v>37238600</v>
       </c>
       <c r="J54" s="3">
-        <v>35110200</v>
+        <v>32898500</v>
       </c>
       <c r="K54" s="3">
         <v>33635800</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2000400</v>
+        <v>1874400</v>
       </c>
       <c r="E57" s="3">
-        <v>741200</v>
+        <v>694500</v>
       </c>
       <c r="F57" s="3">
-        <v>650700</v>
+        <v>609800</v>
       </c>
       <c r="G57" s="3">
-        <v>617100</v>
+        <v>578200</v>
       </c>
       <c r="H57" s="3">
-        <v>433600</v>
+        <v>406300</v>
       </c>
       <c r="I57" s="3">
-        <v>461300</v>
+        <v>432300</v>
       </c>
       <c r="J57" s="3">
-        <v>277300</v>
+        <v>259800</v>
       </c>
       <c r="K57" s="3">
         <v>197600</v>
@@ -2310,16 +2310,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3065400</v>
+        <v>2872300</v>
       </c>
       <c r="E58" s="3">
-        <v>3974500</v>
+        <v>3724100</v>
       </c>
       <c r="F58" s="3">
-        <v>3931500</v>
+        <v>3683800</v>
       </c>
       <c r="G58" s="3">
-        <v>3191000</v>
+        <v>2990000</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2328,7 +2328,7 @@
         <v>5</v>
       </c>
       <c r="J58" s="3">
-        <v>1457900</v>
+        <v>1366100</v>
       </c>
       <c r="K58" s="3">
         <v>1272200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>285600</v>
+        <v>267600</v>
       </c>
       <c r="E59" s="3">
-        <v>480300</v>
+        <v>450000</v>
       </c>
       <c r="F59" s="3">
-        <v>415800</v>
+        <v>389600</v>
       </c>
       <c r="G59" s="3">
-        <v>403300</v>
+        <v>377900</v>
       </c>
       <c r="H59" s="3">
-        <v>364100</v>
+        <v>341100</v>
       </c>
       <c r="I59" s="3">
-        <v>37100</v>
+        <v>34800</v>
       </c>
       <c r="J59" s="3">
-        <v>133400</v>
+        <v>125000</v>
       </c>
       <c r="K59" s="3">
         <v>97600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13265500</v>
+        <v>12429900</v>
       </c>
       <c r="E61" s="3">
-        <v>9979800</v>
+        <v>9351200</v>
       </c>
       <c r="F61" s="3">
-        <v>8024500</v>
+        <v>7519000</v>
       </c>
       <c r="G61" s="3">
-        <v>6990000</v>
+        <v>6549700</v>
       </c>
       <c r="H61" s="3">
-        <v>9403300</v>
+        <v>8810900</v>
       </c>
       <c r="I61" s="3">
-        <v>9912200</v>
+        <v>9287900</v>
       </c>
       <c r="J61" s="3">
-        <v>8055900</v>
+        <v>7548500</v>
       </c>
       <c r="K61" s="3">
         <v>6299100</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>652300</v>
+        <v>611200</v>
       </c>
       <c r="E62" s="3">
-        <v>487900</v>
+        <v>457200</v>
       </c>
       <c r="F62" s="3">
-        <v>463200</v>
+        <v>434000</v>
       </c>
       <c r="G62" s="3">
-        <v>486400</v>
+        <v>455700</v>
       </c>
       <c r="H62" s="3">
-        <v>478500</v>
+        <v>448400</v>
       </c>
       <c r="I62" s="3">
-        <v>853400</v>
+        <v>799700</v>
       </c>
       <c r="J62" s="3">
-        <v>808700</v>
+        <v>757700</v>
       </c>
       <c r="K62" s="3">
         <v>201000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>53808500</v>
+        <v>50418900</v>
       </c>
       <c r="E66" s="3">
-        <v>47936300</v>
+        <v>44916700</v>
       </c>
       <c r="F66" s="3">
-        <v>41430300</v>
+        <v>38820500</v>
       </c>
       <c r="G66" s="3">
-        <v>37742500</v>
+        <v>35365000</v>
       </c>
       <c r="H66" s="3">
-        <v>36380800</v>
+        <v>34089100</v>
       </c>
       <c r="I66" s="3">
-        <v>36262100</v>
+        <v>33977900</v>
       </c>
       <c r="J66" s="3">
-        <v>31890600</v>
+        <v>29881700</v>
       </c>
       <c r="K66" s="3">
         <v>30153100</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1749200</v>
+        <v>1639000</v>
       </c>
       <c r="E72" s="3">
-        <v>1507000</v>
+        <v>1412100</v>
       </c>
       <c r="F72" s="3">
-        <v>1192200</v>
+        <v>1117100</v>
       </c>
       <c r="G72" s="3">
-        <v>1073200</v>
+        <v>1005600</v>
       </c>
       <c r="H72" s="3">
-        <v>985600</v>
+        <v>923500</v>
       </c>
       <c r="I72" s="3">
-        <v>814300</v>
+        <v>763000</v>
       </c>
       <c r="J72" s="3">
-        <v>693600</v>
+        <v>649900</v>
       </c>
       <c r="K72" s="3">
         <v>1048700</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4732400</v>
+        <v>4434300</v>
       </c>
       <c r="E76" s="3">
-        <v>4480800</v>
+        <v>4198600</v>
       </c>
       <c r="F76" s="3">
-        <v>4196300</v>
+        <v>3931900</v>
       </c>
       <c r="G76" s="3">
-        <v>3944300</v>
+        <v>3695800</v>
       </c>
       <c r="H76" s="3">
-        <v>3667000</v>
+        <v>3436000</v>
       </c>
       <c r="I76" s="3">
-        <v>3479900</v>
+        <v>3260700</v>
       </c>
       <c r="J76" s="3">
-        <v>3219600</v>
+        <v>3016800</v>
       </c>
       <c r="K76" s="3">
         <v>3482700</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>588100</v>
+        <v>551100</v>
       </c>
       <c r="E81" s="3">
-        <v>753100</v>
+        <v>705700</v>
       </c>
       <c r="F81" s="3">
-        <v>755500</v>
+        <v>707900</v>
       </c>
       <c r="G81" s="3">
-        <v>731500</v>
+        <v>685500</v>
       </c>
       <c r="H81" s="3">
-        <v>701400</v>
+        <v>657200</v>
       </c>
       <c r="I81" s="3">
-        <v>709900</v>
+        <v>665200</v>
       </c>
       <c r="J81" s="3">
-        <v>756300</v>
+        <v>708700</v>
       </c>
       <c r="K81" s="3">
         <v>715200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>93200</v>
+        <v>87300</v>
       </c>
       <c r="E83" s="3">
-        <v>89600</v>
+        <v>83900</v>
       </c>
       <c r="F83" s="3">
-        <v>47900</v>
+        <v>44800</v>
       </c>
       <c r="G83" s="3">
-        <v>44800</v>
+        <v>41900</v>
       </c>
       <c r="H83" s="3">
-        <v>42300</v>
+        <v>39600</v>
       </c>
       <c r="I83" s="3">
-        <v>37500</v>
+        <v>35100</v>
       </c>
       <c r="J83" s="3">
-        <v>41600</v>
+        <v>39000</v>
       </c>
       <c r="K83" s="3">
         <v>36000</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>660000</v>
+        <v>618400</v>
       </c>
       <c r="E89" s="3">
-        <v>1569500</v>
+        <v>1470600</v>
       </c>
       <c r="F89" s="3">
-        <v>-1270700</v>
+        <v>-1190700</v>
       </c>
       <c r="G89" s="3">
-        <v>1355700</v>
+        <v>1270300</v>
       </c>
       <c r="H89" s="3">
-        <v>432300</v>
+        <v>405100</v>
       </c>
       <c r="I89" s="3">
-        <v>-1808100</v>
+        <v>-1694200</v>
       </c>
       <c r="J89" s="3">
-        <v>-291500</v>
+        <v>-273200</v>
       </c>
       <c r="K89" s="3">
         <v>-181800</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-37200</v>
+        <v>-34900</v>
       </c>
       <c r="E91" s="3">
-        <v>-55300</v>
+        <v>-51800</v>
       </c>
       <c r="F91" s="3">
-        <v>-35600</v>
+        <v>-33400</v>
       </c>
       <c r="G91" s="3">
-        <v>-29500</v>
+        <v>-27600</v>
       </c>
       <c r="H91" s="3">
-        <v>-35300</v>
+        <v>-33100</v>
       </c>
       <c r="I91" s="3">
-        <v>-40000</v>
+        <v>-37500</v>
       </c>
       <c r="J91" s="3">
-        <v>-40000</v>
+        <v>-37500</v>
       </c>
       <c r="K91" s="3">
         <v>-15900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>266500</v>
+        <v>249800</v>
       </c>
       <c r="E94" s="3">
-        <v>-504900</v>
+        <v>-473100</v>
       </c>
       <c r="F94" s="3">
-        <v>528900</v>
+        <v>495600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1497800</v>
+        <v>-1403400</v>
       </c>
       <c r="H94" s="3">
-        <v>512000</v>
+        <v>479800</v>
       </c>
       <c r="I94" s="3">
-        <v>508100</v>
+        <v>476100</v>
       </c>
       <c r="J94" s="3">
-        <v>62500</v>
+        <v>58600</v>
       </c>
       <c r="K94" s="3">
         <v>-532000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-417100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-424000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-445200</v>
       </c>
-      <c r="E96" s="3">
-        <v>-452500</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-475100</v>
-      </c>
       <c r="G96" s="3">
-        <v>-434400</v>
+        <v>-407000</v>
       </c>
       <c r="H96" s="3">
-        <v>-465700</v>
+        <v>-436300</v>
       </c>
       <c r="I96" s="3">
-        <v>-466700</v>
+        <v>-437300</v>
       </c>
       <c r="J96" s="3">
-        <v>-467500</v>
+        <v>-438100</v>
       </c>
       <c r="K96" s="3">
         <v>-446500</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1856200</v>
+        <v>1739300</v>
       </c>
       <c r="E100" s="3">
-        <v>1019100</v>
+        <v>954900</v>
       </c>
       <c r="F100" s="3">
-        <v>819100</v>
+        <v>767500</v>
       </c>
       <c r="G100" s="3">
-        <v>168500</v>
+        <v>157900</v>
       </c>
       <c r="H100" s="3">
-        <v>-903700</v>
+        <v>-846800</v>
       </c>
       <c r="I100" s="3">
-        <v>1541500</v>
+        <v>1444400</v>
       </c>
       <c r="J100" s="3">
-        <v>479500</v>
+        <v>449300</v>
       </c>
       <c r="K100" s="3">
         <v>1002100</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-43600</v>
+        <v>-40900</v>
       </c>
       <c r="E101" s="3">
-        <v>43600</v>
+        <v>40800</v>
       </c>
       <c r="F101" s="3">
-        <v>147500</v>
+        <v>138200</v>
       </c>
       <c r="G101" s="3">
-        <v>-48700</v>
+        <v>-45700</v>
       </c>
       <c r="H101" s="3">
-        <v>-36700</v>
+        <v>-34400</v>
       </c>
       <c r="I101" s="3">
-        <v>99300</v>
+        <v>93000</v>
       </c>
       <c r="J101" s="3">
-        <v>58700</v>
+        <v>55000</v>
       </c>
       <c r="K101" s="3">
         <v>78600</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2739100</v>
+        <v>2566500</v>
       </c>
       <c r="E102" s="3">
-        <v>2127200</v>
+        <v>1993200</v>
       </c>
       <c r="F102" s="3">
-        <v>224800</v>
+        <v>210600</v>
       </c>
       <c r="G102" s="3">
-        <v>-22300</v>
+        <v>-20900</v>
       </c>
       <c r="H102" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="I102" s="3">
-        <v>340800</v>
+        <v>319300</v>
       </c>
       <c r="J102" s="3">
-        <v>309200</v>
+        <v>289700</v>
       </c>
       <c r="K102" s="3">
         <v>366900</v>

--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,99 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2228900</v>
+        <v>2954900</v>
       </c>
       <c r="E8" s="3">
-        <v>2512900</v>
+        <v>2322500</v>
       </c>
       <c r="F8" s="3">
-        <v>2379500</v>
+        <v>2618400</v>
       </c>
       <c r="G8" s="3">
-        <v>2238900</v>
+        <v>2479400</v>
       </c>
       <c r="H8" s="3">
-        <v>2274800</v>
+        <v>2333000</v>
       </c>
       <c r="I8" s="3">
-        <v>2260200</v>
+        <v>2370400</v>
       </c>
       <c r="J8" s="3">
+        <v>2355100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2434300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2295700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2141100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2207500</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -785,9 +791,12 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,9 +830,12 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,9 +925,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,45 +964,51 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-87300</v>
+        <v>-95200</v>
       </c>
       <c r="E15" s="3">
-        <v>-83900</v>
+        <v>-91000</v>
       </c>
       <c r="F15" s="3">
-        <v>-44800</v>
+        <v>-87500</v>
       </c>
       <c r="G15" s="3">
-        <v>-41900</v>
+        <v>-46700</v>
       </c>
       <c r="H15" s="3">
-        <v>-39600</v>
+        <v>-43700</v>
       </c>
       <c r="I15" s="3">
-        <v>-35100</v>
+        <v>-41300</v>
       </c>
       <c r="J15" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-39000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-36000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-90000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-103300</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1184000</v>
+        <v>1472800</v>
       </c>
       <c r="E17" s="3">
-        <v>1296600</v>
+        <v>1233800</v>
       </c>
       <c r="F17" s="3">
-        <v>1143600</v>
+        <v>1351000</v>
       </c>
       <c r="G17" s="3">
-        <v>1055500</v>
+        <v>1191700</v>
       </c>
       <c r="H17" s="3">
-        <v>1190000</v>
+        <v>1099900</v>
       </c>
       <c r="I17" s="3">
-        <v>1170000</v>
+        <v>1240000</v>
       </c>
       <c r="J17" s="3">
+        <v>1219200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1249900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1203800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1120100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1133600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1044900</v>
+        <v>1482200</v>
       </c>
       <c r="E18" s="3">
-        <v>1216300</v>
+        <v>1088800</v>
       </c>
       <c r="F18" s="3">
-        <v>1235800</v>
+        <v>1267400</v>
       </c>
       <c r="G18" s="3">
-        <v>1183400</v>
+        <v>1287700</v>
       </c>
       <c r="H18" s="3">
-        <v>1084800</v>
+        <v>1233100</v>
       </c>
       <c r="I18" s="3">
-        <v>1090100</v>
+        <v>1130400</v>
       </c>
       <c r="J18" s="3">
+        <v>1135900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1184300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1091900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1021100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1073900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,80 +1115,87 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-343900</v>
+        <v>-277500</v>
       </c>
       <c r="E20" s="3">
-        <v>-308700</v>
+        <v>-358300</v>
       </c>
       <c r="F20" s="3">
-        <v>-341600</v>
+        <v>-321700</v>
       </c>
       <c r="G20" s="3">
-        <v>-361100</v>
+        <v>-356000</v>
       </c>
       <c r="H20" s="3">
-        <v>-321700</v>
+        <v>-376200</v>
       </c>
       <c r="I20" s="3">
-        <v>-351500</v>
+        <v>-335200</v>
       </c>
       <c r="J20" s="3">
+        <v>-366200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-380900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-260800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-325000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-333700</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>789000</v>
+        <v>1299900</v>
       </c>
       <c r="E21" s="3">
-        <v>992300</v>
+        <v>821400</v>
       </c>
       <c r="F21" s="3">
-        <v>939400</v>
+        <v>1033200</v>
       </c>
       <c r="G21" s="3">
-        <v>864600</v>
+        <v>978500</v>
       </c>
       <c r="H21" s="3">
-        <v>803100</v>
+        <v>900600</v>
       </c>
       <c r="I21" s="3">
-        <v>774100</v>
+        <v>836500</v>
       </c>
       <c r="J21" s="3">
+        <v>806300</v>
+      </c>
+      <c r="K21" s="3">
         <v>842800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>867300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>741400</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1190,81 +1229,90 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>701000</v>
+        <v>1204600</v>
       </c>
       <c r="E23" s="3">
-        <v>907600</v>
+        <v>730400</v>
       </c>
       <c r="F23" s="3">
-        <v>894200</v>
+        <v>945700</v>
       </c>
       <c r="G23" s="3">
-        <v>822300</v>
+        <v>931700</v>
       </c>
       <c r="H23" s="3">
-        <v>763100</v>
+        <v>856900</v>
       </c>
       <c r="I23" s="3">
-        <v>738700</v>
+        <v>795200</v>
       </c>
       <c r="J23" s="3">
+        <v>769700</v>
+      </c>
+      <c r="K23" s="3">
         <v>803500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>831100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>696100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>740300</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>149900</v>
+        <v>221400</v>
       </c>
       <c r="E24" s="3">
-        <v>201900</v>
+        <v>156200</v>
       </c>
       <c r="F24" s="3">
-        <v>186300</v>
+        <v>210400</v>
       </c>
       <c r="G24" s="3">
-        <v>136900</v>
+        <v>194100</v>
       </c>
       <c r="H24" s="3">
-        <v>106000</v>
+        <v>142600</v>
       </c>
       <c r="I24" s="3">
-        <v>73500</v>
+        <v>110400</v>
       </c>
       <c r="J24" s="3">
+        <v>76500</v>
+      </c>
+      <c r="K24" s="3">
         <v>94800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>115800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>81800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>96200</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>551100</v>
+        <v>983200</v>
       </c>
       <c r="E26" s="3">
-        <v>705700</v>
+        <v>574300</v>
       </c>
       <c r="F26" s="3">
-        <v>707900</v>
+        <v>735300</v>
       </c>
       <c r="G26" s="3">
-        <v>685500</v>
+        <v>737600</v>
       </c>
       <c r="H26" s="3">
-        <v>657200</v>
+        <v>714300</v>
       </c>
       <c r="I26" s="3">
-        <v>665200</v>
+        <v>684800</v>
       </c>
       <c r="J26" s="3">
+        <v>693200</v>
+      </c>
+      <c r="K26" s="3">
         <v>708700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>715200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>614200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>644100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>551100</v>
+        <v>983200</v>
       </c>
       <c r="E27" s="3">
-        <v>705700</v>
+        <v>574300</v>
       </c>
       <c r="F27" s="3">
-        <v>707900</v>
+        <v>735300</v>
       </c>
       <c r="G27" s="3">
-        <v>685500</v>
+        <v>737600</v>
       </c>
       <c r="H27" s="3">
-        <v>657200</v>
+        <v>714300</v>
       </c>
       <c r="I27" s="3">
-        <v>665200</v>
+        <v>684800</v>
       </c>
       <c r="J27" s="3">
+        <v>693200</v>
+      </c>
+      <c r="K27" s="3">
         <v>708700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>715200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>614200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>644100</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>343900</v>
+        <v>277500</v>
       </c>
       <c r="E32" s="3">
-        <v>308700</v>
+        <v>358300</v>
       </c>
       <c r="F32" s="3">
-        <v>341600</v>
+        <v>321700</v>
       </c>
       <c r="G32" s="3">
-        <v>361100</v>
+        <v>356000</v>
       </c>
       <c r="H32" s="3">
-        <v>321700</v>
+        <v>376200</v>
       </c>
       <c r="I32" s="3">
-        <v>351500</v>
+        <v>335200</v>
       </c>
       <c r="J32" s="3">
+        <v>366200</v>
+      </c>
+      <c r="K32" s="3">
         <v>380900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>260800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>325000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>333700</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>551100</v>
+        <v>983200</v>
       </c>
       <c r="E33" s="3">
-        <v>705700</v>
+        <v>574300</v>
       </c>
       <c r="F33" s="3">
-        <v>707900</v>
+        <v>735300</v>
       </c>
       <c r="G33" s="3">
-        <v>685500</v>
+        <v>737600</v>
       </c>
       <c r="H33" s="3">
-        <v>657200</v>
+        <v>714300</v>
       </c>
       <c r="I33" s="3">
-        <v>665200</v>
+        <v>684800</v>
       </c>
       <c r="J33" s="3">
+        <v>693200</v>
+      </c>
+      <c r="K33" s="3">
         <v>708700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>715200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>614200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>644100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>551100</v>
+        <v>983200</v>
       </c>
       <c r="E35" s="3">
-        <v>705700</v>
+        <v>574300</v>
       </c>
       <c r="F35" s="3">
-        <v>707900</v>
+        <v>735300</v>
       </c>
       <c r="G35" s="3">
-        <v>685500</v>
+        <v>737600</v>
       </c>
       <c r="H35" s="3">
-        <v>657200</v>
+        <v>714300</v>
       </c>
       <c r="I35" s="3">
-        <v>665200</v>
+        <v>684800</v>
       </c>
       <c r="J35" s="3">
+        <v>693200</v>
+      </c>
+      <c r="K35" s="3">
         <v>708700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>715200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>614200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>644100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,80 +1817,87 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5687000</v>
+        <v>5858800</v>
       </c>
       <c r="E41" s="3">
-        <v>3323000</v>
+        <v>5926000</v>
       </c>
       <c r="F41" s="3">
-        <v>3357400</v>
+        <v>3462600</v>
       </c>
       <c r="G41" s="3">
-        <v>2340500</v>
+        <v>3498400</v>
       </c>
       <c r="H41" s="3">
-        <v>2776400</v>
+        <v>2438800</v>
       </c>
       <c r="I41" s="3">
-        <v>3906100</v>
+        <v>2893100</v>
       </c>
       <c r="J41" s="3">
+        <v>4070300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2940000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2906000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1273600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1844500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10309000</v>
+        <v>9943600</v>
       </c>
       <c r="E42" s="3">
-        <v>7288400</v>
+        <v>10742200</v>
       </c>
       <c r="F42" s="3">
-        <v>4153100</v>
+        <v>7594700</v>
       </c>
       <c r="G42" s="3">
-        <v>3960600</v>
+        <v>4327600</v>
       </c>
       <c r="H42" s="3">
-        <v>2482000</v>
+        <v>4127000</v>
       </c>
       <c r="I42" s="3">
-        <v>1086300</v>
+        <v>2586300</v>
       </c>
       <c r="J42" s="3">
+        <v>1131900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1676000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1019200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1968800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1420400</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1931,12 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,9 +1970,12 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1911,9 +2009,12 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1947,117 +2048,129 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>53100</v>
+        <v>61000</v>
       </c>
       <c r="E47" s="3">
-        <v>60400</v>
+        <v>55400</v>
       </c>
       <c r="F47" s="3">
-        <v>53000</v>
+        <v>62900</v>
       </c>
       <c r="G47" s="3">
-        <v>45300</v>
+        <v>55300</v>
       </c>
       <c r="H47" s="3">
-        <v>38800</v>
+        <v>47200</v>
       </c>
       <c r="I47" s="3">
-        <v>33500</v>
+        <v>40400</v>
       </c>
       <c r="J47" s="3">
+        <v>34900</v>
+      </c>
+      <c r="K47" s="3">
         <v>30100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>14900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>19400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>416000</v>
+        <v>415400</v>
       </c>
       <c r="E48" s="3">
-        <v>457100</v>
+        <v>433500</v>
       </c>
       <c r="F48" s="3">
-        <v>273500</v>
+        <v>476300</v>
       </c>
       <c r="G48" s="3">
-        <v>274400</v>
+        <v>285000</v>
       </c>
       <c r="H48" s="3">
-        <v>278200</v>
+        <v>285900</v>
       </c>
       <c r="I48" s="3">
-        <v>274500</v>
+        <v>289900</v>
       </c>
       <c r="J48" s="3">
+        <v>286100</v>
+      </c>
+      <c r="K48" s="3">
         <v>836300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>278100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>284000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>330700</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>72200</v>
+        <v>89900</v>
       </c>
       <c r="E49" s="3">
-        <v>69400</v>
+        <v>75300</v>
       </c>
       <c r="F49" s="3">
-        <v>62000</v>
+        <v>72300</v>
       </c>
       <c r="G49" s="3">
-        <v>46500</v>
+        <v>64600</v>
       </c>
       <c r="H49" s="3">
-        <v>34900</v>
+        <v>48400</v>
       </c>
       <c r="I49" s="3">
-        <v>31800</v>
+        <v>36400</v>
       </c>
       <c r="J49" s="3">
+        <v>33100</v>
+      </c>
+      <c r="K49" s="3">
         <v>59700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>93900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>96800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>119100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>426000</v>
+        <v>544600</v>
       </c>
       <c r="E52" s="3">
-        <v>381900</v>
+        <v>443900</v>
       </c>
       <c r="F52" s="3">
-        <v>330700</v>
+        <v>398000</v>
       </c>
       <c r="G52" s="3">
-        <v>318200</v>
+        <v>344600</v>
       </c>
       <c r="H52" s="3">
-        <v>335200</v>
+        <v>331600</v>
       </c>
       <c r="I52" s="3">
-        <v>304600</v>
+        <v>349300</v>
       </c>
       <c r="J52" s="3">
+        <v>317400</v>
+      </c>
+      <c r="K52" s="3">
         <v>241400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>73300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>71400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>88200</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>54853200</v>
+        <v>64111000</v>
       </c>
       <c r="E54" s="3">
-        <v>49115300</v>
+        <v>57158000</v>
       </c>
       <c r="F54" s="3">
-        <v>42752500</v>
+        <v>51178900</v>
       </c>
       <c r="G54" s="3">
-        <v>39060800</v>
+        <v>44548800</v>
       </c>
       <c r="H54" s="3">
-        <v>37525100</v>
+        <v>40702000</v>
       </c>
       <c r="I54" s="3">
-        <v>37238600</v>
+        <v>39101800</v>
       </c>
       <c r="J54" s="3">
+        <v>38803300</v>
+      </c>
+      <c r="K54" s="3">
         <v>32898500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33635800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29693700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31981300</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,116 +2397,126 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1874400</v>
+        <v>844300</v>
       </c>
       <c r="E57" s="3">
-        <v>694500</v>
+        <v>1953200</v>
       </c>
       <c r="F57" s="3">
-        <v>609800</v>
+        <v>723600</v>
       </c>
       <c r="G57" s="3">
-        <v>578200</v>
+        <v>635400</v>
       </c>
       <c r="H57" s="3">
-        <v>406300</v>
+        <v>602500</v>
       </c>
       <c r="I57" s="3">
-        <v>432300</v>
+        <v>423400</v>
       </c>
       <c r="J57" s="3">
+        <v>450400</v>
+      </c>
+      <c r="K57" s="3">
         <v>259800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>197600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>93000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>228500</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2872300</v>
+        <v>4158500</v>
       </c>
       <c r="E58" s="3">
-        <v>3724100</v>
+        <v>2993000</v>
       </c>
       <c r="F58" s="3">
-        <v>3683800</v>
+        <v>3880600</v>
       </c>
       <c r="G58" s="3">
-        <v>2990000</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+        <v>3838600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3115600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>1366100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1272200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>267600</v>
+        <v>548300</v>
       </c>
       <c r="E59" s="3">
-        <v>450000</v>
+        <v>278900</v>
       </c>
       <c r="F59" s="3">
-        <v>389600</v>
+        <v>469000</v>
       </c>
       <c r="G59" s="3">
-        <v>377900</v>
+        <v>406000</v>
       </c>
       <c r="H59" s="3">
-        <v>341100</v>
+        <v>393800</v>
       </c>
       <c r="I59" s="3">
-        <v>34800</v>
+        <v>355500</v>
       </c>
       <c r="J59" s="3">
+        <v>36300</v>
+      </c>
+      <c r="K59" s="3">
         <v>125000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>97600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4500</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2411,81 +2550,90 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12429900</v>
+        <v>14201100</v>
       </c>
       <c r="E61" s="3">
-        <v>9351200</v>
+        <v>12952200</v>
       </c>
       <c r="F61" s="3">
-        <v>7519000</v>
+        <v>9744100</v>
       </c>
       <c r="G61" s="3">
-        <v>6549700</v>
+        <v>7834900</v>
       </c>
       <c r="H61" s="3">
-        <v>8810900</v>
+        <v>6824900</v>
       </c>
       <c r="I61" s="3">
-        <v>9287900</v>
+        <v>9181100</v>
       </c>
       <c r="J61" s="3">
+        <v>9678100</v>
+      </c>
+      <c r="K61" s="3">
         <v>7548500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6299100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6304100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6900100</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>611200</v>
+        <v>897900</v>
       </c>
       <c r="E62" s="3">
-        <v>457200</v>
+        <v>636900</v>
       </c>
       <c r="F62" s="3">
-        <v>434000</v>
+        <v>476400</v>
       </c>
       <c r="G62" s="3">
-        <v>455700</v>
+        <v>452200</v>
       </c>
       <c r="H62" s="3">
-        <v>448400</v>
+        <v>474900</v>
       </c>
       <c r="I62" s="3">
-        <v>799700</v>
+        <v>467200</v>
       </c>
       <c r="J62" s="3">
+        <v>833300</v>
+      </c>
+      <c r="K62" s="3">
         <v>757700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>201000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>82600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>89100</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50418900</v>
+        <v>58874500</v>
       </c>
       <c r="E66" s="3">
-        <v>44916700</v>
+        <v>52537400</v>
       </c>
       <c r="F66" s="3">
-        <v>38820500</v>
+        <v>46803900</v>
       </c>
       <c r="G66" s="3">
-        <v>35365000</v>
+        <v>40451700</v>
       </c>
       <c r="H66" s="3">
-        <v>34089100</v>
+        <v>36850900</v>
       </c>
       <c r="I66" s="3">
-        <v>33977900</v>
+        <v>35521400</v>
       </c>
       <c r="J66" s="3">
+        <v>35405500</v>
+      </c>
+      <c r="K66" s="3">
         <v>29881700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30153100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26678700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28981500</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1639000</v>
+        <v>2234000</v>
       </c>
       <c r="E72" s="3">
-        <v>1412100</v>
+        <v>1707900</v>
       </c>
       <c r="F72" s="3">
-        <v>1117100</v>
+        <v>1471400</v>
       </c>
       <c r="G72" s="3">
-        <v>1005600</v>
+        <v>1164000</v>
       </c>
       <c r="H72" s="3">
-        <v>923500</v>
+        <v>1047800</v>
       </c>
       <c r="I72" s="3">
-        <v>763000</v>
+        <v>962300</v>
       </c>
       <c r="J72" s="3">
+        <v>795100</v>
+      </c>
+      <c r="K72" s="3">
         <v>649900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1048700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1075700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1077500</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4434300</v>
+        <v>5236500</v>
       </c>
       <c r="E76" s="3">
-        <v>4198600</v>
+        <v>4620600</v>
       </c>
       <c r="F76" s="3">
-        <v>3931900</v>
+        <v>4375000</v>
       </c>
       <c r="G76" s="3">
-        <v>3695800</v>
+        <v>4097100</v>
       </c>
       <c r="H76" s="3">
-        <v>3436000</v>
+        <v>3851100</v>
       </c>
       <c r="I76" s="3">
-        <v>3260700</v>
+        <v>3580400</v>
       </c>
       <c r="J76" s="3">
+        <v>3397700</v>
+      </c>
+      <c r="K76" s="3">
         <v>3016800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3482700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3015000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2999800</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>551100</v>
+        <v>983200</v>
       </c>
       <c r="E81" s="3">
-        <v>705700</v>
+        <v>574300</v>
       </c>
       <c r="F81" s="3">
-        <v>707900</v>
+        <v>735300</v>
       </c>
       <c r="G81" s="3">
-        <v>685500</v>
+        <v>737600</v>
       </c>
       <c r="H81" s="3">
-        <v>657200</v>
+        <v>714300</v>
       </c>
       <c r="I81" s="3">
-        <v>665200</v>
+        <v>684800</v>
       </c>
       <c r="J81" s="3">
+        <v>693200</v>
+      </c>
+      <c r="K81" s="3">
         <v>708700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>715200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>614200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>644100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>87300</v>
+        <v>95200</v>
       </c>
       <c r="E83" s="3">
-        <v>83900</v>
+        <v>91000</v>
       </c>
       <c r="F83" s="3">
-        <v>44800</v>
+        <v>87500</v>
       </c>
       <c r="G83" s="3">
-        <v>41900</v>
+        <v>46700</v>
       </c>
       <c r="H83" s="3">
-        <v>39600</v>
+        <v>43700</v>
       </c>
       <c r="I83" s="3">
-        <v>35100</v>
+        <v>41300</v>
       </c>
       <c r="J83" s="3">
+        <v>36600</v>
+      </c>
+      <c r="K83" s="3">
         <v>39000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>36000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>45000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>618400</v>
+        <v>3012600</v>
       </c>
       <c r="E89" s="3">
-        <v>1470600</v>
+        <v>644400</v>
       </c>
       <c r="F89" s="3">
-        <v>-1190700</v>
+        <v>1532400</v>
       </c>
       <c r="G89" s="3">
-        <v>1270300</v>
+        <v>-1240700</v>
       </c>
       <c r="H89" s="3">
-        <v>405100</v>
+        <v>1323700</v>
       </c>
       <c r="I89" s="3">
-        <v>-1694200</v>
+        <v>422100</v>
       </c>
       <c r="J89" s="3">
+        <v>-1765400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-273200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-181800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-532500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-668700</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-34900</v>
+        <v>-44100</v>
       </c>
       <c r="E91" s="3">
-        <v>-51800</v>
+        <v>-36400</v>
       </c>
       <c r="F91" s="3">
-        <v>-33400</v>
+        <v>-54000</v>
       </c>
       <c r="G91" s="3">
-        <v>-27600</v>
+        <v>-34800</v>
       </c>
       <c r="H91" s="3">
-        <v>-33100</v>
+        <v>-28800</v>
       </c>
       <c r="I91" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-37500</v>
       </c>
-      <c r="J91" s="3">
-        <v>-37500</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-32400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>249800</v>
+        <v>-3596400</v>
       </c>
       <c r="E94" s="3">
-        <v>-473100</v>
+        <v>260200</v>
       </c>
       <c r="F94" s="3">
-        <v>495600</v>
+        <v>-493000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1403400</v>
+        <v>516400</v>
       </c>
       <c r="H94" s="3">
-        <v>479800</v>
+        <v>-1462400</v>
       </c>
       <c r="I94" s="3">
-        <v>476100</v>
+        <v>499900</v>
       </c>
       <c r="J94" s="3">
+        <v>496100</v>
+      </c>
+      <c r="K94" s="3">
         <v>58600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-532000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>246200</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-417100</v>
+        <v>-273100</v>
       </c>
       <c r="E96" s="3">
-        <v>-424000</v>
+        <v>-434700</v>
       </c>
       <c r="F96" s="3">
-        <v>-445200</v>
+        <v>-441800</v>
       </c>
       <c r="G96" s="3">
-        <v>-407000</v>
+        <v>-463900</v>
       </c>
       <c r="H96" s="3">
-        <v>-436300</v>
+        <v>-424100</v>
       </c>
       <c r="I96" s="3">
-        <v>-437300</v>
+        <v>-454700</v>
       </c>
       <c r="J96" s="3">
+        <v>-455600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-438100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-446500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-379900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-410400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1739300</v>
+        <v>1668800</v>
       </c>
       <c r="E100" s="3">
-        <v>954900</v>
+        <v>1812400</v>
       </c>
       <c r="F100" s="3">
-        <v>767500</v>
+        <v>995000</v>
       </c>
       <c r="G100" s="3">
-        <v>157900</v>
+        <v>799800</v>
       </c>
       <c r="H100" s="3">
-        <v>-846800</v>
+        <v>164500</v>
       </c>
       <c r="I100" s="3">
-        <v>1444400</v>
+        <v>-882400</v>
       </c>
       <c r="J100" s="3">
+        <v>1505100</v>
+      </c>
+      <c r="K100" s="3">
         <v>449300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1002100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>61600</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-40900</v>
+        <v>403000</v>
       </c>
       <c r="E101" s="3">
-        <v>40800</v>
+        <v>-42600</v>
       </c>
       <c r="F101" s="3">
-        <v>138200</v>
+        <v>42500</v>
       </c>
       <c r="G101" s="3">
-        <v>-45700</v>
+        <v>144000</v>
       </c>
       <c r="H101" s="3">
-        <v>-34400</v>
+        <v>-47600</v>
       </c>
       <c r="I101" s="3">
-        <v>93000</v>
+        <v>-35800</v>
       </c>
       <c r="J101" s="3">
+        <v>96900</v>
+      </c>
+      <c r="K101" s="3">
         <v>55000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>78600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-40600</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2566500</v>
+        <v>1488000</v>
       </c>
       <c r="E102" s="3">
-        <v>1993200</v>
+        <v>2674400</v>
       </c>
       <c r="F102" s="3">
-        <v>210600</v>
+        <v>2077000</v>
       </c>
       <c r="G102" s="3">
-        <v>-20900</v>
+        <v>219500</v>
       </c>
       <c r="H102" s="3">
-        <v>3700</v>
+        <v>-21800</v>
       </c>
       <c r="I102" s="3">
-        <v>319300</v>
+        <v>3800</v>
       </c>
       <c r="J102" s="3">
+        <v>332700</v>
+      </c>
+      <c r="K102" s="3">
         <v>289700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>366900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-265300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>190700</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2954900</v>
+        <v>2764300</v>
       </c>
       <c r="E8" s="3">
-        <v>2322500</v>
+        <v>2172700</v>
       </c>
       <c r="F8" s="3">
-        <v>2618400</v>
+        <v>2449500</v>
       </c>
       <c r="G8" s="3">
-        <v>2479400</v>
+        <v>2319500</v>
       </c>
       <c r="H8" s="3">
-        <v>2333000</v>
+        <v>2182500</v>
       </c>
       <c r="I8" s="3">
-        <v>2370400</v>
+        <v>2217500</v>
       </c>
       <c r="J8" s="3">
-        <v>2355100</v>
+        <v>2203200</v>
       </c>
       <c r="K8" s="3">
         <v>2434300</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-95200</v>
+        <v>-89100</v>
       </c>
       <c r="E15" s="3">
-        <v>-91000</v>
+        <v>-85100</v>
       </c>
       <c r="F15" s="3">
-        <v>-87500</v>
+        <v>-81800</v>
       </c>
       <c r="G15" s="3">
-        <v>-46700</v>
+        <v>-43700</v>
       </c>
       <c r="H15" s="3">
-        <v>-43700</v>
+        <v>-40900</v>
       </c>
       <c r="I15" s="3">
-        <v>-41300</v>
+        <v>-38600</v>
       </c>
       <c r="J15" s="3">
-        <v>-36600</v>
+        <v>-34300</v>
       </c>
       <c r="K15" s="3">
         <v>-39000</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1472800</v>
+        <v>1377700</v>
       </c>
       <c r="E17" s="3">
-        <v>1233800</v>
+        <v>1154200</v>
       </c>
       <c r="F17" s="3">
-        <v>1351000</v>
+        <v>1263900</v>
       </c>
       <c r="G17" s="3">
-        <v>1191700</v>
+        <v>1114800</v>
       </c>
       <c r="H17" s="3">
-        <v>1099900</v>
+        <v>1028900</v>
       </c>
       <c r="I17" s="3">
-        <v>1240000</v>
+        <v>1160000</v>
       </c>
       <c r="J17" s="3">
-        <v>1219200</v>
+        <v>1140500</v>
       </c>
       <c r="K17" s="3">
         <v>1249900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1482200</v>
+        <v>1386500</v>
       </c>
       <c r="E18" s="3">
-        <v>1088800</v>
+        <v>1018500</v>
       </c>
       <c r="F18" s="3">
-        <v>1267400</v>
+        <v>1185600</v>
       </c>
       <c r="G18" s="3">
-        <v>1287700</v>
+        <v>1204700</v>
       </c>
       <c r="H18" s="3">
-        <v>1233100</v>
+        <v>1153600</v>
       </c>
       <c r="I18" s="3">
-        <v>1130400</v>
+        <v>1057500</v>
       </c>
       <c r="J18" s="3">
-        <v>1135900</v>
+        <v>1062600</v>
       </c>
       <c r="K18" s="3">
         <v>1184300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-277500</v>
+        <v>-259600</v>
       </c>
       <c r="E20" s="3">
-        <v>-358300</v>
+        <v>-335200</v>
       </c>
       <c r="F20" s="3">
-        <v>-321700</v>
+        <v>-300900</v>
       </c>
       <c r="G20" s="3">
-        <v>-356000</v>
+        <v>-333000</v>
       </c>
       <c r="H20" s="3">
-        <v>-376200</v>
+        <v>-352000</v>
       </c>
       <c r="I20" s="3">
-        <v>-335200</v>
+        <v>-313600</v>
       </c>
       <c r="J20" s="3">
-        <v>-366200</v>
+        <v>-342600</v>
       </c>
       <c r="K20" s="3">
         <v>-380900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1299900</v>
+        <v>1216000</v>
       </c>
       <c r="E21" s="3">
-        <v>821400</v>
+        <v>768400</v>
       </c>
       <c r="F21" s="3">
-        <v>1033200</v>
+        <v>966600</v>
       </c>
       <c r="G21" s="3">
-        <v>978500</v>
+        <v>915300</v>
       </c>
       <c r="H21" s="3">
-        <v>900600</v>
+        <v>842500</v>
       </c>
       <c r="I21" s="3">
-        <v>836500</v>
+        <v>782500</v>
       </c>
       <c r="J21" s="3">
-        <v>806300</v>
+        <v>754300</v>
       </c>
       <c r="K21" s="3">
         <v>842800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1204600</v>
+        <v>1126900</v>
       </c>
       <c r="E23" s="3">
-        <v>730400</v>
+        <v>683300</v>
       </c>
       <c r="F23" s="3">
-        <v>945700</v>
+        <v>884700</v>
       </c>
       <c r="G23" s="3">
-        <v>931700</v>
+        <v>871600</v>
       </c>
       <c r="H23" s="3">
-        <v>856900</v>
+        <v>801600</v>
       </c>
       <c r="I23" s="3">
-        <v>795200</v>
+        <v>743900</v>
       </c>
       <c r="J23" s="3">
-        <v>769700</v>
+        <v>720000</v>
       </c>
       <c r="K23" s="3">
         <v>803500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>221400</v>
+        <v>207100</v>
       </c>
       <c r="E24" s="3">
-        <v>156200</v>
+        <v>146100</v>
       </c>
       <c r="F24" s="3">
-        <v>210400</v>
+        <v>196800</v>
       </c>
       <c r="G24" s="3">
-        <v>194100</v>
+        <v>181600</v>
       </c>
       <c r="H24" s="3">
-        <v>142600</v>
+        <v>133400</v>
       </c>
       <c r="I24" s="3">
-        <v>110400</v>
+        <v>103300</v>
       </c>
       <c r="J24" s="3">
-        <v>76500</v>
+        <v>71600</v>
       </c>
       <c r="K24" s="3">
         <v>94800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>983200</v>
+        <v>919800</v>
       </c>
       <c r="E26" s="3">
-        <v>574300</v>
+        <v>537200</v>
       </c>
       <c r="F26" s="3">
-        <v>735300</v>
+        <v>687900</v>
       </c>
       <c r="G26" s="3">
-        <v>737600</v>
+        <v>690100</v>
       </c>
       <c r="H26" s="3">
-        <v>714300</v>
+        <v>668200</v>
       </c>
       <c r="I26" s="3">
-        <v>684800</v>
+        <v>640600</v>
       </c>
       <c r="J26" s="3">
-        <v>693200</v>
+        <v>648400</v>
       </c>
       <c r="K26" s="3">
         <v>708700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>983200</v>
+        <v>919800</v>
       </c>
       <c r="E27" s="3">
-        <v>574300</v>
+        <v>537200</v>
       </c>
       <c r="F27" s="3">
-        <v>735300</v>
+        <v>687900</v>
       </c>
       <c r="G27" s="3">
-        <v>737600</v>
+        <v>690100</v>
       </c>
       <c r="H27" s="3">
-        <v>714300</v>
+        <v>668200</v>
       </c>
       <c r="I27" s="3">
-        <v>684800</v>
+        <v>640600</v>
       </c>
       <c r="J27" s="3">
-        <v>693200</v>
+        <v>648400</v>
       </c>
       <c r="K27" s="3">
         <v>708700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>277500</v>
+        <v>259600</v>
       </c>
       <c r="E32" s="3">
-        <v>358300</v>
+        <v>335200</v>
       </c>
       <c r="F32" s="3">
-        <v>321700</v>
+        <v>300900</v>
       </c>
       <c r="G32" s="3">
-        <v>356000</v>
+        <v>333000</v>
       </c>
       <c r="H32" s="3">
-        <v>376200</v>
+        <v>352000</v>
       </c>
       <c r="I32" s="3">
-        <v>335200</v>
+        <v>313600</v>
       </c>
       <c r="J32" s="3">
-        <v>366200</v>
+        <v>342600</v>
       </c>
       <c r="K32" s="3">
         <v>380900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>983200</v>
+        <v>919800</v>
       </c>
       <c r="E33" s="3">
-        <v>574300</v>
+        <v>537200</v>
       </c>
       <c r="F33" s="3">
-        <v>735300</v>
+        <v>687900</v>
       </c>
       <c r="G33" s="3">
-        <v>737600</v>
+        <v>690100</v>
       </c>
       <c r="H33" s="3">
-        <v>714300</v>
+        <v>668200</v>
       </c>
       <c r="I33" s="3">
-        <v>684800</v>
+        <v>640600</v>
       </c>
       <c r="J33" s="3">
-        <v>693200</v>
+        <v>648400</v>
       </c>
       <c r="K33" s="3">
         <v>708700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>983200</v>
+        <v>919800</v>
       </c>
       <c r="E35" s="3">
-        <v>574300</v>
+        <v>537200</v>
       </c>
       <c r="F35" s="3">
-        <v>735300</v>
+        <v>687900</v>
       </c>
       <c r="G35" s="3">
-        <v>737600</v>
+        <v>690100</v>
       </c>
       <c r="H35" s="3">
-        <v>714300</v>
+        <v>668200</v>
       </c>
       <c r="I35" s="3">
-        <v>684800</v>
+        <v>640600</v>
       </c>
       <c r="J35" s="3">
-        <v>693200</v>
+        <v>648400</v>
       </c>
       <c r="K35" s="3">
         <v>708700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5858800</v>
+        <v>5480800</v>
       </c>
       <c r="E41" s="3">
-        <v>5926000</v>
+        <v>5543700</v>
       </c>
       <c r="F41" s="3">
-        <v>3462600</v>
+        <v>3239200</v>
       </c>
       <c r="G41" s="3">
-        <v>3498400</v>
+        <v>3272700</v>
       </c>
       <c r="H41" s="3">
-        <v>2438800</v>
+        <v>2281500</v>
       </c>
       <c r="I41" s="3">
-        <v>2893100</v>
+        <v>2706400</v>
       </c>
       <c r="J41" s="3">
-        <v>4070300</v>
+        <v>3807700</v>
       </c>
       <c r="K41" s="3">
         <v>2940000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9943600</v>
+        <v>9302100</v>
       </c>
       <c r="E42" s="3">
-        <v>10742200</v>
+        <v>10049100</v>
       </c>
       <c r="F42" s="3">
-        <v>7594700</v>
+        <v>7104700</v>
       </c>
       <c r="G42" s="3">
-        <v>4327600</v>
+        <v>4048400</v>
       </c>
       <c r="H42" s="3">
-        <v>4127000</v>
+        <v>3860700</v>
       </c>
       <c r="I42" s="3">
-        <v>2586300</v>
+        <v>2419400</v>
       </c>
       <c r="J42" s="3">
-        <v>1131900</v>
+        <v>1058900</v>
       </c>
       <c r="K42" s="3">
         <v>1676000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>61000</v>
+        <v>57000</v>
       </c>
       <c r="E47" s="3">
-        <v>55400</v>
+        <v>51800</v>
       </c>
       <c r="F47" s="3">
-        <v>62900</v>
+        <v>58900</v>
       </c>
       <c r="G47" s="3">
-        <v>55300</v>
+        <v>51700</v>
       </c>
       <c r="H47" s="3">
-        <v>47200</v>
+        <v>44100</v>
       </c>
       <c r="I47" s="3">
-        <v>40400</v>
+        <v>37800</v>
       </c>
       <c r="J47" s="3">
-        <v>34900</v>
+        <v>32600</v>
       </c>
       <c r="K47" s="3">
         <v>30100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>415400</v>
+        <v>388600</v>
       </c>
       <c r="E48" s="3">
-        <v>433500</v>
+        <v>405500</v>
       </c>
       <c r="F48" s="3">
-        <v>476300</v>
+        <v>445600</v>
       </c>
       <c r="G48" s="3">
-        <v>285000</v>
+        <v>266600</v>
       </c>
       <c r="H48" s="3">
-        <v>285900</v>
+        <v>267500</v>
       </c>
       <c r="I48" s="3">
-        <v>289900</v>
+        <v>271200</v>
       </c>
       <c r="J48" s="3">
-        <v>286100</v>
+        <v>267600</v>
       </c>
       <c r="K48" s="3">
         <v>836300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>89900</v>
+        <v>84100</v>
       </c>
       <c r="E49" s="3">
-        <v>75300</v>
+        <v>70400</v>
       </c>
       <c r="F49" s="3">
-        <v>72300</v>
+        <v>67600</v>
       </c>
       <c r="G49" s="3">
-        <v>64600</v>
+        <v>60400</v>
       </c>
       <c r="H49" s="3">
-        <v>48400</v>
+        <v>45300</v>
       </c>
       <c r="I49" s="3">
-        <v>36400</v>
+        <v>34000</v>
       </c>
       <c r="J49" s="3">
-        <v>33100</v>
+        <v>31000</v>
       </c>
       <c r="K49" s="3">
         <v>59700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>544600</v>
+        <v>509500</v>
       </c>
       <c r="E52" s="3">
-        <v>443900</v>
+        <v>415200</v>
       </c>
       <c r="F52" s="3">
-        <v>398000</v>
+        <v>372300</v>
       </c>
       <c r="G52" s="3">
-        <v>344600</v>
+        <v>322400</v>
       </c>
       <c r="H52" s="3">
-        <v>331600</v>
+        <v>310200</v>
       </c>
       <c r="I52" s="3">
-        <v>349300</v>
+        <v>326800</v>
       </c>
       <c r="J52" s="3">
-        <v>317400</v>
+        <v>296900</v>
       </c>
       <c r="K52" s="3">
         <v>241400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64111000</v>
+        <v>59974800</v>
       </c>
       <c r="E54" s="3">
-        <v>57158000</v>
+        <v>53470400</v>
       </c>
       <c r="F54" s="3">
-        <v>51178900</v>
+        <v>47877100</v>
       </c>
       <c r="G54" s="3">
-        <v>44548800</v>
+        <v>41674700</v>
       </c>
       <c r="H54" s="3">
-        <v>40702000</v>
+        <v>38076100</v>
       </c>
       <c r="I54" s="3">
-        <v>39101800</v>
+        <v>36579100</v>
       </c>
       <c r="J54" s="3">
-        <v>38803300</v>
+        <v>36299800</v>
       </c>
       <c r="K54" s="3">
         <v>32898500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>844300</v>
+        <v>789900</v>
       </c>
       <c r="E57" s="3">
-        <v>1953200</v>
+        <v>1827200</v>
       </c>
       <c r="F57" s="3">
-        <v>723600</v>
+        <v>677000</v>
       </c>
       <c r="G57" s="3">
-        <v>635400</v>
+        <v>594400</v>
       </c>
       <c r="H57" s="3">
-        <v>602500</v>
+        <v>563600</v>
       </c>
       <c r="I57" s="3">
-        <v>423400</v>
+        <v>396000</v>
       </c>
       <c r="J57" s="3">
-        <v>450400</v>
+        <v>421400</v>
       </c>
       <c r="K57" s="3">
         <v>259800</v>
@@ -2443,19 +2443,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4158500</v>
+        <v>3890200</v>
       </c>
       <c r="E58" s="3">
-        <v>2993000</v>
+        <v>2799900</v>
       </c>
       <c r="F58" s="3">
-        <v>3880600</v>
+        <v>3630200</v>
       </c>
       <c r="G58" s="3">
-        <v>3838600</v>
+        <v>3591000</v>
       </c>
       <c r="H58" s="3">
-        <v>3115600</v>
+        <v>2914600</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>548300</v>
+        <v>512900</v>
       </c>
       <c r="E59" s="3">
-        <v>278900</v>
+        <v>260900</v>
       </c>
       <c r="F59" s="3">
-        <v>469000</v>
+        <v>438700</v>
       </c>
       <c r="G59" s="3">
-        <v>406000</v>
+        <v>379800</v>
       </c>
       <c r="H59" s="3">
-        <v>393800</v>
+        <v>368400</v>
       </c>
       <c r="I59" s="3">
-        <v>355500</v>
+        <v>332500</v>
       </c>
       <c r="J59" s="3">
-        <v>36300</v>
+        <v>33900</v>
       </c>
       <c r="K59" s="3">
         <v>125000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14201100</v>
+        <v>13284900</v>
       </c>
       <c r="E61" s="3">
-        <v>12952200</v>
+        <v>12116500</v>
       </c>
       <c r="F61" s="3">
-        <v>9744100</v>
+        <v>9115500</v>
       </c>
       <c r="G61" s="3">
-        <v>7834900</v>
+        <v>7329400</v>
       </c>
       <c r="H61" s="3">
-        <v>6824900</v>
+        <v>6384600</v>
       </c>
       <c r="I61" s="3">
-        <v>9181100</v>
+        <v>8588800</v>
       </c>
       <c r="J61" s="3">
-        <v>9678100</v>
+        <v>9053700</v>
       </c>
       <c r="K61" s="3">
         <v>7548500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>897900</v>
+        <v>840000</v>
       </c>
       <c r="E62" s="3">
-        <v>636900</v>
+        <v>595800</v>
       </c>
       <c r="F62" s="3">
-        <v>476400</v>
+        <v>445700</v>
       </c>
       <c r="G62" s="3">
-        <v>452200</v>
+        <v>423100</v>
       </c>
       <c r="H62" s="3">
-        <v>474900</v>
+        <v>444200</v>
       </c>
       <c r="I62" s="3">
-        <v>467200</v>
+        <v>437100</v>
       </c>
       <c r="J62" s="3">
-        <v>833300</v>
+        <v>779500</v>
       </c>
       <c r="K62" s="3">
         <v>757700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58874500</v>
+        <v>55076100</v>
       </c>
       <c r="E66" s="3">
-        <v>52537400</v>
+        <v>49147900</v>
       </c>
       <c r="F66" s="3">
-        <v>46803900</v>
+        <v>43784300</v>
       </c>
       <c r="G66" s="3">
-        <v>40451700</v>
+        <v>37841900</v>
       </c>
       <c r="H66" s="3">
-        <v>36850900</v>
+        <v>34473400</v>
       </c>
       <c r="I66" s="3">
-        <v>35521400</v>
+        <v>33229700</v>
       </c>
       <c r="J66" s="3">
-        <v>35405500</v>
+        <v>33121300</v>
       </c>
       <c r="K66" s="3">
         <v>29881700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2234000</v>
+        <v>2089900</v>
       </c>
       <c r="E72" s="3">
-        <v>1707900</v>
+        <v>1597700</v>
       </c>
       <c r="F72" s="3">
-        <v>1471400</v>
+        <v>1376500</v>
       </c>
       <c r="G72" s="3">
-        <v>1164000</v>
+        <v>1088900</v>
       </c>
       <c r="H72" s="3">
-        <v>1047800</v>
+        <v>980200</v>
       </c>
       <c r="I72" s="3">
-        <v>962300</v>
+        <v>900200</v>
       </c>
       <c r="J72" s="3">
-        <v>795100</v>
+        <v>743800</v>
       </c>
       <c r="K72" s="3">
         <v>649900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5236500</v>
+        <v>4898700</v>
       </c>
       <c r="E76" s="3">
-        <v>4620600</v>
+        <v>4322500</v>
       </c>
       <c r="F76" s="3">
-        <v>4375000</v>
+        <v>4092700</v>
       </c>
       <c r="G76" s="3">
-        <v>4097100</v>
+        <v>3832800</v>
       </c>
       <c r="H76" s="3">
-        <v>3851100</v>
+        <v>3602600</v>
       </c>
       <c r="I76" s="3">
-        <v>3580400</v>
+        <v>3349400</v>
       </c>
       <c r="J76" s="3">
-        <v>3397700</v>
+        <v>3178500</v>
       </c>
       <c r="K76" s="3">
         <v>3016800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>983200</v>
+        <v>919800</v>
       </c>
       <c r="E81" s="3">
-        <v>574300</v>
+        <v>537200</v>
       </c>
       <c r="F81" s="3">
-        <v>735300</v>
+        <v>687900</v>
       </c>
       <c r="G81" s="3">
-        <v>737600</v>
+        <v>690100</v>
       </c>
       <c r="H81" s="3">
-        <v>714300</v>
+        <v>668200</v>
       </c>
       <c r="I81" s="3">
-        <v>684800</v>
+        <v>640600</v>
       </c>
       <c r="J81" s="3">
-        <v>693200</v>
+        <v>648400</v>
       </c>
       <c r="K81" s="3">
         <v>708700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>95200</v>
+        <v>89100</v>
       </c>
       <c r="E83" s="3">
-        <v>91000</v>
+        <v>85100</v>
       </c>
       <c r="F83" s="3">
-        <v>87500</v>
+        <v>81800</v>
       </c>
       <c r="G83" s="3">
-        <v>46700</v>
+        <v>43700</v>
       </c>
       <c r="H83" s="3">
-        <v>43700</v>
+        <v>40900</v>
       </c>
       <c r="I83" s="3">
-        <v>41300</v>
+        <v>38600</v>
       </c>
       <c r="J83" s="3">
-        <v>36600</v>
+        <v>34300</v>
       </c>
       <c r="K83" s="3">
         <v>39000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3012600</v>
+        <v>2818200</v>
       </c>
       <c r="E89" s="3">
-        <v>644400</v>
+        <v>602800</v>
       </c>
       <c r="F89" s="3">
-        <v>1532400</v>
+        <v>1433600</v>
       </c>
       <c r="G89" s="3">
-        <v>-1240700</v>
+        <v>-1160600</v>
       </c>
       <c r="H89" s="3">
-        <v>1323700</v>
+        <v>1238300</v>
       </c>
       <c r="I89" s="3">
-        <v>422100</v>
+        <v>394800</v>
       </c>
       <c r="J89" s="3">
-        <v>-1765400</v>
+        <v>-1651500</v>
       </c>
       <c r="K89" s="3">
         <v>-273200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-44100</v>
+        <v>-41300</v>
       </c>
       <c r="E91" s="3">
-        <v>-36400</v>
+        <v>-34000</v>
       </c>
       <c r="F91" s="3">
-        <v>-54000</v>
+        <v>-50500</v>
       </c>
       <c r="G91" s="3">
-        <v>-34800</v>
+        <v>-32600</v>
       </c>
       <c r="H91" s="3">
-        <v>-28800</v>
+        <v>-26900</v>
       </c>
       <c r="I91" s="3">
-        <v>-34500</v>
+        <v>-32300</v>
       </c>
       <c r="J91" s="3">
-        <v>-39000</v>
+        <v>-36500</v>
       </c>
       <c r="K91" s="3">
         <v>-37500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3596400</v>
+        <v>-3364400</v>
       </c>
       <c r="E94" s="3">
-        <v>260200</v>
+        <v>243500</v>
       </c>
       <c r="F94" s="3">
-        <v>-493000</v>
+        <v>-461200</v>
       </c>
       <c r="G94" s="3">
-        <v>516400</v>
+        <v>483100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1462400</v>
+        <v>-1368000</v>
       </c>
       <c r="I94" s="3">
-        <v>499900</v>
+        <v>467700</v>
       </c>
       <c r="J94" s="3">
-        <v>496100</v>
+        <v>464100</v>
       </c>
       <c r="K94" s="3">
         <v>58600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-273100</v>
+        <v>-255500</v>
       </c>
       <c r="E96" s="3">
-        <v>-434700</v>
+        <v>-406600</v>
       </c>
       <c r="F96" s="3">
-        <v>-441800</v>
+        <v>-413300</v>
       </c>
       <c r="G96" s="3">
-        <v>-463900</v>
+        <v>-433900</v>
       </c>
       <c r="H96" s="3">
-        <v>-424100</v>
+        <v>-396800</v>
       </c>
       <c r="I96" s="3">
-        <v>-454700</v>
+        <v>-425300</v>
       </c>
       <c r="J96" s="3">
-        <v>-455600</v>
+        <v>-426200</v>
       </c>
       <c r="K96" s="3">
         <v>-438100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1668800</v>
+        <v>1561200</v>
       </c>
       <c r="E100" s="3">
-        <v>1812400</v>
+        <v>1695400</v>
       </c>
       <c r="F100" s="3">
-        <v>995000</v>
+        <v>930800</v>
       </c>
       <c r="G100" s="3">
-        <v>799800</v>
+        <v>748200</v>
       </c>
       <c r="H100" s="3">
-        <v>164500</v>
+        <v>153900</v>
       </c>
       <c r="I100" s="3">
-        <v>-882400</v>
+        <v>-825500</v>
       </c>
       <c r="J100" s="3">
-        <v>1505100</v>
+        <v>1408000</v>
       </c>
       <c r="K100" s="3">
         <v>449300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>403000</v>
+        <v>377000</v>
       </c>
       <c r="E101" s="3">
-        <v>-42600</v>
+        <v>-39900</v>
       </c>
       <c r="F101" s="3">
-        <v>42500</v>
+        <v>39800</v>
       </c>
       <c r="G101" s="3">
-        <v>144000</v>
+        <v>134700</v>
       </c>
       <c r="H101" s="3">
-        <v>-47600</v>
+        <v>-44500</v>
       </c>
       <c r="I101" s="3">
-        <v>-35800</v>
+        <v>-33500</v>
       </c>
       <c r="J101" s="3">
-        <v>96900</v>
+        <v>90700</v>
       </c>
       <c r="K101" s="3">
         <v>55000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1488000</v>
+        <v>1392000</v>
       </c>
       <c r="E102" s="3">
-        <v>2674400</v>
+        <v>2501800</v>
       </c>
       <c r="F102" s="3">
-        <v>2077000</v>
+        <v>1943000</v>
       </c>
       <c r="G102" s="3">
-        <v>219500</v>
+        <v>205300</v>
       </c>
       <c r="H102" s="3">
-        <v>-21800</v>
+        <v>-20400</v>
       </c>
       <c r="I102" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="J102" s="3">
-        <v>332700</v>
+        <v>311300</v>
       </c>
       <c r="K102" s="3">
         <v>289700</v>

--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2764300</v>
+        <v>2645100</v>
       </c>
       <c r="E8" s="3">
-        <v>2172700</v>
+        <v>2079100</v>
       </c>
       <c r="F8" s="3">
-        <v>2449500</v>
+        <v>2343900</v>
       </c>
       <c r="G8" s="3">
-        <v>2319500</v>
+        <v>2219500</v>
       </c>
       <c r="H8" s="3">
-        <v>2182500</v>
+        <v>2088400</v>
       </c>
       <c r="I8" s="3">
-        <v>2217500</v>
+        <v>2121900</v>
       </c>
       <c r="J8" s="3">
-        <v>2203200</v>
+        <v>2108200</v>
       </c>
       <c r="K8" s="3">
         <v>2434300</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-89100</v>
+        <v>-85200</v>
       </c>
       <c r="E15" s="3">
-        <v>-85100</v>
+        <v>-81400</v>
       </c>
       <c r="F15" s="3">
-        <v>-81800</v>
+        <v>-78300</v>
       </c>
       <c r="G15" s="3">
-        <v>-43700</v>
+        <v>-41800</v>
       </c>
       <c r="H15" s="3">
-        <v>-40900</v>
+        <v>-39100</v>
       </c>
       <c r="I15" s="3">
-        <v>-38600</v>
+        <v>-37000</v>
       </c>
       <c r="J15" s="3">
-        <v>-34300</v>
+        <v>-32800</v>
       </c>
       <c r="K15" s="3">
         <v>-39000</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1377700</v>
+        <v>1318400</v>
       </c>
       <c r="E17" s="3">
-        <v>1154200</v>
+        <v>1104400</v>
       </c>
       <c r="F17" s="3">
-        <v>1263900</v>
+        <v>1209400</v>
       </c>
       <c r="G17" s="3">
-        <v>1114800</v>
+        <v>1066800</v>
       </c>
       <c r="H17" s="3">
-        <v>1028900</v>
+        <v>984600</v>
       </c>
       <c r="I17" s="3">
-        <v>1160000</v>
+        <v>1110000</v>
       </c>
       <c r="J17" s="3">
-        <v>1140500</v>
+        <v>1091400</v>
       </c>
       <c r="K17" s="3">
         <v>1249900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1386500</v>
+        <v>1326800</v>
       </c>
       <c r="E18" s="3">
-        <v>1018500</v>
+        <v>974600</v>
       </c>
       <c r="F18" s="3">
-        <v>1185600</v>
+        <v>1134500</v>
       </c>
       <c r="G18" s="3">
-        <v>1204700</v>
+        <v>1152700</v>
       </c>
       <c r="H18" s="3">
-        <v>1153600</v>
+        <v>1103800</v>
       </c>
       <c r="I18" s="3">
-        <v>1057500</v>
+        <v>1011900</v>
       </c>
       <c r="J18" s="3">
-        <v>1062600</v>
+        <v>1016800</v>
       </c>
       <c r="K18" s="3">
         <v>1184300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-259600</v>
+        <v>-248400</v>
       </c>
       <c r="E20" s="3">
-        <v>-335200</v>
+        <v>-320700</v>
       </c>
       <c r="F20" s="3">
-        <v>-300900</v>
+        <v>-287900</v>
       </c>
       <c r="G20" s="3">
-        <v>-333000</v>
+        <v>-318700</v>
       </c>
       <c r="H20" s="3">
-        <v>-352000</v>
+        <v>-336800</v>
       </c>
       <c r="I20" s="3">
-        <v>-313600</v>
+        <v>-300100</v>
       </c>
       <c r="J20" s="3">
-        <v>-342600</v>
+        <v>-327800</v>
       </c>
       <c r="K20" s="3">
         <v>-380900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1216000</v>
+        <v>1162000</v>
       </c>
       <c r="E21" s="3">
-        <v>768400</v>
+        <v>733800</v>
       </c>
       <c r="F21" s="3">
-        <v>966600</v>
+        <v>923500</v>
       </c>
       <c r="G21" s="3">
-        <v>915300</v>
+        <v>875100</v>
       </c>
       <c r="H21" s="3">
-        <v>842500</v>
+        <v>805500</v>
       </c>
       <c r="I21" s="3">
-        <v>782500</v>
+        <v>748100</v>
       </c>
       <c r="J21" s="3">
-        <v>754300</v>
+        <v>721200</v>
       </c>
       <c r="K21" s="3">
         <v>842800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1126900</v>
+        <v>1078300</v>
       </c>
       <c r="E23" s="3">
-        <v>683300</v>
+        <v>653900</v>
       </c>
       <c r="F23" s="3">
-        <v>884700</v>
+        <v>846600</v>
       </c>
       <c r="G23" s="3">
-        <v>871600</v>
+        <v>834100</v>
       </c>
       <c r="H23" s="3">
-        <v>801600</v>
+        <v>767100</v>
       </c>
       <c r="I23" s="3">
-        <v>743900</v>
+        <v>711800</v>
       </c>
       <c r="J23" s="3">
-        <v>720000</v>
+        <v>689000</v>
       </c>
       <c r="K23" s="3">
         <v>803500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>207100</v>
+        <v>198200</v>
       </c>
       <c r="E24" s="3">
-        <v>146100</v>
+        <v>139800</v>
       </c>
       <c r="F24" s="3">
-        <v>196800</v>
+        <v>188300</v>
       </c>
       <c r="G24" s="3">
-        <v>181600</v>
+        <v>173700</v>
       </c>
       <c r="H24" s="3">
-        <v>133400</v>
+        <v>127700</v>
       </c>
       <c r="I24" s="3">
-        <v>103300</v>
+        <v>98800</v>
       </c>
       <c r="J24" s="3">
-        <v>71600</v>
+        <v>68500</v>
       </c>
       <c r="K24" s="3">
         <v>94800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>919800</v>
+        <v>880100</v>
       </c>
       <c r="E26" s="3">
-        <v>537200</v>
+        <v>514100</v>
       </c>
       <c r="F26" s="3">
-        <v>687900</v>
+        <v>658200</v>
       </c>
       <c r="G26" s="3">
-        <v>690100</v>
+        <v>660300</v>
       </c>
       <c r="H26" s="3">
-        <v>668200</v>
+        <v>639400</v>
       </c>
       <c r="I26" s="3">
-        <v>640600</v>
+        <v>613000</v>
       </c>
       <c r="J26" s="3">
-        <v>648400</v>
+        <v>620500</v>
       </c>
       <c r="K26" s="3">
         <v>708700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>919800</v>
+        <v>880100</v>
       </c>
       <c r="E27" s="3">
-        <v>537200</v>
+        <v>514000</v>
       </c>
       <c r="F27" s="3">
-        <v>687900</v>
+        <v>658200</v>
       </c>
       <c r="G27" s="3">
-        <v>690100</v>
+        <v>660300</v>
       </c>
       <c r="H27" s="3">
-        <v>668200</v>
+        <v>639400</v>
       </c>
       <c r="I27" s="3">
-        <v>640600</v>
+        <v>613000</v>
       </c>
       <c r="J27" s="3">
-        <v>648400</v>
+        <v>620500</v>
       </c>
       <c r="K27" s="3">
         <v>708700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>259600</v>
+        <v>248400</v>
       </c>
       <c r="E32" s="3">
-        <v>335200</v>
+        <v>320700</v>
       </c>
       <c r="F32" s="3">
-        <v>300900</v>
+        <v>287900</v>
       </c>
       <c r="G32" s="3">
-        <v>333000</v>
+        <v>318700</v>
       </c>
       <c r="H32" s="3">
-        <v>352000</v>
+        <v>336800</v>
       </c>
       <c r="I32" s="3">
-        <v>313600</v>
+        <v>300100</v>
       </c>
       <c r="J32" s="3">
-        <v>342600</v>
+        <v>327800</v>
       </c>
       <c r="K32" s="3">
         <v>380900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>919800</v>
+        <v>880100</v>
       </c>
       <c r="E33" s="3">
-        <v>537200</v>
+        <v>514000</v>
       </c>
       <c r="F33" s="3">
-        <v>687900</v>
+        <v>658200</v>
       </c>
       <c r="G33" s="3">
-        <v>690100</v>
+        <v>660300</v>
       </c>
       <c r="H33" s="3">
-        <v>668200</v>
+        <v>639400</v>
       </c>
       <c r="I33" s="3">
-        <v>640600</v>
+        <v>613000</v>
       </c>
       <c r="J33" s="3">
-        <v>648400</v>
+        <v>620500</v>
       </c>
       <c r="K33" s="3">
         <v>708700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>919800</v>
+        <v>880100</v>
       </c>
       <c r="E35" s="3">
-        <v>537200</v>
+        <v>514000</v>
       </c>
       <c r="F35" s="3">
-        <v>687900</v>
+        <v>658200</v>
       </c>
       <c r="G35" s="3">
-        <v>690100</v>
+        <v>660300</v>
       </c>
       <c r="H35" s="3">
-        <v>668200</v>
+        <v>639400</v>
       </c>
       <c r="I35" s="3">
-        <v>640600</v>
+        <v>613000</v>
       </c>
       <c r="J35" s="3">
-        <v>648400</v>
+        <v>620500</v>
       </c>
       <c r="K35" s="3">
         <v>708700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5480800</v>
+        <v>5244600</v>
       </c>
       <c r="E41" s="3">
-        <v>5543700</v>
+        <v>5304700</v>
       </c>
       <c r="F41" s="3">
-        <v>3239200</v>
+        <v>3099600</v>
       </c>
       <c r="G41" s="3">
-        <v>3272700</v>
+        <v>3131700</v>
       </c>
       <c r="H41" s="3">
-        <v>2281500</v>
+        <v>2183100</v>
       </c>
       <c r="I41" s="3">
-        <v>2706400</v>
+        <v>2589800</v>
       </c>
       <c r="J41" s="3">
-        <v>3807700</v>
+        <v>3643500</v>
       </c>
       <c r="K41" s="3">
         <v>2940000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9302100</v>
+        <v>8901100</v>
       </c>
       <c r="E42" s="3">
-        <v>10049100</v>
+        <v>9616000</v>
       </c>
       <c r="F42" s="3">
-        <v>7104700</v>
+        <v>6798400</v>
       </c>
       <c r="G42" s="3">
-        <v>4048400</v>
+        <v>3873900</v>
       </c>
       <c r="H42" s="3">
-        <v>3860700</v>
+        <v>3694300</v>
       </c>
       <c r="I42" s="3">
-        <v>2419400</v>
+        <v>2315100</v>
       </c>
       <c r="J42" s="3">
-        <v>1058900</v>
+        <v>1013200</v>
       </c>
       <c r="K42" s="3">
         <v>1676000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>57000</v>
+        <v>54600</v>
       </c>
       <c r="E47" s="3">
-        <v>51800</v>
+        <v>49600</v>
       </c>
       <c r="F47" s="3">
-        <v>58900</v>
+        <v>56300</v>
       </c>
       <c r="G47" s="3">
-        <v>51700</v>
+        <v>49500</v>
       </c>
       <c r="H47" s="3">
-        <v>44100</v>
+        <v>42200</v>
       </c>
       <c r="I47" s="3">
-        <v>37800</v>
+        <v>36200</v>
       </c>
       <c r="J47" s="3">
-        <v>32600</v>
+        <v>31200</v>
       </c>
       <c r="K47" s="3">
         <v>30100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>388600</v>
+        <v>371800</v>
       </c>
       <c r="E48" s="3">
-        <v>405500</v>
+        <v>388000</v>
       </c>
       <c r="F48" s="3">
-        <v>445600</v>
+        <v>426400</v>
       </c>
       <c r="G48" s="3">
-        <v>266600</v>
+        <v>255100</v>
       </c>
       <c r="H48" s="3">
-        <v>267500</v>
+        <v>255900</v>
       </c>
       <c r="I48" s="3">
-        <v>271200</v>
+        <v>259500</v>
       </c>
       <c r="J48" s="3">
-        <v>267600</v>
+        <v>256100</v>
       </c>
       <c r="K48" s="3">
         <v>836300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>84100</v>
+        <v>80500</v>
       </c>
       <c r="E49" s="3">
-        <v>70400</v>
+        <v>67400</v>
       </c>
       <c r="F49" s="3">
-        <v>67600</v>
+        <v>64700</v>
       </c>
       <c r="G49" s="3">
-        <v>60400</v>
+        <v>57800</v>
       </c>
       <c r="H49" s="3">
-        <v>45300</v>
+        <v>43300</v>
       </c>
       <c r="I49" s="3">
-        <v>34000</v>
+        <v>32600</v>
       </c>
       <c r="J49" s="3">
-        <v>31000</v>
+        <v>29700</v>
       </c>
       <c r="K49" s="3">
         <v>59700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>509500</v>
+        <v>487500</v>
       </c>
       <c r="E52" s="3">
-        <v>415200</v>
+        <v>397300</v>
       </c>
       <c r="F52" s="3">
-        <v>372300</v>
+        <v>356300</v>
       </c>
       <c r="G52" s="3">
-        <v>322400</v>
+        <v>308500</v>
       </c>
       <c r="H52" s="3">
-        <v>310200</v>
+        <v>296800</v>
       </c>
       <c r="I52" s="3">
-        <v>326800</v>
+        <v>312700</v>
       </c>
       <c r="J52" s="3">
-        <v>296900</v>
+        <v>284100</v>
       </c>
       <c r="K52" s="3">
         <v>241400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59974800</v>
+        <v>57389700</v>
       </c>
       <c r="E54" s="3">
-        <v>53470400</v>
+        <v>51165600</v>
       </c>
       <c r="F54" s="3">
-        <v>47877100</v>
+        <v>45813400</v>
       </c>
       <c r="G54" s="3">
-        <v>41674700</v>
+        <v>39878400</v>
       </c>
       <c r="H54" s="3">
-        <v>38076100</v>
+        <v>36434800</v>
       </c>
       <c r="I54" s="3">
-        <v>36579100</v>
+        <v>35002400</v>
       </c>
       <c r="J54" s="3">
-        <v>36299800</v>
+        <v>34735200</v>
       </c>
       <c r="K54" s="3">
         <v>32898500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>789900</v>
+        <v>755800</v>
       </c>
       <c r="E57" s="3">
-        <v>1827200</v>
+        <v>1748400</v>
       </c>
       <c r="F57" s="3">
-        <v>677000</v>
+        <v>647800</v>
       </c>
       <c r="G57" s="3">
-        <v>594400</v>
+        <v>568800</v>
       </c>
       <c r="H57" s="3">
-        <v>563600</v>
+        <v>539300</v>
       </c>
       <c r="I57" s="3">
-        <v>396000</v>
+        <v>379000</v>
       </c>
       <c r="J57" s="3">
-        <v>421400</v>
+        <v>403200</v>
       </c>
       <c r="K57" s="3">
         <v>259800</v>
@@ -2443,19 +2443,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3890200</v>
+        <v>3722500</v>
       </c>
       <c r="E58" s="3">
-        <v>2799900</v>
+        <v>2679200</v>
       </c>
       <c r="F58" s="3">
-        <v>3630200</v>
+        <v>3473800</v>
       </c>
       <c r="G58" s="3">
-        <v>3591000</v>
+        <v>3436200</v>
       </c>
       <c r="H58" s="3">
-        <v>2914600</v>
+        <v>2789000</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>512900</v>
+        <v>490800</v>
       </c>
       <c r="E59" s="3">
-        <v>260900</v>
+        <v>249600</v>
       </c>
       <c r="F59" s="3">
-        <v>438700</v>
+        <v>419800</v>
       </c>
       <c r="G59" s="3">
-        <v>379800</v>
+        <v>363400</v>
       </c>
       <c r="H59" s="3">
-        <v>368400</v>
+        <v>352500</v>
       </c>
       <c r="I59" s="3">
-        <v>332500</v>
+        <v>318200</v>
       </c>
       <c r="J59" s="3">
-        <v>33900</v>
+        <v>32500</v>
       </c>
       <c r="K59" s="3">
         <v>125000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13284900</v>
+        <v>12712200</v>
       </c>
       <c r="E61" s="3">
-        <v>12116500</v>
+        <v>11594300</v>
       </c>
       <c r="F61" s="3">
-        <v>9115500</v>
+        <v>8722500</v>
       </c>
       <c r="G61" s="3">
-        <v>7329400</v>
+        <v>7013500</v>
       </c>
       <c r="H61" s="3">
-        <v>6384600</v>
+        <v>6109400</v>
       </c>
       <c r="I61" s="3">
-        <v>8588800</v>
+        <v>8218600</v>
       </c>
       <c r="J61" s="3">
-        <v>9053700</v>
+        <v>8663500</v>
       </c>
       <c r="K61" s="3">
         <v>7548500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>840000</v>
+        <v>803800</v>
       </c>
       <c r="E62" s="3">
-        <v>595800</v>
+        <v>570100</v>
       </c>
       <c r="F62" s="3">
-        <v>445700</v>
+        <v>426500</v>
       </c>
       <c r="G62" s="3">
-        <v>423100</v>
+        <v>404800</v>
       </c>
       <c r="H62" s="3">
-        <v>444200</v>
+        <v>425100</v>
       </c>
       <c r="I62" s="3">
-        <v>437100</v>
+        <v>418200</v>
       </c>
       <c r="J62" s="3">
-        <v>779500</v>
+        <v>745900</v>
       </c>
       <c r="K62" s="3">
         <v>757700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55076100</v>
+        <v>52702200</v>
       </c>
       <c r="E66" s="3">
-        <v>49147900</v>
+        <v>47029400</v>
       </c>
       <c r="F66" s="3">
-        <v>43784300</v>
+        <v>41897100</v>
       </c>
       <c r="G66" s="3">
-        <v>37841900</v>
+        <v>36210800</v>
       </c>
       <c r="H66" s="3">
-        <v>34473400</v>
+        <v>32987500</v>
       </c>
       <c r="I66" s="3">
-        <v>33229700</v>
+        <v>31797400</v>
       </c>
       <c r="J66" s="3">
-        <v>33121300</v>
+        <v>31693700</v>
       </c>
       <c r="K66" s="3">
         <v>29881700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2089900</v>
+        <v>1999800</v>
       </c>
       <c r="E72" s="3">
-        <v>1597700</v>
+        <v>1528800</v>
       </c>
       <c r="F72" s="3">
-        <v>1376500</v>
+        <v>1317100</v>
       </c>
       <c r="G72" s="3">
-        <v>1088900</v>
+        <v>1042000</v>
       </c>
       <c r="H72" s="3">
-        <v>980200</v>
+        <v>938000</v>
       </c>
       <c r="I72" s="3">
-        <v>900200</v>
+        <v>861400</v>
       </c>
       <c r="J72" s="3">
-        <v>743800</v>
+        <v>711700</v>
       </c>
       <c r="K72" s="3">
         <v>649900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4898700</v>
+        <v>4687500</v>
       </c>
       <c r="E76" s="3">
-        <v>4322500</v>
+        <v>4136200</v>
       </c>
       <c r="F76" s="3">
-        <v>4092700</v>
+        <v>3916300</v>
       </c>
       <c r="G76" s="3">
-        <v>3832800</v>
+        <v>3667600</v>
       </c>
       <c r="H76" s="3">
-        <v>3602600</v>
+        <v>3447300</v>
       </c>
       <c r="I76" s="3">
-        <v>3349400</v>
+        <v>3205000</v>
       </c>
       <c r="J76" s="3">
-        <v>3178500</v>
+        <v>3041500</v>
       </c>
       <c r="K76" s="3">
         <v>3016800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>919800</v>
+        <v>880100</v>
       </c>
       <c r="E81" s="3">
-        <v>537200</v>
+        <v>514000</v>
       </c>
       <c r="F81" s="3">
-        <v>687900</v>
+        <v>658200</v>
       </c>
       <c r="G81" s="3">
-        <v>690100</v>
+        <v>660300</v>
       </c>
       <c r="H81" s="3">
-        <v>668200</v>
+        <v>639400</v>
       </c>
       <c r="I81" s="3">
-        <v>640600</v>
+        <v>613000</v>
       </c>
       <c r="J81" s="3">
-        <v>648400</v>
+        <v>620500</v>
       </c>
       <c r="K81" s="3">
         <v>708700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>89100</v>
+        <v>85200</v>
       </c>
       <c r="E83" s="3">
-        <v>85100</v>
+        <v>81400</v>
       </c>
       <c r="F83" s="3">
-        <v>81800</v>
+        <v>78300</v>
       </c>
       <c r="G83" s="3">
-        <v>43700</v>
+        <v>41800</v>
       </c>
       <c r="H83" s="3">
-        <v>40900</v>
+        <v>39100</v>
       </c>
       <c r="I83" s="3">
-        <v>38600</v>
+        <v>37000</v>
       </c>
       <c r="J83" s="3">
-        <v>34300</v>
+        <v>32800</v>
       </c>
       <c r="K83" s="3">
         <v>39000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2818200</v>
+        <v>2696700</v>
       </c>
       <c r="E89" s="3">
-        <v>602800</v>
+        <v>576800</v>
       </c>
       <c r="F89" s="3">
-        <v>1433600</v>
+        <v>1371800</v>
       </c>
       <c r="G89" s="3">
-        <v>-1160600</v>
+        <v>-1110600</v>
       </c>
       <c r="H89" s="3">
-        <v>1238300</v>
+        <v>1184900</v>
       </c>
       <c r="I89" s="3">
-        <v>394800</v>
+        <v>377800</v>
       </c>
       <c r="J89" s="3">
-        <v>-1651500</v>
+        <v>-1580300</v>
       </c>
       <c r="K89" s="3">
         <v>-273200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41300</v>
+        <v>-39500</v>
       </c>
       <c r="E91" s="3">
-        <v>-34000</v>
+        <v>-32500</v>
       </c>
       <c r="F91" s="3">
-        <v>-50500</v>
+        <v>-48300</v>
       </c>
       <c r="G91" s="3">
-        <v>-32600</v>
+        <v>-31200</v>
       </c>
       <c r="H91" s="3">
-        <v>-26900</v>
+        <v>-25800</v>
       </c>
       <c r="I91" s="3">
-        <v>-32300</v>
+        <v>-30900</v>
       </c>
       <c r="J91" s="3">
-        <v>-36500</v>
+        <v>-34900</v>
       </c>
       <c r="K91" s="3">
         <v>-37500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3364400</v>
+        <v>-3219400</v>
       </c>
       <c r="E94" s="3">
-        <v>243500</v>
+        <v>233000</v>
       </c>
       <c r="F94" s="3">
-        <v>-461200</v>
+        <v>-441300</v>
       </c>
       <c r="G94" s="3">
-        <v>483100</v>
+        <v>462300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1368000</v>
+        <v>-1309100</v>
       </c>
       <c r="I94" s="3">
-        <v>467700</v>
+        <v>447500</v>
       </c>
       <c r="J94" s="3">
-        <v>464100</v>
+        <v>444100</v>
       </c>
       <c r="K94" s="3">
         <v>58600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-255500</v>
+        <v>-244500</v>
       </c>
       <c r="E96" s="3">
-        <v>-406600</v>
+        <v>-389100</v>
       </c>
       <c r="F96" s="3">
-        <v>-413300</v>
+        <v>-395500</v>
       </c>
       <c r="G96" s="3">
-        <v>-433900</v>
+        <v>-415200</v>
       </c>
       <c r="H96" s="3">
-        <v>-396800</v>
+        <v>-379700</v>
       </c>
       <c r="I96" s="3">
-        <v>-425300</v>
+        <v>-407000</v>
       </c>
       <c r="J96" s="3">
-        <v>-426200</v>
+        <v>-407900</v>
       </c>
       <c r="K96" s="3">
         <v>-438100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1561200</v>
+        <v>1493900</v>
       </c>
       <c r="E100" s="3">
-        <v>1695400</v>
+        <v>1622400</v>
       </c>
       <c r="F100" s="3">
-        <v>930800</v>
+        <v>890700</v>
       </c>
       <c r="G100" s="3">
-        <v>748200</v>
+        <v>715900</v>
       </c>
       <c r="H100" s="3">
-        <v>153900</v>
+        <v>147300</v>
       </c>
       <c r="I100" s="3">
-        <v>-825500</v>
+        <v>-789900</v>
       </c>
       <c r="J100" s="3">
-        <v>1408000</v>
+        <v>1347300</v>
       </c>
       <c r="K100" s="3">
         <v>449300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>377000</v>
+        <v>360700</v>
       </c>
       <c r="E101" s="3">
-        <v>-39900</v>
+        <v>-38100</v>
       </c>
       <c r="F101" s="3">
-        <v>39800</v>
+        <v>38100</v>
       </c>
       <c r="G101" s="3">
-        <v>134700</v>
+        <v>128900</v>
       </c>
       <c r="H101" s="3">
-        <v>-44500</v>
+        <v>-42600</v>
       </c>
       <c r="I101" s="3">
-        <v>-33500</v>
+        <v>-32100</v>
       </c>
       <c r="J101" s="3">
-        <v>90700</v>
+        <v>86700</v>
       </c>
       <c r="K101" s="3">
         <v>55000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1392000</v>
+        <v>1332000</v>
       </c>
       <c r="E102" s="3">
-        <v>2501800</v>
+        <v>2394000</v>
       </c>
       <c r="F102" s="3">
-        <v>1943000</v>
+        <v>1859200</v>
       </c>
       <c r="G102" s="3">
-        <v>205300</v>
+        <v>196400</v>
       </c>
       <c r="H102" s="3">
-        <v>-20400</v>
+        <v>-19500</v>
       </c>
       <c r="I102" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="J102" s="3">
-        <v>311300</v>
+        <v>297800</v>
       </c>
       <c r="K102" s="3">
         <v>289700</v>

--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2645100</v>
+        <v>2669000</v>
       </c>
       <c r="E8" s="3">
-        <v>2079100</v>
+        <v>2097800</v>
       </c>
       <c r="F8" s="3">
-        <v>2343900</v>
+        <v>2365000</v>
       </c>
       <c r="G8" s="3">
-        <v>2219500</v>
+        <v>2239500</v>
       </c>
       <c r="H8" s="3">
-        <v>2088400</v>
+        <v>2107200</v>
       </c>
       <c r="I8" s="3">
-        <v>2121900</v>
+        <v>2141000</v>
       </c>
       <c r="J8" s="3">
-        <v>2108200</v>
+        <v>2127200</v>
       </c>
       <c r="K8" s="3">
         <v>2434300</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-85200</v>
+        <v>-86000</v>
       </c>
       <c r="E15" s="3">
-        <v>-81400</v>
+        <v>-82200</v>
       </c>
       <c r="F15" s="3">
-        <v>-78300</v>
+        <v>-79000</v>
       </c>
       <c r="G15" s="3">
-        <v>-41800</v>
+        <v>-42200</v>
       </c>
       <c r="H15" s="3">
-        <v>-39100</v>
+        <v>-39500</v>
       </c>
       <c r="I15" s="3">
-        <v>-37000</v>
+        <v>-37300</v>
       </c>
       <c r="J15" s="3">
-        <v>-32800</v>
+        <v>-33100</v>
       </c>
       <c r="K15" s="3">
         <v>-39000</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1318400</v>
+        <v>1330200</v>
       </c>
       <c r="E17" s="3">
-        <v>1104400</v>
+        <v>1114400</v>
       </c>
       <c r="F17" s="3">
-        <v>1209400</v>
+        <v>1220300</v>
       </c>
       <c r="G17" s="3">
-        <v>1066800</v>
+        <v>1076400</v>
       </c>
       <c r="H17" s="3">
-        <v>984600</v>
+        <v>993400</v>
       </c>
       <c r="I17" s="3">
-        <v>1110000</v>
+        <v>1120000</v>
       </c>
       <c r="J17" s="3">
-        <v>1091400</v>
+        <v>1101200</v>
       </c>
       <c r="K17" s="3">
         <v>1249900</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1326800</v>
+        <v>1338700</v>
       </c>
       <c r="E18" s="3">
-        <v>974600</v>
+        <v>983400</v>
       </c>
       <c r="F18" s="3">
-        <v>1134500</v>
+        <v>1144800</v>
       </c>
       <c r="G18" s="3">
-        <v>1152700</v>
+        <v>1163100</v>
       </c>
       <c r="H18" s="3">
-        <v>1103800</v>
+        <v>1113800</v>
       </c>
       <c r="I18" s="3">
-        <v>1011900</v>
+        <v>1021000</v>
       </c>
       <c r="J18" s="3">
-        <v>1016800</v>
+        <v>1026000</v>
       </c>
       <c r="K18" s="3">
         <v>1184300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-248400</v>
+        <v>-250700</v>
       </c>
       <c r="E20" s="3">
-        <v>-320700</v>
+        <v>-323600</v>
       </c>
       <c r="F20" s="3">
-        <v>-287900</v>
+        <v>-290500</v>
       </c>
       <c r="G20" s="3">
-        <v>-318700</v>
+        <v>-321500</v>
       </c>
       <c r="H20" s="3">
-        <v>-336800</v>
+        <v>-339800</v>
       </c>
       <c r="I20" s="3">
-        <v>-300100</v>
+        <v>-302800</v>
       </c>
       <c r="J20" s="3">
-        <v>-327800</v>
+        <v>-330800</v>
       </c>
       <c r="K20" s="3">
         <v>-380900</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1162000</v>
+        <v>1172500</v>
       </c>
       <c r="E21" s="3">
-        <v>733800</v>
+        <v>740500</v>
       </c>
       <c r="F21" s="3">
-        <v>923500</v>
+        <v>931800</v>
       </c>
       <c r="G21" s="3">
-        <v>875100</v>
+        <v>883000</v>
       </c>
       <c r="H21" s="3">
-        <v>805500</v>
+        <v>812700</v>
       </c>
       <c r="I21" s="3">
-        <v>748100</v>
+        <v>754900</v>
       </c>
       <c r="J21" s="3">
-        <v>721200</v>
+        <v>727700</v>
       </c>
       <c r="K21" s="3">
         <v>842800</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1078300</v>
+        <v>1088000</v>
       </c>
       <c r="E23" s="3">
-        <v>653900</v>
+        <v>659800</v>
       </c>
       <c r="F23" s="3">
-        <v>846600</v>
+        <v>854200</v>
       </c>
       <c r="G23" s="3">
-        <v>834100</v>
+        <v>841600</v>
       </c>
       <c r="H23" s="3">
-        <v>767100</v>
+        <v>774000</v>
       </c>
       <c r="I23" s="3">
-        <v>711800</v>
+        <v>718200</v>
       </c>
       <c r="J23" s="3">
-        <v>689000</v>
+        <v>695200</v>
       </c>
       <c r="K23" s="3">
         <v>803500</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>198200</v>
+        <v>200000</v>
       </c>
       <c r="E24" s="3">
-        <v>139800</v>
+        <v>141100</v>
       </c>
       <c r="F24" s="3">
-        <v>188300</v>
+        <v>190000</v>
       </c>
       <c r="G24" s="3">
-        <v>173700</v>
+        <v>175300</v>
       </c>
       <c r="H24" s="3">
-        <v>127700</v>
+        <v>128800</v>
       </c>
       <c r="I24" s="3">
-        <v>98800</v>
+        <v>99700</v>
       </c>
       <c r="J24" s="3">
-        <v>68500</v>
+        <v>69100</v>
       </c>
       <c r="K24" s="3">
         <v>94800</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>880100</v>
+        <v>888100</v>
       </c>
       <c r="E26" s="3">
-        <v>514100</v>
+        <v>518700</v>
       </c>
       <c r="F26" s="3">
-        <v>658200</v>
+        <v>664200</v>
       </c>
       <c r="G26" s="3">
-        <v>660300</v>
+        <v>666300</v>
       </c>
       <c r="H26" s="3">
-        <v>639400</v>
+        <v>645100</v>
       </c>
       <c r="I26" s="3">
-        <v>613000</v>
+        <v>618500</v>
       </c>
       <c r="J26" s="3">
-        <v>620500</v>
+        <v>626100</v>
       </c>
       <c r="K26" s="3">
         <v>708700</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>880100</v>
+        <v>888100</v>
       </c>
       <c r="E27" s="3">
-        <v>514000</v>
+        <v>518700</v>
       </c>
       <c r="F27" s="3">
-        <v>658200</v>
+        <v>664200</v>
       </c>
       <c r="G27" s="3">
-        <v>660300</v>
+        <v>666300</v>
       </c>
       <c r="H27" s="3">
-        <v>639400</v>
+        <v>645100</v>
       </c>
       <c r="I27" s="3">
-        <v>613000</v>
+        <v>618500</v>
       </c>
       <c r="J27" s="3">
-        <v>620500</v>
+        <v>626100</v>
       </c>
       <c r="K27" s="3">
         <v>708700</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>248400</v>
+        <v>250700</v>
       </c>
       <c r="E32" s="3">
-        <v>320700</v>
+        <v>323600</v>
       </c>
       <c r="F32" s="3">
-        <v>287900</v>
+        <v>290500</v>
       </c>
       <c r="G32" s="3">
-        <v>318700</v>
+        <v>321500</v>
       </c>
       <c r="H32" s="3">
-        <v>336800</v>
+        <v>339800</v>
       </c>
       <c r="I32" s="3">
-        <v>300100</v>
+        <v>302800</v>
       </c>
       <c r="J32" s="3">
-        <v>327800</v>
+        <v>330800</v>
       </c>
       <c r="K32" s="3">
         <v>380900</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>880100</v>
+        <v>888100</v>
       </c>
       <c r="E33" s="3">
-        <v>514000</v>
+        <v>518700</v>
       </c>
       <c r="F33" s="3">
-        <v>658200</v>
+        <v>664200</v>
       </c>
       <c r="G33" s="3">
-        <v>660300</v>
+        <v>666300</v>
       </c>
       <c r="H33" s="3">
-        <v>639400</v>
+        <v>645100</v>
       </c>
       <c r="I33" s="3">
-        <v>613000</v>
+        <v>618500</v>
       </c>
       <c r="J33" s="3">
-        <v>620500</v>
+        <v>626100</v>
       </c>
       <c r="K33" s="3">
         <v>708700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>880100</v>
+        <v>888100</v>
       </c>
       <c r="E35" s="3">
-        <v>514000</v>
+        <v>518700</v>
       </c>
       <c r="F35" s="3">
-        <v>658200</v>
+        <v>664200</v>
       </c>
       <c r="G35" s="3">
-        <v>660300</v>
+        <v>666300</v>
       </c>
       <c r="H35" s="3">
-        <v>639400</v>
+        <v>645100</v>
       </c>
       <c r="I35" s="3">
-        <v>613000</v>
+        <v>618500</v>
       </c>
       <c r="J35" s="3">
-        <v>620500</v>
+        <v>626100</v>
       </c>
       <c r="K35" s="3">
         <v>708700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5244600</v>
+        <v>5291800</v>
       </c>
       <c r="E41" s="3">
-        <v>5304700</v>
+        <v>5352500</v>
       </c>
       <c r="F41" s="3">
-        <v>3099600</v>
+        <v>3127500</v>
       </c>
       <c r="G41" s="3">
-        <v>3131700</v>
+        <v>3159900</v>
       </c>
       <c r="H41" s="3">
-        <v>2183100</v>
+        <v>2202800</v>
       </c>
       <c r="I41" s="3">
-        <v>2589800</v>
+        <v>2613100</v>
       </c>
       <c r="J41" s="3">
-        <v>3643500</v>
+        <v>3676400</v>
       </c>
       <c r="K41" s="3">
         <v>2940000</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8901100</v>
+        <v>8981300</v>
       </c>
       <c r="E42" s="3">
-        <v>9616000</v>
+        <v>9702600</v>
       </c>
       <c r="F42" s="3">
-        <v>6798400</v>
+        <v>6859700</v>
       </c>
       <c r="G42" s="3">
-        <v>3873900</v>
+        <v>3908800</v>
       </c>
       <c r="H42" s="3">
-        <v>3694300</v>
+        <v>3727600</v>
       </c>
       <c r="I42" s="3">
-        <v>2315100</v>
+        <v>2336000</v>
       </c>
       <c r="J42" s="3">
-        <v>1013200</v>
+        <v>1022400</v>
       </c>
       <c r="K42" s="3">
         <v>1676000</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>54600</v>
+        <v>55100</v>
       </c>
       <c r="E47" s="3">
-        <v>49600</v>
+        <v>50000</v>
       </c>
       <c r="F47" s="3">
-        <v>56300</v>
+        <v>56800</v>
       </c>
       <c r="G47" s="3">
-        <v>49500</v>
+        <v>49900</v>
       </c>
       <c r="H47" s="3">
-        <v>42200</v>
+        <v>42600</v>
       </c>
       <c r="I47" s="3">
-        <v>36200</v>
+        <v>36500</v>
       </c>
       <c r="J47" s="3">
-        <v>31200</v>
+        <v>31500</v>
       </c>
       <c r="K47" s="3">
         <v>30100</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>371800</v>
+        <v>375200</v>
       </c>
       <c r="E48" s="3">
-        <v>388000</v>
+        <v>391500</v>
       </c>
       <c r="F48" s="3">
-        <v>426400</v>
+        <v>430200</v>
       </c>
       <c r="G48" s="3">
-        <v>255100</v>
+        <v>257400</v>
       </c>
       <c r="H48" s="3">
-        <v>255900</v>
+        <v>258200</v>
       </c>
       <c r="I48" s="3">
-        <v>259500</v>
+        <v>261800</v>
       </c>
       <c r="J48" s="3">
-        <v>256100</v>
+        <v>258400</v>
       </c>
       <c r="K48" s="3">
         <v>836300</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>80500</v>
+        <v>81200</v>
       </c>
       <c r="E49" s="3">
-        <v>67400</v>
+        <v>68000</v>
       </c>
       <c r="F49" s="3">
-        <v>64700</v>
+        <v>65300</v>
       </c>
       <c r="G49" s="3">
-        <v>57800</v>
+        <v>58300</v>
       </c>
       <c r="H49" s="3">
-        <v>43300</v>
+        <v>43700</v>
       </c>
       <c r="I49" s="3">
-        <v>32600</v>
+        <v>32900</v>
       </c>
       <c r="J49" s="3">
-        <v>29700</v>
+        <v>29900</v>
       </c>
       <c r="K49" s="3">
         <v>59700</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>487500</v>
+        <v>491900</v>
       </c>
       <c r="E52" s="3">
-        <v>397300</v>
+        <v>400900</v>
       </c>
       <c r="F52" s="3">
-        <v>356300</v>
+        <v>359500</v>
       </c>
       <c r="G52" s="3">
-        <v>308500</v>
+        <v>311300</v>
       </c>
       <c r="H52" s="3">
-        <v>296800</v>
+        <v>299500</v>
       </c>
       <c r="I52" s="3">
-        <v>312700</v>
+        <v>315500</v>
       </c>
       <c r="J52" s="3">
-        <v>284100</v>
+        <v>286700</v>
       </c>
       <c r="K52" s="3">
         <v>241400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57389700</v>
+        <v>57906700</v>
       </c>
       <c r="E54" s="3">
-        <v>51165600</v>
+        <v>51626500</v>
       </c>
       <c r="F54" s="3">
-        <v>45813400</v>
+        <v>46226100</v>
       </c>
       <c r="G54" s="3">
-        <v>39878400</v>
+        <v>40237600</v>
       </c>
       <c r="H54" s="3">
-        <v>36434800</v>
+        <v>36763100</v>
       </c>
       <c r="I54" s="3">
-        <v>35002400</v>
+        <v>35317700</v>
       </c>
       <c r="J54" s="3">
-        <v>34735200</v>
+        <v>35048100</v>
       </c>
       <c r="K54" s="3">
         <v>32898500</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>755800</v>
+        <v>762600</v>
       </c>
       <c r="E57" s="3">
-        <v>1748400</v>
+        <v>1764200</v>
       </c>
       <c r="F57" s="3">
-        <v>647800</v>
+        <v>653600</v>
       </c>
       <c r="G57" s="3">
-        <v>568800</v>
+        <v>573900</v>
       </c>
       <c r="H57" s="3">
-        <v>539300</v>
+        <v>544200</v>
       </c>
       <c r="I57" s="3">
-        <v>379000</v>
+        <v>382400</v>
       </c>
       <c r="J57" s="3">
-        <v>403200</v>
+        <v>406900</v>
       </c>
       <c r="K57" s="3">
         <v>259800</v>
@@ -2443,19 +2443,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3722500</v>
+        <v>3756000</v>
       </c>
       <c r="E58" s="3">
-        <v>2679200</v>
+        <v>2703400</v>
       </c>
       <c r="F58" s="3">
-        <v>3473800</v>
+        <v>3505100</v>
       </c>
       <c r="G58" s="3">
-        <v>3436200</v>
+        <v>3467100</v>
       </c>
       <c r="H58" s="3">
-        <v>2789000</v>
+        <v>2814100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>490800</v>
+        <v>495200</v>
       </c>
       <c r="E59" s="3">
-        <v>249600</v>
+        <v>251900</v>
       </c>
       <c r="F59" s="3">
-        <v>419800</v>
+        <v>423600</v>
       </c>
       <c r="G59" s="3">
-        <v>363400</v>
+        <v>366700</v>
       </c>
       <c r="H59" s="3">
-        <v>352500</v>
+        <v>355700</v>
       </c>
       <c r="I59" s="3">
-        <v>318200</v>
+        <v>321100</v>
       </c>
       <c r="J59" s="3">
-        <v>32500</v>
+        <v>32800</v>
       </c>
       <c r="K59" s="3">
         <v>125000</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12712200</v>
+        <v>12826800</v>
       </c>
       <c r="E61" s="3">
-        <v>11594300</v>
+        <v>11698700</v>
       </c>
       <c r="F61" s="3">
-        <v>8722500</v>
+        <v>8801100</v>
       </c>
       <c r="G61" s="3">
-        <v>7013500</v>
+        <v>7076700</v>
       </c>
       <c r="H61" s="3">
-        <v>6109400</v>
+        <v>6164400</v>
       </c>
       <c r="I61" s="3">
-        <v>8218600</v>
+        <v>8292700</v>
       </c>
       <c r="J61" s="3">
-        <v>8663500</v>
+        <v>8741500</v>
       </c>
       <c r="K61" s="3">
         <v>7548500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>803800</v>
+        <v>811000</v>
       </c>
       <c r="E62" s="3">
-        <v>570100</v>
+        <v>575300</v>
       </c>
       <c r="F62" s="3">
-        <v>426500</v>
+        <v>430300</v>
       </c>
       <c r="G62" s="3">
-        <v>404800</v>
+        <v>408500</v>
       </c>
       <c r="H62" s="3">
-        <v>425100</v>
+        <v>428900</v>
       </c>
       <c r="I62" s="3">
-        <v>418200</v>
+        <v>422000</v>
       </c>
       <c r="J62" s="3">
-        <v>745900</v>
+        <v>752600</v>
       </c>
       <c r="K62" s="3">
         <v>757700</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52702200</v>
+        <v>53177000</v>
       </c>
       <c r="E66" s="3">
-        <v>47029400</v>
+        <v>47453100</v>
       </c>
       <c r="F66" s="3">
-        <v>41897100</v>
+        <v>42274500</v>
       </c>
       <c r="G66" s="3">
-        <v>36210800</v>
+        <v>36537000</v>
       </c>
       <c r="H66" s="3">
-        <v>32987500</v>
+        <v>33284700</v>
       </c>
       <c r="I66" s="3">
-        <v>31797400</v>
+        <v>32083800</v>
       </c>
       <c r="J66" s="3">
-        <v>31693700</v>
+        <v>31979200</v>
       </c>
       <c r="K66" s="3">
         <v>29881700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1999800</v>
+        <v>2017800</v>
       </c>
       <c r="E72" s="3">
-        <v>1528800</v>
+        <v>1542600</v>
       </c>
       <c r="F72" s="3">
-        <v>1317100</v>
+        <v>1329000</v>
       </c>
       <c r="G72" s="3">
-        <v>1042000</v>
+        <v>1051400</v>
       </c>
       <c r="H72" s="3">
-        <v>938000</v>
+        <v>946400</v>
       </c>
       <c r="I72" s="3">
-        <v>861400</v>
+        <v>869200</v>
       </c>
       <c r="J72" s="3">
-        <v>711700</v>
+        <v>718100</v>
       </c>
       <c r="K72" s="3">
         <v>649900</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4687500</v>
+        <v>4729800</v>
       </c>
       <c r="E76" s="3">
-        <v>4136200</v>
+        <v>4173400</v>
       </c>
       <c r="F76" s="3">
-        <v>3916300</v>
+        <v>3951600</v>
       </c>
       <c r="G76" s="3">
-        <v>3667600</v>
+        <v>3700700</v>
       </c>
       <c r="H76" s="3">
-        <v>3447300</v>
+        <v>3478400</v>
       </c>
       <c r="I76" s="3">
-        <v>3205000</v>
+        <v>3233900</v>
       </c>
       <c r="J76" s="3">
-        <v>3041500</v>
+        <v>3068900</v>
       </c>
       <c r="K76" s="3">
         <v>3016800</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>880100</v>
+        <v>888100</v>
       </c>
       <c r="E81" s="3">
-        <v>514000</v>
+        <v>518700</v>
       </c>
       <c r="F81" s="3">
-        <v>658200</v>
+        <v>664200</v>
       </c>
       <c r="G81" s="3">
-        <v>660300</v>
+        <v>666300</v>
       </c>
       <c r="H81" s="3">
-        <v>639400</v>
+        <v>645100</v>
       </c>
       <c r="I81" s="3">
-        <v>613000</v>
+        <v>618500</v>
       </c>
       <c r="J81" s="3">
-        <v>620500</v>
+        <v>626100</v>
       </c>
       <c r="K81" s="3">
         <v>708700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>85200</v>
+        <v>86000</v>
       </c>
       <c r="E83" s="3">
-        <v>81400</v>
+        <v>82200</v>
       </c>
       <c r="F83" s="3">
-        <v>78300</v>
+        <v>79000</v>
       </c>
       <c r="G83" s="3">
-        <v>41800</v>
+        <v>42200</v>
       </c>
       <c r="H83" s="3">
-        <v>39100</v>
+        <v>39500</v>
       </c>
       <c r="I83" s="3">
-        <v>37000</v>
+        <v>37300</v>
       </c>
       <c r="J83" s="3">
-        <v>32800</v>
+        <v>33100</v>
       </c>
       <c r="K83" s="3">
         <v>39000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2696700</v>
+        <v>2721000</v>
       </c>
       <c r="E89" s="3">
-        <v>576800</v>
+        <v>582000</v>
       </c>
       <c r="F89" s="3">
-        <v>1371800</v>
+        <v>1384100</v>
       </c>
       <c r="G89" s="3">
-        <v>-1110600</v>
+        <v>-1120600</v>
       </c>
       <c r="H89" s="3">
-        <v>1184900</v>
+        <v>1195600</v>
       </c>
       <c r="I89" s="3">
-        <v>377800</v>
+        <v>381200</v>
       </c>
       <c r="J89" s="3">
-        <v>-1580300</v>
+        <v>-1594600</v>
       </c>
       <c r="K89" s="3">
         <v>-273200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39500</v>
+        <v>-39800</v>
       </c>
       <c r="E91" s="3">
-        <v>-32500</v>
+        <v>-32800</v>
       </c>
       <c r="F91" s="3">
-        <v>-48300</v>
+        <v>-48700</v>
       </c>
       <c r="G91" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-31200</v>
       </c>
-      <c r="H91" s="3">
-        <v>-25800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-30900</v>
-      </c>
       <c r="J91" s="3">
-        <v>-34900</v>
+        <v>-35300</v>
       </c>
       <c r="K91" s="3">
         <v>-37500</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3219400</v>
+        <v>-3248400</v>
       </c>
       <c r="E94" s="3">
-        <v>233000</v>
+        <v>235100</v>
       </c>
       <c r="F94" s="3">
-        <v>-441300</v>
+        <v>-445300</v>
       </c>
       <c r="G94" s="3">
-        <v>462300</v>
+        <v>466400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1309100</v>
+        <v>-1320900</v>
       </c>
       <c r="I94" s="3">
-        <v>447500</v>
+        <v>451600</v>
       </c>
       <c r="J94" s="3">
-        <v>444100</v>
+        <v>448100</v>
       </c>
       <c r="K94" s="3">
         <v>58600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-244500</v>
+        <v>-246700</v>
       </c>
       <c r="E96" s="3">
-        <v>-389100</v>
+        <v>-392600</v>
       </c>
       <c r="F96" s="3">
-        <v>-395500</v>
+        <v>-399100</v>
       </c>
       <c r="G96" s="3">
-        <v>-415200</v>
+        <v>-419000</v>
       </c>
       <c r="H96" s="3">
-        <v>-379700</v>
+        <v>-383100</v>
       </c>
       <c r="I96" s="3">
-        <v>-407000</v>
+        <v>-410700</v>
       </c>
       <c r="J96" s="3">
-        <v>-407900</v>
+        <v>-411500</v>
       </c>
       <c r="K96" s="3">
         <v>-438100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1493900</v>
+        <v>1507300</v>
       </c>
       <c r="E100" s="3">
-        <v>1622400</v>
+        <v>1637000</v>
       </c>
       <c r="F100" s="3">
-        <v>890700</v>
+        <v>898700</v>
       </c>
       <c r="G100" s="3">
-        <v>715900</v>
+        <v>722400</v>
       </c>
       <c r="H100" s="3">
-        <v>147300</v>
+        <v>148600</v>
       </c>
       <c r="I100" s="3">
-        <v>-789900</v>
+        <v>-797000</v>
       </c>
       <c r="J100" s="3">
-        <v>1347300</v>
+        <v>1359500</v>
       </c>
       <c r="K100" s="3">
         <v>449300</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>360700</v>
+        <v>364000</v>
       </c>
       <c r="E101" s="3">
-        <v>-38100</v>
+        <v>-38500</v>
       </c>
       <c r="F101" s="3">
-        <v>38100</v>
+        <v>38400</v>
       </c>
       <c r="G101" s="3">
-        <v>128900</v>
+        <v>130100</v>
       </c>
       <c r="H101" s="3">
-        <v>-42600</v>
+        <v>-43000</v>
       </c>
       <c r="I101" s="3">
-        <v>-32100</v>
+        <v>-32400</v>
       </c>
       <c r="J101" s="3">
-        <v>86700</v>
+        <v>87500</v>
       </c>
       <c r="K101" s="3">
         <v>55000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1332000</v>
+        <v>1344000</v>
       </c>
       <c r="E102" s="3">
-        <v>2394000</v>
+        <v>2415600</v>
       </c>
       <c r="F102" s="3">
-        <v>1859200</v>
+        <v>1876000</v>
       </c>
       <c r="G102" s="3">
-        <v>196400</v>
+        <v>198200</v>
       </c>
       <c r="H102" s="3">
-        <v>-19500</v>
+        <v>-19700</v>
       </c>
       <c r="I102" s="3">
         <v>3400</v>
       </c>
       <c r="J102" s="3">
-        <v>297800</v>
+        <v>300500</v>
       </c>
       <c r="K102" s="3">
         <v>289700</v>

--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>BCH</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2669000</v>
+        <v>5589700</v>
       </c>
       <c r="E8" s="3">
-        <v>2097800</v>
+        <v>3002600</v>
       </c>
       <c r="F8" s="3">
-        <v>2365000</v>
+        <v>2360000</v>
       </c>
       <c r="G8" s="3">
-        <v>2239500</v>
+        <v>2660700</v>
       </c>
       <c r="H8" s="3">
-        <v>2107200</v>
+        <v>2519400</v>
       </c>
       <c r="I8" s="3">
-        <v>2141000</v>
+        <v>2370600</v>
       </c>
       <c r="J8" s="3">
+        <v>2408700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2127200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2434300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2295700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2141100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2207500</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,9 +800,12 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -833,9 +842,12 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,9 +944,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,48 +986,54 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-86000</v>
+        <v>-106100</v>
       </c>
       <c r="E15" s="3">
-        <v>-82200</v>
+        <v>-96800</v>
       </c>
       <c r="F15" s="3">
-        <v>-79000</v>
+        <v>-92400</v>
       </c>
       <c r="G15" s="3">
-        <v>-42200</v>
+        <v>-88900</v>
       </c>
       <c r="H15" s="3">
-        <v>-39500</v>
+        <v>-47500</v>
       </c>
       <c r="I15" s="3">
-        <v>-37300</v>
+        <v>-44400</v>
       </c>
       <c r="J15" s="3">
+        <v>-41900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-33100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-39000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-36000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-90000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-103300</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1330200</v>
+        <v>3103600</v>
       </c>
       <c r="E17" s="3">
-        <v>1114400</v>
+        <v>1496500</v>
       </c>
       <c r="F17" s="3">
-        <v>1220300</v>
+        <v>1253700</v>
       </c>
       <c r="G17" s="3">
-        <v>1076400</v>
+        <v>1372800</v>
       </c>
       <c r="H17" s="3">
-        <v>993400</v>
+        <v>1210900</v>
       </c>
       <c r="I17" s="3">
-        <v>1120000</v>
+        <v>1117600</v>
       </c>
       <c r="J17" s="3">
+        <v>1260000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1101200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1249900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1203800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1120100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1133600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1338700</v>
+        <v>2486100</v>
       </c>
       <c r="E18" s="3">
-        <v>983400</v>
+        <v>1506100</v>
       </c>
       <c r="F18" s="3">
-        <v>1144800</v>
+        <v>1106300</v>
       </c>
       <c r="G18" s="3">
-        <v>1163100</v>
+        <v>1287800</v>
       </c>
       <c r="H18" s="3">
-        <v>1113800</v>
+        <v>1308500</v>
       </c>
       <c r="I18" s="3">
-        <v>1021000</v>
+        <v>1253000</v>
       </c>
       <c r="J18" s="3">
+        <v>1148700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1026000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1184300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1091900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1021100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1073900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,86 +1148,93 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-250700</v>
+        <v>-362800</v>
       </c>
       <c r="E20" s="3">
-        <v>-323600</v>
+        <v>-282000</v>
       </c>
       <c r="F20" s="3">
-        <v>-290500</v>
+        <v>-364100</v>
       </c>
       <c r="G20" s="3">
-        <v>-321500</v>
+        <v>-326900</v>
       </c>
       <c r="H20" s="3">
-        <v>-339800</v>
+        <v>-361700</v>
       </c>
       <c r="I20" s="3">
-        <v>-302800</v>
+        <v>-382300</v>
       </c>
       <c r="J20" s="3">
+        <v>-340600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-330800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-380900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-260800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-325000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-333700</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1172500</v>
+        <v>2227800</v>
       </c>
       <c r="E21" s="3">
-        <v>740500</v>
+        <v>1319300</v>
       </c>
       <c r="F21" s="3">
-        <v>931800</v>
+        <v>833200</v>
       </c>
       <c r="G21" s="3">
-        <v>883000</v>
+        <v>1048500</v>
       </c>
       <c r="H21" s="3">
-        <v>812700</v>
+        <v>993500</v>
       </c>
       <c r="I21" s="3">
-        <v>754900</v>
+        <v>914400</v>
       </c>
       <c r="J21" s="3">
+        <v>849300</v>
+      </c>
+      <c r="K21" s="3">
         <v>727700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>842800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>867300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>741400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1232,87 +1271,96 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1088000</v>
+        <v>2123300</v>
       </c>
       <c r="E23" s="3">
-        <v>659800</v>
+        <v>1224100</v>
       </c>
       <c r="F23" s="3">
-        <v>854200</v>
+        <v>742200</v>
       </c>
       <c r="G23" s="3">
-        <v>841600</v>
+        <v>961000</v>
       </c>
       <c r="H23" s="3">
-        <v>774000</v>
+        <v>946800</v>
       </c>
       <c r="I23" s="3">
-        <v>718200</v>
+        <v>870700</v>
       </c>
       <c r="J23" s="3">
+        <v>808000</v>
+      </c>
+      <c r="K23" s="3">
         <v>695200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>803500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>831100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>696100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>740300</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200000</v>
+        <v>347500</v>
       </c>
       <c r="E24" s="3">
-        <v>141100</v>
+        <v>225000</v>
       </c>
       <c r="F24" s="3">
-        <v>190000</v>
+        <v>158700</v>
       </c>
       <c r="G24" s="3">
-        <v>175300</v>
+        <v>213800</v>
       </c>
       <c r="H24" s="3">
-        <v>128800</v>
+        <v>197200</v>
       </c>
       <c r="I24" s="3">
-        <v>99700</v>
+        <v>144900</v>
       </c>
       <c r="J24" s="3">
+        <v>112200</v>
+      </c>
+      <c r="K24" s="3">
         <v>69100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>94800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>115800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>81800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>96200</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>888100</v>
+        <v>1775900</v>
       </c>
       <c r="E26" s="3">
-        <v>518700</v>
+        <v>999100</v>
       </c>
       <c r="F26" s="3">
-        <v>664200</v>
+        <v>583500</v>
       </c>
       <c r="G26" s="3">
-        <v>666300</v>
+        <v>747200</v>
       </c>
       <c r="H26" s="3">
-        <v>645100</v>
+        <v>749500</v>
       </c>
       <c r="I26" s="3">
-        <v>618500</v>
+        <v>725800</v>
       </c>
       <c r="J26" s="3">
+        <v>695800</v>
+      </c>
+      <c r="K26" s="3">
         <v>626100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>708700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>715200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>614200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>644100</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>888100</v>
+        <v>1775900</v>
       </c>
       <c r="E27" s="3">
-        <v>518700</v>
+        <v>999100</v>
       </c>
       <c r="F27" s="3">
-        <v>664200</v>
+        <v>583500</v>
       </c>
       <c r="G27" s="3">
-        <v>666300</v>
+        <v>747200</v>
       </c>
       <c r="H27" s="3">
-        <v>645100</v>
+        <v>749500</v>
       </c>
       <c r="I27" s="3">
-        <v>618500</v>
+        <v>725800</v>
       </c>
       <c r="J27" s="3">
+        <v>695800</v>
+      </c>
+      <c r="K27" s="3">
         <v>626100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>708700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>715200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>614200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>644100</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>250700</v>
+        <v>362800</v>
       </c>
       <c r="E32" s="3">
-        <v>323600</v>
+        <v>282000</v>
       </c>
       <c r="F32" s="3">
-        <v>290500</v>
+        <v>364100</v>
       </c>
       <c r="G32" s="3">
-        <v>321500</v>
+        <v>326900</v>
       </c>
       <c r="H32" s="3">
-        <v>339800</v>
+        <v>361700</v>
       </c>
       <c r="I32" s="3">
-        <v>302800</v>
+        <v>382300</v>
       </c>
       <c r="J32" s="3">
+        <v>340600</v>
+      </c>
+      <c r="K32" s="3">
         <v>330800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>380900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>260800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>325000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>333700</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>888100</v>
+        <v>1775900</v>
       </c>
       <c r="E33" s="3">
-        <v>518700</v>
+        <v>999100</v>
       </c>
       <c r="F33" s="3">
-        <v>664200</v>
+        <v>583500</v>
       </c>
       <c r="G33" s="3">
-        <v>666300</v>
+        <v>747200</v>
       </c>
       <c r="H33" s="3">
-        <v>645100</v>
+        <v>749500</v>
       </c>
       <c r="I33" s="3">
-        <v>618500</v>
+        <v>725800</v>
       </c>
       <c r="J33" s="3">
+        <v>695800</v>
+      </c>
+      <c r="K33" s="3">
         <v>626100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>708700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>715200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>614200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>644100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>888100</v>
+        <v>1775900</v>
       </c>
       <c r="E35" s="3">
-        <v>518700</v>
+        <v>999100</v>
       </c>
       <c r="F35" s="3">
-        <v>664200</v>
+        <v>583500</v>
       </c>
       <c r="G35" s="3">
-        <v>666300</v>
+        <v>747200</v>
       </c>
       <c r="H35" s="3">
-        <v>645100</v>
+        <v>749500</v>
       </c>
       <c r="I35" s="3">
-        <v>618500</v>
+        <v>725800</v>
       </c>
       <c r="J35" s="3">
+        <v>695800</v>
+      </c>
+      <c r="K35" s="3">
         <v>626100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>708700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>715200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>614200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>644100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,86 +1903,93 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5291800</v>
+        <v>5390500</v>
       </c>
       <c r="E41" s="3">
-        <v>5352500</v>
+        <v>5953300</v>
       </c>
       <c r="F41" s="3">
-        <v>3127500</v>
+        <v>6021600</v>
       </c>
       <c r="G41" s="3">
-        <v>3159900</v>
+        <v>3518500</v>
       </c>
       <c r="H41" s="3">
-        <v>2202800</v>
+        <v>3554800</v>
       </c>
       <c r="I41" s="3">
-        <v>2613100</v>
+        <v>2478200</v>
       </c>
       <c r="J41" s="3">
+        <v>2939700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3676400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2940000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2906000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1273600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1844500</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8981300</v>
+        <v>6558500</v>
       </c>
       <c r="E42" s="3">
-        <v>9702600</v>
+        <v>10104000</v>
       </c>
       <c r="F42" s="3">
-        <v>6859700</v>
+        <v>10915400</v>
       </c>
       <c r="G42" s="3">
-        <v>3908800</v>
+        <v>7717200</v>
       </c>
       <c r="H42" s="3">
-        <v>3727600</v>
+        <v>4397400</v>
       </c>
       <c r="I42" s="3">
-        <v>2336000</v>
+        <v>4193600</v>
       </c>
       <c r="J42" s="3">
+        <v>2628000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1022400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1676000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1019200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1968800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1420400</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1934,9 +2026,12 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1973,9 +2068,12 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2012,9 +2110,12 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2051,126 +2152,138 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>55100</v>
+        <v>78400</v>
       </c>
       <c r="E47" s="3">
-        <v>50000</v>
+        <v>62000</v>
       </c>
       <c r="F47" s="3">
-        <v>56800</v>
+        <v>56300</v>
       </c>
       <c r="G47" s="3">
-        <v>49900</v>
+        <v>64000</v>
       </c>
       <c r="H47" s="3">
-        <v>42600</v>
+        <v>56100</v>
       </c>
       <c r="I47" s="3">
-        <v>36500</v>
+        <v>47900</v>
       </c>
       <c r="J47" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K47" s="3">
         <v>31500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>30100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>14900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>375200</v>
+        <v>399600</v>
       </c>
       <c r="E48" s="3">
-        <v>391500</v>
+        <v>422100</v>
       </c>
       <c r="F48" s="3">
-        <v>430200</v>
+        <v>440500</v>
       </c>
       <c r="G48" s="3">
-        <v>257400</v>
+        <v>484000</v>
       </c>
       <c r="H48" s="3">
-        <v>258200</v>
+        <v>289600</v>
       </c>
       <c r="I48" s="3">
-        <v>261800</v>
+        <v>290500</v>
       </c>
       <c r="J48" s="3">
+        <v>294500</v>
+      </c>
+      <c r="K48" s="3">
         <v>258400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>836300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>278100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>284000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>330700</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>81200</v>
+        <v>134300</v>
       </c>
       <c r="E49" s="3">
-        <v>68000</v>
+        <v>91400</v>
       </c>
       <c r="F49" s="3">
-        <v>65300</v>
+        <v>76500</v>
       </c>
       <c r="G49" s="3">
-        <v>58300</v>
+        <v>73500</v>
       </c>
       <c r="H49" s="3">
-        <v>43700</v>
+        <v>65600</v>
       </c>
       <c r="I49" s="3">
-        <v>32900</v>
+        <v>49200</v>
       </c>
       <c r="J49" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K49" s="3">
         <v>29900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>59700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>93900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>96800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>119100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>491900</v>
+        <v>693500</v>
       </c>
       <c r="E52" s="3">
-        <v>400900</v>
+        <v>553400</v>
       </c>
       <c r="F52" s="3">
-        <v>359500</v>
+        <v>451000</v>
       </c>
       <c r="G52" s="3">
-        <v>311300</v>
+        <v>404400</v>
       </c>
       <c r="H52" s="3">
-        <v>299500</v>
+        <v>350200</v>
       </c>
       <c r="I52" s="3">
-        <v>315500</v>
+        <v>336900</v>
       </c>
       <c r="J52" s="3">
+        <v>355000</v>
+      </c>
+      <c r="K52" s="3">
         <v>286700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>241400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>73300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>71400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>88200</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57906700</v>
+        <v>69621800</v>
       </c>
       <c r="E54" s="3">
-        <v>51626500</v>
+        <v>65145100</v>
       </c>
       <c r="F54" s="3">
-        <v>46226100</v>
+        <v>58079900</v>
       </c>
       <c r="G54" s="3">
-        <v>40237600</v>
+        <v>52004400</v>
       </c>
       <c r="H54" s="3">
-        <v>36763100</v>
+        <v>45267300</v>
       </c>
       <c r="I54" s="3">
-        <v>35317700</v>
+        <v>41358500</v>
       </c>
       <c r="J54" s="3">
+        <v>39732400</v>
+      </c>
+      <c r="K54" s="3">
         <v>35048100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32898500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33635800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>29693700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>31981300</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,125 +2527,135 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>762600</v>
+        <v>1508900</v>
       </c>
       <c r="E57" s="3">
-        <v>1764200</v>
+        <v>857900</v>
       </c>
       <c r="F57" s="3">
-        <v>653600</v>
+        <v>1984700</v>
       </c>
       <c r="G57" s="3">
-        <v>573900</v>
+        <v>735300</v>
       </c>
       <c r="H57" s="3">
-        <v>544200</v>
+        <v>645600</v>
       </c>
       <c r="I57" s="3">
-        <v>382400</v>
+        <v>612200</v>
       </c>
       <c r="J57" s="3">
+        <v>430200</v>
+      </c>
+      <c r="K57" s="3">
         <v>406900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>259800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>197600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>93000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>228500</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3756000</v>
+        <v>4053200</v>
       </c>
       <c r="E58" s="3">
-        <v>2703400</v>
+        <v>4225500</v>
       </c>
       <c r="F58" s="3">
-        <v>3505100</v>
+        <v>3041300</v>
       </c>
       <c r="G58" s="3">
-        <v>3467100</v>
+        <v>3943200</v>
       </c>
       <c r="H58" s="3">
-        <v>2814100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>3900500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3165900</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>1366100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1272200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>495200</v>
+        <v>672600</v>
       </c>
       <c r="E59" s="3">
-        <v>251900</v>
+        <v>557100</v>
       </c>
       <c r="F59" s="3">
-        <v>423600</v>
+        <v>283400</v>
       </c>
       <c r="G59" s="3">
-        <v>366700</v>
+        <v>476500</v>
       </c>
       <c r="H59" s="3">
-        <v>355700</v>
+        <v>412500</v>
       </c>
       <c r="I59" s="3">
-        <v>321100</v>
+        <v>400100</v>
       </c>
       <c r="J59" s="3">
+        <v>361200</v>
+      </c>
+      <c r="K59" s="3">
         <v>32800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>125000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>97600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4500</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2553,87 +2692,96 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12826800</v>
+        <v>16517800</v>
       </c>
       <c r="E61" s="3">
-        <v>11698700</v>
+        <v>14430100</v>
       </c>
       <c r="F61" s="3">
-        <v>8801100</v>
+        <v>13161100</v>
       </c>
       <c r="G61" s="3">
-        <v>7076700</v>
+        <v>9901300</v>
       </c>
       <c r="H61" s="3">
-        <v>6164400</v>
+        <v>7961300</v>
       </c>
       <c r="I61" s="3">
-        <v>8292700</v>
+        <v>6935000</v>
       </c>
       <c r="J61" s="3">
+        <v>9329200</v>
+      </c>
+      <c r="K61" s="3">
         <v>8741500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7548500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6299100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6304100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6900100</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>811000</v>
+        <v>1186700</v>
       </c>
       <c r="E62" s="3">
-        <v>575300</v>
+        <v>912400</v>
       </c>
       <c r="F62" s="3">
-        <v>430300</v>
+        <v>647200</v>
       </c>
       <c r="G62" s="3">
-        <v>408500</v>
+        <v>484100</v>
       </c>
       <c r="H62" s="3">
-        <v>428900</v>
+        <v>459500</v>
       </c>
       <c r="I62" s="3">
-        <v>422000</v>
+        <v>482500</v>
       </c>
       <c r="J62" s="3">
+        <v>474800</v>
+      </c>
+      <c r="K62" s="3">
         <v>752600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>757700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>201000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>82600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>89100</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>53177000</v>
+        <v>63500300</v>
       </c>
       <c r="E66" s="3">
-        <v>47453100</v>
+        <v>59824100</v>
       </c>
       <c r="F66" s="3">
-        <v>42274500</v>
+        <v>53384800</v>
       </c>
       <c r="G66" s="3">
-        <v>36537000</v>
+        <v>47558800</v>
       </c>
       <c r="H66" s="3">
-        <v>33284700</v>
+        <v>41104100</v>
       </c>
       <c r="I66" s="3">
-        <v>32083800</v>
+        <v>37445300</v>
       </c>
       <c r="J66" s="3">
+        <v>36094300</v>
+      </c>
+      <c r="K66" s="3">
         <v>31979200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29881700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30153100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26678700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28981500</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2017800</v>
+        <v>3197900</v>
       </c>
       <c r="E72" s="3">
-        <v>1542600</v>
+        <v>2270000</v>
       </c>
       <c r="F72" s="3">
-        <v>1329000</v>
+        <v>1735400</v>
       </c>
       <c r="G72" s="3">
-        <v>1051400</v>
+        <v>1495100</v>
       </c>
       <c r="H72" s="3">
-        <v>946400</v>
+        <v>1182800</v>
       </c>
       <c r="I72" s="3">
-        <v>869200</v>
+        <v>1064700</v>
       </c>
       <c r="J72" s="3">
+        <v>977800</v>
+      </c>
+      <c r="K72" s="3">
         <v>718100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>649900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1048700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1075700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1077500</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4729800</v>
+        <v>6121500</v>
       </c>
       <c r="E76" s="3">
-        <v>4173400</v>
+        <v>5321000</v>
       </c>
       <c r="F76" s="3">
-        <v>3951600</v>
+        <v>4695100</v>
       </c>
       <c r="G76" s="3">
-        <v>3700700</v>
+        <v>4445600</v>
       </c>
       <c r="H76" s="3">
-        <v>3478400</v>
+        <v>4163200</v>
       </c>
       <c r="I76" s="3">
-        <v>3233900</v>
+        <v>3913200</v>
       </c>
       <c r="J76" s="3">
+        <v>3638100</v>
+      </c>
+      <c r="K76" s="3">
         <v>3068900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3016800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3482700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3015000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2999800</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>888100</v>
+        <v>1775900</v>
       </c>
       <c r="E81" s="3">
-        <v>518700</v>
+        <v>999100</v>
       </c>
       <c r="F81" s="3">
-        <v>664200</v>
+        <v>583500</v>
       </c>
       <c r="G81" s="3">
-        <v>666300</v>
+        <v>747200</v>
       </c>
       <c r="H81" s="3">
-        <v>645100</v>
+        <v>749500</v>
       </c>
       <c r="I81" s="3">
-        <v>618500</v>
+        <v>725800</v>
       </c>
       <c r="J81" s="3">
+        <v>695800</v>
+      </c>
+      <c r="K81" s="3">
         <v>626100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>708700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>715200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>614200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>644100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>86000</v>
+        <v>106100</v>
       </c>
       <c r="E83" s="3">
-        <v>82200</v>
+        <v>96800</v>
       </c>
       <c r="F83" s="3">
-        <v>79000</v>
+        <v>92400</v>
       </c>
       <c r="G83" s="3">
-        <v>42200</v>
+        <v>88900</v>
       </c>
       <c r="H83" s="3">
-        <v>39500</v>
+        <v>47500</v>
       </c>
       <c r="I83" s="3">
-        <v>37300</v>
+        <v>44400</v>
       </c>
       <c r="J83" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K83" s="3">
         <v>33100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>39000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>36000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>45000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2721000</v>
+        <v>-420300</v>
       </c>
       <c r="E89" s="3">
-        <v>582000</v>
+        <v>3061200</v>
       </c>
       <c r="F89" s="3">
-        <v>1384100</v>
+        <v>654800</v>
       </c>
       <c r="G89" s="3">
-        <v>-1120600</v>
+        <v>1557200</v>
       </c>
       <c r="H89" s="3">
-        <v>1195600</v>
+        <v>-1260700</v>
       </c>
       <c r="I89" s="3">
-        <v>381200</v>
+        <v>1345000</v>
       </c>
       <c r="J89" s="3">
+        <v>428900</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1594600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-273200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-181800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-532500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-668700</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39800</v>
+        <v>-26800</v>
       </c>
       <c r="E91" s="3">
-        <v>-32800</v>
+        <v>-44800</v>
       </c>
       <c r="F91" s="3">
-        <v>-48700</v>
+        <v>-36900</v>
       </c>
       <c r="G91" s="3">
-        <v>-31400</v>
+        <v>-54800</v>
       </c>
       <c r="H91" s="3">
-        <v>-26000</v>
+        <v>-35400</v>
       </c>
       <c r="I91" s="3">
-        <v>-31200</v>
+        <v>-29300</v>
       </c>
       <c r="J91" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-35300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-37500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-32400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3248400</v>
+        <v>-91500</v>
       </c>
       <c r="E94" s="3">
-        <v>235100</v>
+        <v>-3654400</v>
       </c>
       <c r="F94" s="3">
-        <v>-445300</v>
+        <v>264400</v>
       </c>
       <c r="G94" s="3">
-        <v>466400</v>
+        <v>-501000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1320900</v>
+        <v>524700</v>
       </c>
       <c r="I94" s="3">
-        <v>451600</v>
+        <v>-1486000</v>
       </c>
       <c r="J94" s="3">
+        <v>508000</v>
+      </c>
+      <c r="K94" s="3">
         <v>448100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>58600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-532000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>246200</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-246700</v>
+        <v>-680200</v>
       </c>
       <c r="E96" s="3">
-        <v>-392600</v>
+        <v>-277500</v>
       </c>
       <c r="F96" s="3">
-        <v>-399100</v>
+        <v>-441700</v>
       </c>
       <c r="G96" s="3">
-        <v>-419000</v>
+        <v>-449000</v>
       </c>
       <c r="H96" s="3">
-        <v>-383100</v>
+        <v>-471300</v>
       </c>
       <c r="I96" s="3">
-        <v>-410700</v>
+        <v>-431000</v>
       </c>
       <c r="J96" s="3">
+        <v>-462000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-411500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-438100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-446500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-379900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-410400</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1507300</v>
+        <v>-1027200</v>
       </c>
       <c r="E100" s="3">
-        <v>1637000</v>
+        <v>1695700</v>
       </c>
       <c r="F100" s="3">
-        <v>898700</v>
+        <v>1841600</v>
       </c>
       <c r="G100" s="3">
-        <v>722400</v>
+        <v>1011100</v>
       </c>
       <c r="H100" s="3">
-        <v>148600</v>
+        <v>812700</v>
       </c>
       <c r="I100" s="3">
-        <v>-797000</v>
+        <v>167200</v>
       </c>
       <c r="J100" s="3">
+        <v>-896600</v>
+      </c>
+      <c r="K100" s="3">
         <v>1359500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>449300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1002100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>61600</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>364000</v>
+        <v>47900</v>
       </c>
       <c r="E101" s="3">
-        <v>-38500</v>
+        <v>409500</v>
       </c>
       <c r="F101" s="3">
-        <v>38400</v>
+        <v>-43300</v>
       </c>
       <c r="G101" s="3">
-        <v>130100</v>
+        <v>43200</v>
       </c>
       <c r="H101" s="3">
-        <v>-43000</v>
+        <v>146300</v>
       </c>
       <c r="I101" s="3">
-        <v>-32400</v>
+        <v>-48400</v>
       </c>
       <c r="J101" s="3">
+        <v>-36400</v>
+      </c>
+      <c r="K101" s="3">
         <v>87500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>55000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>78600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-40600</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1344000</v>
+        <v>-1491100</v>
       </c>
       <c r="E102" s="3">
-        <v>2415600</v>
+        <v>1512000</v>
       </c>
       <c r="F102" s="3">
-        <v>1876000</v>
+        <v>2717500</v>
       </c>
       <c r="G102" s="3">
-        <v>198200</v>
+        <v>2110500</v>
       </c>
       <c r="H102" s="3">
-        <v>-19700</v>
+        <v>223000</v>
       </c>
       <c r="I102" s="3">
-        <v>3400</v>
+        <v>-22200</v>
       </c>
       <c r="J102" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K102" s="3">
         <v>300500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>289700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>366900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-265300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>190700</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2227800</v>
+        <v>2229400</v>
       </c>
       <c r="E21" s="3">
-        <v>1319300</v>
+        <v>1320800</v>
       </c>
       <c r="F21" s="3">
-        <v>833200</v>
+        <v>834700</v>
       </c>
       <c r="G21" s="3">
-        <v>1048500</v>
+        <v>1049900</v>
       </c>
       <c r="H21" s="3">
-        <v>993500</v>
+        <v>994200</v>
       </c>
       <c r="I21" s="3">
-        <v>914400</v>
+        <v>915100</v>
       </c>
       <c r="J21" s="3">
-        <v>849300</v>
+        <v>850000</v>
       </c>
       <c r="K21" s="3">
         <v>727700</v>

--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5589700</v>
+        <v>5190500</v>
       </c>
       <c r="E8" s="3">
-        <v>3002600</v>
+        <v>2788100</v>
       </c>
       <c r="F8" s="3">
-        <v>2360000</v>
+        <v>2191400</v>
       </c>
       <c r="G8" s="3">
-        <v>2660700</v>
+        <v>2470600</v>
       </c>
       <c r="H8" s="3">
-        <v>2519400</v>
+        <v>2339500</v>
       </c>
       <c r="I8" s="3">
-        <v>2370600</v>
+        <v>2201300</v>
       </c>
       <c r="J8" s="3">
-        <v>2408700</v>
+        <v>2236600</v>
       </c>
       <c r="K8" s="3">
         <v>2127200</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-106100</v>
+        <v>-98500</v>
       </c>
       <c r="E15" s="3">
-        <v>-96800</v>
+        <v>-89900</v>
       </c>
       <c r="F15" s="3">
-        <v>-92400</v>
+        <v>-85800</v>
       </c>
       <c r="G15" s="3">
-        <v>-88900</v>
+        <v>-82500</v>
       </c>
       <c r="H15" s="3">
-        <v>-47500</v>
+        <v>-44100</v>
       </c>
       <c r="I15" s="3">
-        <v>-44400</v>
+        <v>-41200</v>
       </c>
       <c r="J15" s="3">
-        <v>-41900</v>
+        <v>-38900</v>
       </c>
       <c r="K15" s="3">
         <v>-33100</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3103600</v>
+        <v>2881900</v>
       </c>
       <c r="E17" s="3">
-        <v>1496500</v>
+        <v>1389600</v>
       </c>
       <c r="F17" s="3">
-        <v>1253700</v>
+        <v>1164100</v>
       </c>
       <c r="G17" s="3">
-        <v>1372800</v>
+        <v>1274800</v>
       </c>
       <c r="H17" s="3">
-        <v>1210900</v>
+        <v>1124400</v>
       </c>
       <c r="I17" s="3">
-        <v>1117600</v>
+        <v>1037800</v>
       </c>
       <c r="J17" s="3">
-        <v>1260000</v>
+        <v>1170000</v>
       </c>
       <c r="K17" s="3">
         <v>1101200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2486100</v>
+        <v>2308500</v>
       </c>
       <c r="E18" s="3">
-        <v>1506100</v>
+        <v>1398500</v>
       </c>
       <c r="F18" s="3">
-        <v>1106300</v>
+        <v>1027300</v>
       </c>
       <c r="G18" s="3">
-        <v>1287800</v>
+        <v>1195900</v>
       </c>
       <c r="H18" s="3">
-        <v>1308500</v>
+        <v>1215000</v>
       </c>
       <c r="I18" s="3">
-        <v>1253000</v>
+        <v>1163500</v>
       </c>
       <c r="J18" s="3">
-        <v>1148700</v>
+        <v>1066600</v>
       </c>
       <c r="K18" s="3">
         <v>1026000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-362800</v>
+        <v>-336900</v>
       </c>
       <c r="E20" s="3">
-        <v>-282000</v>
+        <v>-261900</v>
       </c>
       <c r="F20" s="3">
-        <v>-364100</v>
+        <v>-338100</v>
       </c>
       <c r="G20" s="3">
-        <v>-326900</v>
+        <v>-303500</v>
       </c>
       <c r="H20" s="3">
-        <v>-361700</v>
+        <v>-335900</v>
       </c>
       <c r="I20" s="3">
-        <v>-382300</v>
+        <v>-355000</v>
       </c>
       <c r="J20" s="3">
-        <v>-340600</v>
+        <v>-316300</v>
       </c>
       <c r="K20" s="3">
         <v>-330800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2229400</v>
+        <v>2070200</v>
       </c>
       <c r="E21" s="3">
-        <v>1320800</v>
+        <v>1226500</v>
       </c>
       <c r="F21" s="3">
-        <v>834700</v>
+        <v>775000</v>
       </c>
       <c r="G21" s="3">
-        <v>1049900</v>
+        <v>974900</v>
       </c>
       <c r="H21" s="3">
-        <v>994200</v>
+        <v>923200</v>
       </c>
       <c r="I21" s="3">
-        <v>915100</v>
+        <v>849800</v>
       </c>
       <c r="J21" s="3">
-        <v>850000</v>
+        <v>789300</v>
       </c>
       <c r="K21" s="3">
         <v>727700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2123300</v>
+        <v>1971700</v>
       </c>
       <c r="E23" s="3">
-        <v>1224100</v>
+        <v>1136600</v>
       </c>
       <c r="F23" s="3">
-        <v>742200</v>
+        <v>689200</v>
       </c>
       <c r="G23" s="3">
-        <v>961000</v>
+        <v>892300</v>
       </c>
       <c r="H23" s="3">
-        <v>946800</v>
+        <v>879100</v>
       </c>
       <c r="I23" s="3">
-        <v>870700</v>
+        <v>808500</v>
       </c>
       <c r="J23" s="3">
-        <v>808000</v>
+        <v>750300</v>
       </c>
       <c r="K23" s="3">
         <v>695200</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>347500</v>
+        <v>322600</v>
       </c>
       <c r="E24" s="3">
-        <v>225000</v>
+        <v>208900</v>
       </c>
       <c r="F24" s="3">
-        <v>158700</v>
+        <v>147400</v>
       </c>
       <c r="G24" s="3">
-        <v>213800</v>
+        <v>198500</v>
       </c>
       <c r="H24" s="3">
-        <v>197200</v>
+        <v>183100</v>
       </c>
       <c r="I24" s="3">
-        <v>144900</v>
+        <v>134600</v>
       </c>
       <c r="J24" s="3">
-        <v>112200</v>
+        <v>104200</v>
       </c>
       <c r="K24" s="3">
         <v>69100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1775900</v>
+        <v>1649000</v>
       </c>
       <c r="E26" s="3">
-        <v>999100</v>
+        <v>927700</v>
       </c>
       <c r="F26" s="3">
-        <v>583500</v>
+        <v>541800</v>
       </c>
       <c r="G26" s="3">
-        <v>747200</v>
+        <v>693800</v>
       </c>
       <c r="H26" s="3">
-        <v>749500</v>
+        <v>696000</v>
       </c>
       <c r="I26" s="3">
-        <v>725800</v>
+        <v>673900</v>
       </c>
       <c r="J26" s="3">
-        <v>695800</v>
+        <v>646100</v>
       </c>
       <c r="K26" s="3">
         <v>626100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1775900</v>
+        <v>1649000</v>
       </c>
       <c r="E27" s="3">
-        <v>999100</v>
+        <v>927700</v>
       </c>
       <c r="F27" s="3">
-        <v>583500</v>
+        <v>541800</v>
       </c>
       <c r="G27" s="3">
-        <v>747200</v>
+        <v>693800</v>
       </c>
       <c r="H27" s="3">
-        <v>749500</v>
+        <v>696000</v>
       </c>
       <c r="I27" s="3">
-        <v>725800</v>
+        <v>673900</v>
       </c>
       <c r="J27" s="3">
-        <v>695800</v>
+        <v>646100</v>
       </c>
       <c r="K27" s="3">
         <v>626100</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>362800</v>
+        <v>336900</v>
       </c>
       <c r="E32" s="3">
-        <v>282000</v>
+        <v>261900</v>
       </c>
       <c r="F32" s="3">
-        <v>364100</v>
+        <v>338100</v>
       </c>
       <c r="G32" s="3">
-        <v>326900</v>
+        <v>303500</v>
       </c>
       <c r="H32" s="3">
-        <v>361700</v>
+        <v>335900</v>
       </c>
       <c r="I32" s="3">
-        <v>382300</v>
+        <v>355000</v>
       </c>
       <c r="J32" s="3">
-        <v>340600</v>
+        <v>316300</v>
       </c>
       <c r="K32" s="3">
         <v>330800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1775900</v>
+        <v>1649000</v>
       </c>
       <c r="E33" s="3">
-        <v>999100</v>
+        <v>927700</v>
       </c>
       <c r="F33" s="3">
-        <v>583500</v>
+        <v>541800</v>
       </c>
       <c r="G33" s="3">
-        <v>747200</v>
+        <v>693800</v>
       </c>
       <c r="H33" s="3">
-        <v>749500</v>
+        <v>696000</v>
       </c>
       <c r="I33" s="3">
-        <v>725800</v>
+        <v>673900</v>
       </c>
       <c r="J33" s="3">
-        <v>695800</v>
+        <v>646100</v>
       </c>
       <c r="K33" s="3">
         <v>626100</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1775900</v>
+        <v>1649000</v>
       </c>
       <c r="E35" s="3">
-        <v>999100</v>
+        <v>927700</v>
       </c>
       <c r="F35" s="3">
-        <v>583500</v>
+        <v>541800</v>
       </c>
       <c r="G35" s="3">
-        <v>747200</v>
+        <v>693800</v>
       </c>
       <c r="H35" s="3">
-        <v>749500</v>
+        <v>696000</v>
       </c>
       <c r="I35" s="3">
-        <v>725800</v>
+        <v>673900</v>
       </c>
       <c r="J35" s="3">
-        <v>695800</v>
+        <v>646100</v>
       </c>
       <c r="K35" s="3">
         <v>626100</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5390500</v>
+        <v>5005500</v>
       </c>
       <c r="E41" s="3">
-        <v>5953300</v>
+        <v>5528100</v>
       </c>
       <c r="F41" s="3">
-        <v>6021600</v>
+        <v>5591500</v>
       </c>
       <c r="G41" s="3">
-        <v>3518500</v>
+        <v>3267200</v>
       </c>
       <c r="H41" s="3">
-        <v>3554800</v>
+        <v>3300900</v>
       </c>
       <c r="I41" s="3">
-        <v>2478200</v>
+        <v>2301200</v>
       </c>
       <c r="J41" s="3">
-        <v>2939700</v>
+        <v>2729800</v>
       </c>
       <c r="K41" s="3">
         <v>3676400</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6558500</v>
+        <v>6090100</v>
       </c>
       <c r="E42" s="3">
-        <v>10104000</v>
+        <v>9382300</v>
       </c>
       <c r="F42" s="3">
-        <v>10915400</v>
+        <v>10135800</v>
       </c>
       <c r="G42" s="3">
-        <v>7717200</v>
+        <v>7165900</v>
       </c>
       <c r="H42" s="3">
-        <v>4397400</v>
+        <v>4083300</v>
       </c>
       <c r="I42" s="3">
-        <v>4193600</v>
+        <v>3894000</v>
       </c>
       <c r="J42" s="3">
-        <v>2628000</v>
+        <v>2440300</v>
       </c>
       <c r="K42" s="3">
         <v>1022400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>78400</v>
+        <v>72800</v>
       </c>
       <c r="E47" s="3">
-        <v>62000</v>
+        <v>57500</v>
       </c>
       <c r="F47" s="3">
-        <v>56300</v>
+        <v>52200</v>
       </c>
       <c r="G47" s="3">
-        <v>64000</v>
+        <v>59400</v>
       </c>
       <c r="H47" s="3">
-        <v>56100</v>
+        <v>52100</v>
       </c>
       <c r="I47" s="3">
-        <v>47900</v>
+        <v>44500</v>
       </c>
       <c r="J47" s="3">
-        <v>41100</v>
+        <v>38100</v>
       </c>
       <c r="K47" s="3">
         <v>31500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>399600</v>
+        <v>371100</v>
       </c>
       <c r="E48" s="3">
-        <v>422100</v>
+        <v>391900</v>
       </c>
       <c r="F48" s="3">
-        <v>440500</v>
+        <v>409000</v>
       </c>
       <c r="G48" s="3">
-        <v>484000</v>
+        <v>449400</v>
       </c>
       <c r="H48" s="3">
-        <v>289600</v>
+        <v>268900</v>
       </c>
       <c r="I48" s="3">
-        <v>290500</v>
+        <v>269800</v>
       </c>
       <c r="J48" s="3">
-        <v>294500</v>
+        <v>273500</v>
       </c>
       <c r="K48" s="3">
         <v>258400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>134300</v>
+        <v>124700</v>
       </c>
       <c r="E49" s="3">
-        <v>91400</v>
+        <v>84900</v>
       </c>
       <c r="F49" s="3">
-        <v>76500</v>
+        <v>71000</v>
       </c>
       <c r="G49" s="3">
-        <v>73500</v>
+        <v>68200</v>
       </c>
       <c r="H49" s="3">
-        <v>65600</v>
+        <v>60900</v>
       </c>
       <c r="I49" s="3">
-        <v>49200</v>
+        <v>45700</v>
       </c>
       <c r="J49" s="3">
-        <v>37000</v>
+        <v>34300</v>
       </c>
       <c r="K49" s="3">
         <v>29900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>693500</v>
+        <v>643900</v>
       </c>
       <c r="E52" s="3">
-        <v>553400</v>
+        <v>513900</v>
       </c>
       <c r="F52" s="3">
-        <v>451000</v>
+        <v>418800</v>
       </c>
       <c r="G52" s="3">
-        <v>404400</v>
+        <v>375500</v>
       </c>
       <c r="H52" s="3">
-        <v>350200</v>
+        <v>325200</v>
       </c>
       <c r="I52" s="3">
-        <v>336900</v>
+        <v>312900</v>
       </c>
       <c r="J52" s="3">
-        <v>355000</v>
+        <v>329600</v>
       </c>
       <c r="K52" s="3">
         <v>286700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69621800</v>
+        <v>64648800</v>
       </c>
       <c r="E54" s="3">
-        <v>65145100</v>
+        <v>60491900</v>
       </c>
       <c r="F54" s="3">
-        <v>58079900</v>
+        <v>53931300</v>
       </c>
       <c r="G54" s="3">
-        <v>52004400</v>
+        <v>48289800</v>
       </c>
       <c r="H54" s="3">
-        <v>45267300</v>
+        <v>42034000</v>
       </c>
       <c r="I54" s="3">
-        <v>41358500</v>
+        <v>38404300</v>
       </c>
       <c r="J54" s="3">
-        <v>39732400</v>
+        <v>36894400</v>
       </c>
       <c r="K54" s="3">
         <v>35048100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1508900</v>
+        <v>1401100</v>
       </c>
       <c r="E57" s="3">
-        <v>857900</v>
+        <v>796700</v>
       </c>
       <c r="F57" s="3">
-        <v>1984700</v>
+        <v>1842900</v>
       </c>
       <c r="G57" s="3">
-        <v>735300</v>
+        <v>682800</v>
       </c>
       <c r="H57" s="3">
-        <v>645600</v>
+        <v>599500</v>
       </c>
       <c r="I57" s="3">
-        <v>612200</v>
+        <v>568500</v>
       </c>
       <c r="J57" s="3">
-        <v>430200</v>
+        <v>399500</v>
       </c>
       <c r="K57" s="3">
         <v>406900</v>
@@ -2576,22 +2576,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4053200</v>
+        <v>3763700</v>
       </c>
       <c r="E58" s="3">
-        <v>4225500</v>
+        <v>3923700</v>
       </c>
       <c r="F58" s="3">
-        <v>3041300</v>
+        <v>2824000</v>
       </c>
       <c r="G58" s="3">
-        <v>3943200</v>
+        <v>3661500</v>
       </c>
       <c r="H58" s="3">
-        <v>3900500</v>
+        <v>3621900</v>
       </c>
       <c r="I58" s="3">
-        <v>3165900</v>
+        <v>2939700</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>672600</v>
+        <v>624600</v>
       </c>
       <c r="E59" s="3">
-        <v>557100</v>
+        <v>517300</v>
       </c>
       <c r="F59" s="3">
-        <v>283400</v>
+        <v>263100</v>
       </c>
       <c r="G59" s="3">
-        <v>476500</v>
+        <v>442500</v>
       </c>
       <c r="H59" s="3">
-        <v>412500</v>
+        <v>383100</v>
       </c>
       <c r="I59" s="3">
-        <v>400100</v>
+        <v>371500</v>
       </c>
       <c r="J59" s="3">
-        <v>361200</v>
+        <v>335400</v>
       </c>
       <c r="K59" s="3">
         <v>32800</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16517800</v>
+        <v>15338000</v>
       </c>
       <c r="E61" s="3">
-        <v>14430100</v>
+        <v>13399400</v>
       </c>
       <c r="F61" s="3">
-        <v>13161100</v>
+        <v>12221000</v>
       </c>
       <c r="G61" s="3">
-        <v>9901300</v>
+        <v>9194000</v>
       </c>
       <c r="H61" s="3">
-        <v>7961300</v>
+        <v>7392600</v>
       </c>
       <c r="I61" s="3">
-        <v>6935000</v>
+        <v>6439600</v>
       </c>
       <c r="J61" s="3">
-        <v>9329200</v>
+        <v>8662900</v>
       </c>
       <c r="K61" s="3">
         <v>8741500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1186700</v>
+        <v>1101900</v>
       </c>
       <c r="E62" s="3">
-        <v>912400</v>
+        <v>847200</v>
       </c>
       <c r="F62" s="3">
-        <v>647200</v>
+        <v>601000</v>
       </c>
       <c r="G62" s="3">
-        <v>484100</v>
+        <v>449500</v>
       </c>
       <c r="H62" s="3">
-        <v>459500</v>
+        <v>426700</v>
       </c>
       <c r="I62" s="3">
-        <v>482500</v>
+        <v>448100</v>
       </c>
       <c r="J62" s="3">
-        <v>474800</v>
+        <v>440800</v>
       </c>
       <c r="K62" s="3">
         <v>752600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>63500300</v>
+        <v>58964500</v>
       </c>
       <c r="E66" s="3">
-        <v>59824100</v>
+        <v>55550900</v>
       </c>
       <c r="F66" s="3">
-        <v>53384800</v>
+        <v>49571600</v>
       </c>
       <c r="G66" s="3">
-        <v>47558800</v>
+        <v>44161800</v>
       </c>
       <c r="H66" s="3">
-        <v>41104100</v>
+        <v>38168100</v>
       </c>
       <c r="I66" s="3">
-        <v>37445300</v>
+        <v>34770600</v>
       </c>
       <c r="J66" s="3">
-        <v>36094300</v>
+        <v>33516100</v>
       </c>
       <c r="K66" s="3">
         <v>31979200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3197900</v>
+        <v>2969500</v>
       </c>
       <c r="E72" s="3">
-        <v>2270000</v>
+        <v>2107900</v>
       </c>
       <c r="F72" s="3">
-        <v>1735400</v>
+        <v>1611500</v>
       </c>
       <c r="G72" s="3">
-        <v>1495100</v>
+        <v>1388300</v>
       </c>
       <c r="H72" s="3">
-        <v>1182800</v>
+        <v>1098300</v>
       </c>
       <c r="I72" s="3">
-        <v>1064700</v>
+        <v>988700</v>
       </c>
       <c r="J72" s="3">
-        <v>977800</v>
+        <v>908000</v>
       </c>
       <c r="K72" s="3">
         <v>718100</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>6121500</v>
+        <v>5684200</v>
       </c>
       <c r="E76" s="3">
-        <v>5321000</v>
+        <v>4940900</v>
       </c>
       <c r="F76" s="3">
-        <v>4695100</v>
+        <v>4359700</v>
       </c>
       <c r="G76" s="3">
-        <v>4445600</v>
+        <v>4128000</v>
       </c>
       <c r="H76" s="3">
-        <v>4163200</v>
+        <v>3865900</v>
       </c>
       <c r="I76" s="3">
-        <v>3913200</v>
+        <v>3633700</v>
       </c>
       <c r="J76" s="3">
-        <v>3638100</v>
+        <v>3378300</v>
       </c>
       <c r="K76" s="3">
         <v>3068900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1775900</v>
+        <v>1649000</v>
       </c>
       <c r="E81" s="3">
-        <v>999100</v>
+        <v>927700</v>
       </c>
       <c r="F81" s="3">
-        <v>583500</v>
+        <v>541800</v>
       </c>
       <c r="G81" s="3">
-        <v>747200</v>
+        <v>693800</v>
       </c>
       <c r="H81" s="3">
-        <v>749500</v>
+        <v>696000</v>
       </c>
       <c r="I81" s="3">
-        <v>725800</v>
+        <v>673900</v>
       </c>
       <c r="J81" s="3">
-        <v>695800</v>
+        <v>646100</v>
       </c>
       <c r="K81" s="3">
         <v>626100</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>106100</v>
+        <v>98500</v>
       </c>
       <c r="E83" s="3">
-        <v>96800</v>
+        <v>89900</v>
       </c>
       <c r="F83" s="3">
-        <v>92400</v>
+        <v>85800</v>
       </c>
       <c r="G83" s="3">
-        <v>88900</v>
+        <v>82500</v>
       </c>
       <c r="H83" s="3">
-        <v>47500</v>
+        <v>44100</v>
       </c>
       <c r="I83" s="3">
-        <v>44400</v>
+        <v>41200</v>
       </c>
       <c r="J83" s="3">
-        <v>41900</v>
+        <v>38900</v>
       </c>
       <c r="K83" s="3">
         <v>33100</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-420300</v>
+        <v>-390300</v>
       </c>
       <c r="E89" s="3">
-        <v>3061200</v>
+        <v>2842500</v>
       </c>
       <c r="F89" s="3">
-        <v>654800</v>
+        <v>608000</v>
       </c>
       <c r="G89" s="3">
-        <v>1557200</v>
+        <v>1445900</v>
       </c>
       <c r="H89" s="3">
-        <v>-1260700</v>
+        <v>-1170700</v>
       </c>
       <c r="I89" s="3">
-        <v>1345000</v>
+        <v>1249000</v>
       </c>
       <c r="J89" s="3">
-        <v>428900</v>
+        <v>398200</v>
       </c>
       <c r="K89" s="3">
         <v>-1594600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26800</v>
+        <v>-24900</v>
       </c>
       <c r="E91" s="3">
-        <v>-44800</v>
+        <v>-41600</v>
       </c>
       <c r="F91" s="3">
-        <v>-36900</v>
+        <v>-34300</v>
       </c>
       <c r="G91" s="3">
-        <v>-54800</v>
+        <v>-50900</v>
       </c>
       <c r="H91" s="3">
-        <v>-35400</v>
+        <v>-32800</v>
       </c>
       <c r="I91" s="3">
-        <v>-29300</v>
+        <v>-27200</v>
       </c>
       <c r="J91" s="3">
-        <v>-35100</v>
+        <v>-32500</v>
       </c>
       <c r="K91" s="3">
         <v>-35300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-91500</v>
+        <v>-85000</v>
       </c>
       <c r="E94" s="3">
-        <v>-3654400</v>
+        <v>-3393400</v>
       </c>
       <c r="F94" s="3">
-        <v>264400</v>
+        <v>245600</v>
       </c>
       <c r="G94" s="3">
-        <v>-501000</v>
+        <v>-465200</v>
       </c>
       <c r="H94" s="3">
-        <v>524700</v>
+        <v>487200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1486000</v>
+        <v>-1379800</v>
       </c>
       <c r="J94" s="3">
-        <v>508000</v>
+        <v>471700</v>
       </c>
       <c r="K94" s="3">
         <v>448100</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-680200</v>
+        <v>-631600</v>
       </c>
       <c r="E96" s="3">
-        <v>-277500</v>
+        <v>-257700</v>
       </c>
       <c r="F96" s="3">
-        <v>-441700</v>
+        <v>-410100</v>
       </c>
       <c r="G96" s="3">
-        <v>-449000</v>
+        <v>-416900</v>
       </c>
       <c r="H96" s="3">
-        <v>-471300</v>
+        <v>-437700</v>
       </c>
       <c r="I96" s="3">
-        <v>-431000</v>
+        <v>-400200</v>
       </c>
       <c r="J96" s="3">
-        <v>-462000</v>
+        <v>-429000</v>
       </c>
       <c r="K96" s="3">
         <v>-411500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1027200</v>
+        <v>-953800</v>
       </c>
       <c r="E100" s="3">
-        <v>1695700</v>
+        <v>1574600</v>
       </c>
       <c r="F100" s="3">
-        <v>1841600</v>
+        <v>1710100</v>
       </c>
       <c r="G100" s="3">
-        <v>1011100</v>
+        <v>938900</v>
       </c>
       <c r="H100" s="3">
-        <v>812700</v>
+        <v>754600</v>
       </c>
       <c r="I100" s="3">
-        <v>167200</v>
+        <v>155200</v>
       </c>
       <c r="J100" s="3">
-        <v>-896600</v>
+        <v>-832600</v>
       </c>
       <c r="K100" s="3">
         <v>1359500</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>47900</v>
+        <v>44500</v>
       </c>
       <c r="E101" s="3">
-        <v>409500</v>
+        <v>380200</v>
       </c>
       <c r="F101" s="3">
-        <v>-43300</v>
+        <v>-40200</v>
       </c>
       <c r="G101" s="3">
-        <v>43200</v>
+        <v>40100</v>
       </c>
       <c r="H101" s="3">
-        <v>146300</v>
+        <v>135900</v>
       </c>
       <c r="I101" s="3">
-        <v>-48400</v>
+        <v>-44900</v>
       </c>
       <c r="J101" s="3">
-        <v>-36400</v>
+        <v>-33800</v>
       </c>
       <c r="K101" s="3">
         <v>87500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1491100</v>
+        <v>-1384600</v>
       </c>
       <c r="E102" s="3">
-        <v>1512000</v>
+        <v>1404000</v>
       </c>
       <c r="F102" s="3">
-        <v>2717500</v>
+        <v>2523400</v>
       </c>
       <c r="G102" s="3">
-        <v>2110500</v>
+        <v>1959700</v>
       </c>
       <c r="H102" s="3">
-        <v>223000</v>
+        <v>207100</v>
       </c>
       <c r="I102" s="3">
-        <v>-22200</v>
+        <v>-20600</v>
       </c>
       <c r="J102" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="K102" s="3">
         <v>300500</v>

--- a/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BCH_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5190500</v>
+        <v>5013000</v>
       </c>
       <c r="E8" s="3">
-        <v>2788100</v>
+        <v>2692800</v>
       </c>
       <c r="F8" s="3">
-        <v>2191400</v>
+        <v>2116500</v>
       </c>
       <c r="G8" s="3">
-        <v>2470600</v>
+        <v>2386200</v>
       </c>
       <c r="H8" s="3">
-        <v>2339500</v>
+        <v>2259500</v>
       </c>
       <c r="I8" s="3">
-        <v>2201300</v>
+        <v>2126000</v>
       </c>
       <c r="J8" s="3">
-        <v>2236600</v>
+        <v>2160100</v>
       </c>
       <c r="K8" s="3">
         <v>2127200</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-98500</v>
+        <v>-95200</v>
       </c>
       <c r="E15" s="3">
-        <v>-89900</v>
+        <v>-86800</v>
       </c>
       <c r="F15" s="3">
-        <v>-85800</v>
+        <v>-82900</v>
       </c>
       <c r="G15" s="3">
-        <v>-82500</v>
+        <v>-79700</v>
       </c>
       <c r="H15" s="3">
-        <v>-44100</v>
+        <v>-42600</v>
       </c>
       <c r="I15" s="3">
-        <v>-41200</v>
+        <v>-39800</v>
       </c>
       <c r="J15" s="3">
-        <v>-38900</v>
+        <v>-37600</v>
       </c>
       <c r="K15" s="3">
         <v>-33100</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2881900</v>
+        <v>2783400</v>
       </c>
       <c r="E17" s="3">
-        <v>1389600</v>
+        <v>1342100</v>
       </c>
       <c r="F17" s="3">
-        <v>1164100</v>
+        <v>1124300</v>
       </c>
       <c r="G17" s="3">
-        <v>1274800</v>
+        <v>1231200</v>
       </c>
       <c r="H17" s="3">
-        <v>1124400</v>
+        <v>1086000</v>
       </c>
       <c r="I17" s="3">
-        <v>1037800</v>
+        <v>1002300</v>
       </c>
       <c r="J17" s="3">
-        <v>1170000</v>
+        <v>1130000</v>
       </c>
       <c r="K17" s="3">
         <v>1101200</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2308500</v>
+        <v>2229600</v>
       </c>
       <c r="E18" s="3">
-        <v>1398500</v>
+        <v>1350700</v>
       </c>
       <c r="F18" s="3">
-        <v>1027300</v>
+        <v>992200</v>
       </c>
       <c r="G18" s="3">
-        <v>1195900</v>
+        <v>1155000</v>
       </c>
       <c r="H18" s="3">
-        <v>1215000</v>
+        <v>1173500</v>
       </c>
       <c r="I18" s="3">
-        <v>1163500</v>
+        <v>1123700</v>
       </c>
       <c r="J18" s="3">
-        <v>1066600</v>
+        <v>1030100</v>
       </c>
       <c r="K18" s="3">
         <v>1026000</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-336900</v>
+        <v>-325300</v>
       </c>
       <c r="E20" s="3">
-        <v>-261900</v>
+        <v>-252900</v>
       </c>
       <c r="F20" s="3">
-        <v>-338100</v>
+        <v>-326500</v>
       </c>
       <c r="G20" s="3">
-        <v>-303500</v>
+        <v>-293100</v>
       </c>
       <c r="H20" s="3">
-        <v>-335900</v>
+        <v>-324400</v>
       </c>
       <c r="I20" s="3">
-        <v>-355000</v>
+        <v>-342900</v>
       </c>
       <c r="J20" s="3">
-        <v>-316300</v>
+        <v>-305500</v>
       </c>
       <c r="K20" s="3">
         <v>-330800</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2070200</v>
+        <v>1999400</v>
       </c>
       <c r="E21" s="3">
-        <v>1226500</v>
+        <v>1184500</v>
       </c>
       <c r="F21" s="3">
-        <v>775000</v>
+        <v>748500</v>
       </c>
       <c r="G21" s="3">
-        <v>974900</v>
+        <v>941600</v>
       </c>
       <c r="H21" s="3">
-        <v>923200</v>
+        <v>891700</v>
       </c>
       <c r="I21" s="3">
-        <v>849800</v>
+        <v>820700</v>
       </c>
       <c r="J21" s="3">
-        <v>789300</v>
+        <v>762300</v>
       </c>
       <c r="K21" s="3">
         <v>727700</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1971700</v>
+        <v>1904300</v>
       </c>
       <c r="E23" s="3">
-        <v>1136600</v>
+        <v>1097800</v>
       </c>
       <c r="F23" s="3">
-        <v>689200</v>
+        <v>665700</v>
       </c>
       <c r="G23" s="3">
-        <v>892300</v>
+        <v>861800</v>
       </c>
       <c r="H23" s="3">
-        <v>879100</v>
+        <v>849100</v>
       </c>
       <c r="I23" s="3">
-        <v>808500</v>
+        <v>780900</v>
       </c>
       <c r="J23" s="3">
-        <v>750300</v>
+        <v>724700</v>
       </c>
       <c r="K23" s="3">
         <v>695200</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>322600</v>
+        <v>311600</v>
       </c>
       <c r="E24" s="3">
-        <v>208900</v>
+        <v>201800</v>
       </c>
       <c r="F24" s="3">
-        <v>147400</v>
+        <v>142300</v>
       </c>
       <c r="G24" s="3">
-        <v>198500</v>
+        <v>191700</v>
       </c>
       <c r="H24" s="3">
-        <v>183100</v>
+        <v>176900</v>
       </c>
       <c r="I24" s="3">
-        <v>134600</v>
+        <v>130000</v>
       </c>
       <c r="J24" s="3">
-        <v>104200</v>
+        <v>100600</v>
       </c>
       <c r="K24" s="3">
         <v>69100</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1649000</v>
+        <v>1592700</v>
       </c>
       <c r="E26" s="3">
-        <v>927700</v>
+        <v>896000</v>
       </c>
       <c r="F26" s="3">
-        <v>541800</v>
+        <v>523300</v>
       </c>
       <c r="G26" s="3">
-        <v>693800</v>
+        <v>670100</v>
       </c>
       <c r="H26" s="3">
-        <v>696000</v>
+        <v>672200</v>
       </c>
       <c r="I26" s="3">
-        <v>673900</v>
+        <v>650900</v>
       </c>
       <c r="J26" s="3">
-        <v>646100</v>
+        <v>624000</v>
       </c>
       <c r="K26" s="3">
         <v>626100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1649000</v>
+        <v>1592700</v>
       </c>
       <c r="E27" s="3">
-        <v>927700</v>
+        <v>896000</v>
       </c>
       <c r="F27" s="3">
-        <v>541800</v>
+        <v>523300</v>
       </c>
       <c r="G27" s="3">
-        <v>693800</v>
+        <v>670100</v>
       </c>
       <c r="H27" s="3">
-        <v>696000</v>
+        <v>672200</v>
       </c>
       <c r="I27" s="3">
-        <v>673900</v>
+        <v>650900</v>
       </c>
       <c r="J27" s="3">
-        <v>646100</v>
+        <v>624000</v>
       </c>
       <c r="K27" s="3">
         <v>626100</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>336900</v>
+        <v>325300</v>
       </c>
       <c r="E32" s="3">
-        <v>261900</v>
+        <v>252900</v>
       </c>
       <c r="F32" s="3">
-        <v>338100</v>
+        <v>326500</v>
       </c>
       <c r="G32" s="3">
-        <v>303500</v>
+        <v>293100</v>
       </c>
       <c r="H32" s="3">
-        <v>335900</v>
+        <v>324400</v>
       </c>
       <c r="I32" s="3">
-        <v>355000</v>
+        <v>342900</v>
       </c>
       <c r="J32" s="3">
-        <v>316300</v>
+        <v>305500</v>
       </c>
       <c r="K32" s="3">
         <v>330800</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1649000</v>
+        <v>1592700</v>
       </c>
       <c r="E33" s="3">
-        <v>927700</v>
+        <v>896000</v>
       </c>
       <c r="F33" s="3">
-        <v>541800</v>
+        <v>523300</v>
       </c>
       <c r="G33" s="3">
-        <v>693800</v>
+        <v>670100</v>
       </c>
       <c r="H33" s="3">
-        <v>696000</v>
+        <v>672200</v>
       </c>
       <c r="I33" s="3">
-        <v>673900</v>
+        <v>650900</v>
       </c>
       <c r="J33" s="3">
-        <v>646100</v>
+        <v>624000</v>
       </c>
       <c r="K33" s="3">
         <v>626100</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1649000</v>
+        <v>1592700</v>
       </c>
       <c r="E35" s="3">
-        <v>927700</v>
+        <v>896000</v>
       </c>
       <c r="F35" s="3">
-        <v>541800</v>
+        <v>523300</v>
       </c>
       <c r="G35" s="3">
-        <v>693800</v>
+        <v>670100</v>
       </c>
       <c r="H35" s="3">
-        <v>696000</v>
+        <v>672200</v>
       </c>
       <c r="I35" s="3">
-        <v>673900</v>
+        <v>650900</v>
       </c>
       <c r="J35" s="3">
-        <v>646100</v>
+        <v>624000</v>
       </c>
       <c r="K35" s="3">
         <v>626100</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5005500</v>
+        <v>4834400</v>
       </c>
       <c r="E41" s="3">
-        <v>5528100</v>
+        <v>5339100</v>
       </c>
       <c r="F41" s="3">
-        <v>5591500</v>
+        <v>5400300</v>
       </c>
       <c r="G41" s="3">
-        <v>3267200</v>
+        <v>3155500</v>
       </c>
       <c r="H41" s="3">
-        <v>3300900</v>
+        <v>3188100</v>
       </c>
       <c r="I41" s="3">
-        <v>2301200</v>
+        <v>2222500</v>
       </c>
       <c r="J41" s="3">
-        <v>2729800</v>
+        <v>2636400</v>
       </c>
       <c r="K41" s="3">
         <v>3676400</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6090100</v>
+        <v>5881900</v>
       </c>
       <c r="E42" s="3">
-        <v>9382300</v>
+        <v>9061500</v>
       </c>
       <c r="F42" s="3">
-        <v>10135800</v>
+        <v>9789200</v>
       </c>
       <c r="G42" s="3">
-        <v>7165900</v>
+        <v>6920900</v>
       </c>
       <c r="H42" s="3">
-        <v>4083300</v>
+        <v>3943700</v>
       </c>
       <c r="I42" s="3">
-        <v>3894000</v>
+        <v>3760900</v>
       </c>
       <c r="J42" s="3">
-        <v>2440300</v>
+        <v>2356800</v>
       </c>
       <c r="K42" s="3">
         <v>1022400</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>72800</v>
+        <v>70300</v>
       </c>
       <c r="E47" s="3">
-        <v>57500</v>
+        <v>55600</v>
       </c>
       <c r="F47" s="3">
-        <v>52200</v>
+        <v>50500</v>
       </c>
       <c r="G47" s="3">
-        <v>59400</v>
+        <v>57400</v>
       </c>
       <c r="H47" s="3">
-        <v>52100</v>
+        <v>50400</v>
       </c>
       <c r="I47" s="3">
-        <v>44500</v>
+        <v>43000</v>
       </c>
       <c r="J47" s="3">
-        <v>38100</v>
+        <v>36800</v>
       </c>
       <c r="K47" s="3">
         <v>31500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>371100</v>
+        <v>358400</v>
       </c>
       <c r="E48" s="3">
-        <v>391900</v>
+        <v>378500</v>
       </c>
       <c r="F48" s="3">
-        <v>409000</v>
+        <v>395000</v>
       </c>
       <c r="G48" s="3">
-        <v>449400</v>
+        <v>434100</v>
       </c>
       <c r="H48" s="3">
-        <v>268900</v>
+        <v>259700</v>
       </c>
       <c r="I48" s="3">
-        <v>269800</v>
+        <v>260500</v>
       </c>
       <c r="J48" s="3">
-        <v>273500</v>
+        <v>264100</v>
       </c>
       <c r="K48" s="3">
         <v>258400</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>124700</v>
+        <v>120500</v>
       </c>
       <c r="E49" s="3">
-        <v>84900</v>
+        <v>82000</v>
       </c>
       <c r="F49" s="3">
-        <v>71000</v>
+        <v>68600</v>
       </c>
       <c r="G49" s="3">
-        <v>68200</v>
+        <v>65900</v>
       </c>
       <c r="H49" s="3">
-        <v>60900</v>
+        <v>58800</v>
       </c>
       <c r="I49" s="3">
-        <v>45700</v>
+        <v>44100</v>
       </c>
       <c r="J49" s="3">
-        <v>34300</v>
+        <v>33200</v>
       </c>
       <c r="K49" s="3">
         <v>29900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>643900</v>
+        <v>621900</v>
       </c>
       <c r="E52" s="3">
-        <v>513900</v>
+        <v>496300</v>
       </c>
       <c r="F52" s="3">
-        <v>418800</v>
+        <v>404500</v>
       </c>
       <c r="G52" s="3">
-        <v>375500</v>
+        <v>362700</v>
       </c>
       <c r="H52" s="3">
-        <v>325200</v>
+        <v>314100</v>
       </c>
       <c r="I52" s="3">
-        <v>312900</v>
+        <v>302200</v>
       </c>
       <c r="J52" s="3">
-        <v>329600</v>
+        <v>318300</v>
       </c>
       <c r="K52" s="3">
         <v>286700</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64648800</v>
+        <v>62438600</v>
       </c>
       <c r="E54" s="3">
-        <v>60491900</v>
+        <v>58423800</v>
       </c>
       <c r="F54" s="3">
-        <v>53931300</v>
+        <v>52087500</v>
       </c>
       <c r="G54" s="3">
-        <v>48289800</v>
+        <v>46638900</v>
       </c>
       <c r="H54" s="3">
-        <v>42034000</v>
+        <v>40596900</v>
       </c>
       <c r="I54" s="3">
-        <v>38404300</v>
+        <v>37091300</v>
       </c>
       <c r="J54" s="3">
-        <v>36894400</v>
+        <v>35633100</v>
       </c>
       <c r="K54" s="3">
         <v>35048100</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1401100</v>
+        <v>1353200</v>
       </c>
       <c r="E57" s="3">
-        <v>796700</v>
+        <v>769400</v>
       </c>
       <c r="F57" s="3">
-        <v>1842900</v>
+        <v>1779900</v>
       </c>
       <c r="G57" s="3">
-        <v>682800</v>
+        <v>659500</v>
       </c>
       <c r="H57" s="3">
-        <v>599500</v>
+        <v>579000</v>
       </c>
       <c r="I57" s="3">
-        <v>568500</v>
+        <v>549000</v>
       </c>
       <c r="J57" s="3">
-        <v>399500</v>
+        <v>385800</v>
       </c>
       <c r="K57" s="3">
         <v>406900</v>
@@ -2576,22 +2576,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3763700</v>
+        <v>3635000</v>
       </c>
       <c r="E58" s="3">
-        <v>3923700</v>
+        <v>3789600</v>
       </c>
       <c r="F58" s="3">
-        <v>2824000</v>
+        <v>2727500</v>
       </c>
       <c r="G58" s="3">
-        <v>3661500</v>
+        <v>3536400</v>
       </c>
       <c r="H58" s="3">
-        <v>3621900</v>
+        <v>3498100</v>
       </c>
       <c r="I58" s="3">
-        <v>2939700</v>
+        <v>2839200</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>624600</v>
+        <v>603200</v>
       </c>
       <c r="E59" s="3">
-        <v>517300</v>
+        <v>499600</v>
       </c>
       <c r="F59" s="3">
-        <v>263100</v>
+        <v>254100</v>
       </c>
       <c r="G59" s="3">
-        <v>442500</v>
+        <v>427400</v>
       </c>
       <c r="H59" s="3">
-        <v>383100</v>
+        <v>370000</v>
       </c>
       <c r="I59" s="3">
-        <v>371500</v>
+        <v>358800</v>
       </c>
       <c r="J59" s="3">
-        <v>335400</v>
+        <v>323900</v>
       </c>
       <c r="K59" s="3">
         <v>32800</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15338000</v>
+        <v>14813600</v>
       </c>
       <c r="E61" s="3">
-        <v>13399400</v>
+        <v>12941300</v>
       </c>
       <c r="F61" s="3">
-        <v>12221000</v>
+        <v>11803200</v>
       </c>
       <c r="G61" s="3">
-        <v>9194000</v>
+        <v>8879700</v>
       </c>
       <c r="H61" s="3">
-        <v>7392600</v>
+        <v>7139900</v>
       </c>
       <c r="I61" s="3">
-        <v>6439600</v>
+        <v>6219500</v>
       </c>
       <c r="J61" s="3">
-        <v>8662900</v>
+        <v>8366700</v>
       </c>
       <c r="K61" s="3">
         <v>8741500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1101900</v>
+        <v>1064200</v>
       </c>
       <c r="E62" s="3">
-        <v>847200</v>
+        <v>818300</v>
       </c>
       <c r="F62" s="3">
-        <v>601000</v>
+        <v>580400</v>
       </c>
       <c r="G62" s="3">
-        <v>449500</v>
+        <v>434100</v>
       </c>
       <c r="H62" s="3">
-        <v>426700</v>
+        <v>412100</v>
       </c>
       <c r="I62" s="3">
-        <v>448100</v>
+        <v>432700</v>
       </c>
       <c r="J62" s="3">
-        <v>440800</v>
+        <v>425800</v>
       </c>
       <c r="K62" s="3">
         <v>752600</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>58964500</v>
+        <v>56948700</v>
       </c>
       <c r="E66" s="3">
-        <v>55550900</v>
+        <v>53651800</v>
       </c>
       <c r="F66" s="3">
-        <v>49571600</v>
+        <v>47876800</v>
       </c>
       <c r="G66" s="3">
-        <v>44161800</v>
+        <v>42652000</v>
       </c>
       <c r="H66" s="3">
-        <v>38168100</v>
+        <v>36863200</v>
       </c>
       <c r="I66" s="3">
-        <v>34770600</v>
+        <v>33581900</v>
       </c>
       <c r="J66" s="3">
-        <v>33516100</v>
+        <v>32370300</v>
       </c>
       <c r="K66" s="3">
         <v>31979200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>2969500</v>
+        <v>2868000</v>
       </c>
       <c r="E72" s="3">
-        <v>2107900</v>
+        <v>2035800</v>
       </c>
       <c r="F72" s="3">
-        <v>1611500</v>
+        <v>1556400</v>
       </c>
       <c r="G72" s="3">
-        <v>1388300</v>
+        <v>1340900</v>
       </c>
       <c r="H72" s="3">
-        <v>1098300</v>
+        <v>1060800</v>
       </c>
       <c r="I72" s="3">
-        <v>988700</v>
+        <v>954900</v>
       </c>
       <c r="J72" s="3">
-        <v>908000</v>
+        <v>876900</v>
       </c>
       <c r="K72" s="3">
         <v>718100</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>5684200</v>
+        <v>5489900</v>
       </c>
       <c r="E76" s="3">
-        <v>4940900</v>
+        <v>4772000</v>
       </c>
       <c r="F76" s="3">
-        <v>4359700</v>
+        <v>4210700</v>
       </c>
       <c r="G76" s="3">
-        <v>4128000</v>
+        <v>3986900</v>
       </c>
       <c r="H76" s="3">
-        <v>3865900</v>
+        <v>3733700</v>
       </c>
       <c r="I76" s="3">
-        <v>3633700</v>
+        <v>3509500</v>
       </c>
       <c r="J76" s="3">
-        <v>3378300</v>
+        <v>3262800</v>
       </c>
       <c r="K76" s="3">
         <v>3068900</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1649000</v>
+        <v>1592700</v>
       </c>
       <c r="E81" s="3">
-        <v>927700</v>
+        <v>896000</v>
       </c>
       <c r="F81" s="3">
-        <v>541800</v>
+        <v>523300</v>
       </c>
       <c r="G81" s="3">
-        <v>693800</v>
+        <v>670100</v>
       </c>
       <c r="H81" s="3">
-        <v>696000</v>
+        <v>672200</v>
       </c>
       <c r="I81" s="3">
-        <v>673900</v>
+        <v>650900</v>
       </c>
       <c r="J81" s="3">
-        <v>646100</v>
+        <v>624000</v>
       </c>
       <c r="K81" s="3">
         <v>626100</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>98500</v>
+        <v>95200</v>
       </c>
       <c r="E83" s="3">
-        <v>89900</v>
+        <v>86800</v>
       </c>
       <c r="F83" s="3">
-        <v>85800</v>
+        <v>82900</v>
       </c>
       <c r="G83" s="3">
-        <v>82500</v>
+        <v>79700</v>
       </c>
       <c r="H83" s="3">
-        <v>44100</v>
+        <v>42600</v>
       </c>
       <c r="I83" s="3">
-        <v>41200</v>
+        <v>39800</v>
       </c>
       <c r="J83" s="3">
-        <v>38900</v>
+        <v>37600</v>
       </c>
       <c r="K83" s="3">
         <v>33100</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-390300</v>
+        <v>-376900</v>
       </c>
       <c r="E89" s="3">
-        <v>2842500</v>
+        <v>2745300</v>
       </c>
       <c r="F89" s="3">
-        <v>608000</v>
+        <v>587200</v>
       </c>
       <c r="G89" s="3">
-        <v>1445900</v>
+        <v>1396500</v>
       </c>
       <c r="H89" s="3">
-        <v>-1170700</v>
+        <v>-1130600</v>
       </c>
       <c r="I89" s="3">
-        <v>1249000</v>
+        <v>1206300</v>
       </c>
       <c r="J89" s="3">
-        <v>398200</v>
+        <v>384600</v>
       </c>
       <c r="K89" s="3">
         <v>-1594600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24900</v>
+        <v>-24000</v>
       </c>
       <c r="E91" s="3">
-        <v>-41600</v>
+        <v>-40200</v>
       </c>
       <c r="F91" s="3">
-        <v>-34300</v>
+        <v>-33100</v>
       </c>
       <c r="G91" s="3">
-        <v>-50900</v>
+        <v>-49200</v>
       </c>
       <c r="H91" s="3">
-        <v>-32800</v>
+        <v>-31700</v>
       </c>
       <c r="I91" s="3">
-        <v>-27200</v>
+        <v>-26200</v>
       </c>
       <c r="J91" s="3">
-        <v>-32500</v>
+        <v>-31400</v>
       </c>
       <c r="K91" s="3">
         <v>-35300</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-85000</v>
+        <v>-82100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3393400</v>
+        <v>-3277400</v>
       </c>
       <c r="F94" s="3">
-        <v>245600</v>
+        <v>237200</v>
       </c>
       <c r="G94" s="3">
-        <v>-465200</v>
+        <v>-449300</v>
       </c>
       <c r="H94" s="3">
-        <v>487200</v>
+        <v>470600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1379800</v>
+        <v>-1332700</v>
       </c>
       <c r="J94" s="3">
-        <v>471700</v>
+        <v>455600</v>
       </c>
       <c r="K94" s="3">
         <v>448100</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-631600</v>
+        <v>-610000</v>
       </c>
       <c r="E96" s="3">
-        <v>-257700</v>
+        <v>-248900</v>
       </c>
       <c r="F96" s="3">
-        <v>-410100</v>
+        <v>-396100</v>
       </c>
       <c r="G96" s="3">
-        <v>-416900</v>
+        <v>-402600</v>
       </c>
       <c r="H96" s="3">
-        <v>-437700</v>
+        <v>-422700</v>
       </c>
       <c r="I96" s="3">
-        <v>-400200</v>
+        <v>-386500</v>
       </c>
       <c r="J96" s="3">
-        <v>-429000</v>
+        <v>-414300</v>
       </c>
       <c r="K96" s="3">
         <v>-411500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-953800</v>
+        <v>-921200</v>
       </c>
       <c r="E100" s="3">
-        <v>1574600</v>
+        <v>1520800</v>
       </c>
       <c r="F100" s="3">
-        <v>1710100</v>
+        <v>1651600</v>
       </c>
       <c r="G100" s="3">
-        <v>938900</v>
+        <v>906800</v>
       </c>
       <c r="H100" s="3">
-        <v>754600</v>
+        <v>728800</v>
       </c>
       <c r="I100" s="3">
-        <v>155200</v>
+        <v>149900</v>
       </c>
       <c r="J100" s="3">
-        <v>-832600</v>
+        <v>-804100</v>
       </c>
       <c r="K100" s="3">
         <v>1359500</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>44500</v>
+        <v>43000</v>
       </c>
       <c r="E101" s="3">
-        <v>380200</v>
+        <v>367200</v>
       </c>
       <c r="F101" s="3">
-        <v>-40200</v>
+        <v>-38800</v>
       </c>
       <c r="G101" s="3">
-        <v>40100</v>
+        <v>38800</v>
       </c>
       <c r="H101" s="3">
-        <v>135900</v>
+        <v>131200</v>
       </c>
       <c r="I101" s="3">
-        <v>-44900</v>
+        <v>-43400</v>
       </c>
       <c r="J101" s="3">
-        <v>-33800</v>
+        <v>-32600</v>
       </c>
       <c r="K101" s="3">
         <v>87500</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1384600</v>
+        <v>-1337300</v>
       </c>
       <c r="E102" s="3">
-        <v>1404000</v>
+        <v>1356000</v>
       </c>
       <c r="F102" s="3">
-        <v>2523400</v>
+        <v>2437100</v>
       </c>
       <c r="G102" s="3">
-        <v>1959700</v>
+        <v>1892700</v>
       </c>
       <c r="H102" s="3">
-        <v>207100</v>
+        <v>200000</v>
       </c>
       <c r="I102" s="3">
-        <v>-20600</v>
+        <v>-19900</v>
       </c>
       <c r="J102" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K102" s="3">
         <v>300500</v>
